--- a/ticker_components/ScreenOutput.xlsx
+++ b/ticker_components/ScreenOutput.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:G1"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,6 +466,1206 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ACE.ST</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>26.47</v>
+      </c>
+      <c r="E2" t="n">
+        <v>25.25</v>
+      </c>
+      <c r="F2" t="n">
+        <v>15.69999980926514</v>
+      </c>
+      <c r="G2" t="n">
+        <v>44.09999847412109</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>AM1S.ST</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>170.43</v>
+      </c>
+      <c r="D3" t="n">
+        <v>147.51</v>
+      </c>
+      <c r="E3" t="n">
+        <v>145.63</v>
+      </c>
+      <c r="F3" t="n">
+        <v>94.45317077636719</v>
+      </c>
+      <c r="G3" t="n">
+        <v>191.6686401367188</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ANOD-B.ST</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>209.8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>188.01</v>
+      </c>
+      <c r="E4" t="n">
+        <v>185.2</v>
+      </c>
+      <c r="F4" t="n">
+        <v>121.0414047241211</v>
+      </c>
+      <c r="G4" t="n">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ARJO-B.ST</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>54.98</v>
+      </c>
+      <c r="D5" t="n">
+        <v>52.2</v>
+      </c>
+      <c r="E5" t="n">
+        <v>51.36</v>
+      </c>
+      <c r="F5" t="n">
+        <v>38.69265365600586</v>
+      </c>
+      <c r="G5" t="n">
+        <v>63.25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>BHG.ST</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>123.5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>96.3</v>
+      </c>
+      <c r="E6" t="n">
+        <v>87.68000000000001</v>
+      </c>
+      <c r="F6" t="n">
+        <v>39</v>
+      </c>
+      <c r="G6" t="n">
+        <v>144.3999938964844</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>BINV.ST</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.8830000162124634</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.835999965667725</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>BOOZT.ST</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>135.87</v>
+      </c>
+      <c r="D8" t="n">
+        <v>94</v>
+      </c>
+      <c r="E8" t="n">
+        <v>82.48999999999999</v>
+      </c>
+      <c r="F8" t="n">
+        <v>36.20000076293945</v>
+      </c>
+      <c r="G8" t="n">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CAMX.ST</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>181.23</v>
+      </c>
+      <c r="D9" t="n">
+        <v>149.42</v>
+      </c>
+      <c r="E9" t="n">
+        <v>134.91</v>
+      </c>
+      <c r="F9" t="n">
+        <v>62</v>
+      </c>
+      <c r="G9" t="n">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>CANTA.ST</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>42.81</v>
+      </c>
+      <c r="D10" t="n">
+        <v>27.92</v>
+      </c>
+      <c r="E10" t="n">
+        <v>26.01</v>
+      </c>
+      <c r="F10" t="n">
+        <v>12.81999969482422</v>
+      </c>
+      <c r="G10" t="n">
+        <v>59.90000152587891</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>CRED-A.ST</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>831.8099999999999</v>
+      </c>
+      <c r="D11" t="n">
+        <v>664.4</v>
+      </c>
+      <c r="E11" t="n">
+        <v>609.15</v>
+      </c>
+      <c r="F11" t="n">
+        <v>318.6885986328125</v>
+      </c>
+      <c r="G11" t="n">
+        <v>991.5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>EDGE.ST</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="D12" t="n">
+        <v>6.31</v>
+      </c>
+      <c r="E12" t="n">
+        <v>5.92</v>
+      </c>
+      <c r="F12" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="G12" t="n">
+        <v>9.380000114440918</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>EPI-A.ST</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>129.9</v>
+      </c>
+      <c r="D13" t="n">
+        <v>117.7</v>
+      </c>
+      <c r="E13" t="n">
+        <v>115.48</v>
+      </c>
+      <c r="F13" t="n">
+        <v>79.51999664306641</v>
+      </c>
+      <c r="G13" t="n">
+        <v>136.4499969482422</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>EPI-B.ST</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>125.07</v>
+      </c>
+      <c r="D14" t="n">
+        <v>114.83</v>
+      </c>
+      <c r="E14" t="n">
+        <v>112.79</v>
+      </c>
+      <c r="F14" t="n">
+        <v>78.54000091552734</v>
+      </c>
+      <c r="G14" t="n">
+        <v>131.6000061035156</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ERIC-B.ST</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>98.19</v>
+      </c>
+      <c r="D15" t="n">
+        <v>91.19</v>
+      </c>
+      <c r="E15" t="n">
+        <v>87.73</v>
+      </c>
+      <c r="F15" t="n">
+        <v>59.95473861694336</v>
+      </c>
+      <c r="G15" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ETX.ST</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1.016000032424927</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1.950000047683716</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>EVO.ST</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>642.02</v>
+      </c>
+      <c r="D17" t="n">
+        <v>576.89</v>
+      </c>
+      <c r="E17" t="n">
+        <v>517.83</v>
+      </c>
+      <c r="F17" t="n">
+        <v>205.654541015625</v>
+      </c>
+      <c r="G17" t="n">
+        <v>761.4000244140625</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>FMM-B.ST</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>117.03</v>
+      </c>
+      <c r="D18" t="n">
+        <v>97.11</v>
+      </c>
+      <c r="E18" t="n">
+        <v>94.81</v>
+      </c>
+      <c r="F18" t="n">
+        <v>66.97908020019531</v>
+      </c>
+      <c r="G18" t="n">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>G5EN.ST</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>380.74</v>
+      </c>
+      <c r="D19" t="n">
+        <v>251.81</v>
+      </c>
+      <c r="E19" t="n">
+        <v>213.42</v>
+      </c>
+      <c r="F19" t="n">
+        <v>69.86784362792969</v>
+      </c>
+      <c r="G19" t="n">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>GARO.ST</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>479.28</v>
+      </c>
+      <c r="D20" t="n">
+        <v>387.85</v>
+      </c>
+      <c r="E20" t="n">
+        <v>369.26</v>
+      </c>
+      <c r="F20" t="n">
+        <v>206</v>
+      </c>
+      <c r="G20" t="n">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>HAV-B.ST</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="D21" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="E21" t="n">
+        <v>16.37</v>
+      </c>
+      <c r="F21" t="n">
+        <v>12.59088802337646</v>
+      </c>
+      <c r="G21" t="n">
+        <v>19.95000076293945</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>HIQ.ST</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>70.51000000000001</v>
+      </c>
+      <c r="D22" t="n">
+        <v>52.82</v>
+      </c>
+      <c r="E22" t="n">
+        <v>51.16</v>
+      </c>
+      <c r="F22" t="n">
+        <v>31</v>
+      </c>
+      <c r="G22" t="n">
+        <v>72.19999694824219</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>HNSA.ST</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>234.07</v>
+      </c>
+      <c r="D23" t="n">
+        <v>189.7</v>
+      </c>
+      <c r="E23" t="n">
+        <v>161.22</v>
+      </c>
+      <c r="F23" t="n">
+        <v>63.59999847412109</v>
+      </c>
+      <c r="G23" t="n">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>HOLM-B.ST</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>328.83</v>
+      </c>
+      <c r="D24" t="n">
+        <v>303.16</v>
+      </c>
+      <c r="E24" t="n">
+        <v>296.01</v>
+      </c>
+      <c r="F24" t="n">
+        <v>225.6348419189453</v>
+      </c>
+      <c r="G24" t="n">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>INSTAL.ST</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>193.13</v>
+      </c>
+      <c r="D25" t="n">
+        <v>159.81</v>
+      </c>
+      <c r="E25" t="n">
+        <v>151.46</v>
+      </c>
+      <c r="F25" t="n">
+        <v>79.56692504882812</v>
+      </c>
+      <c r="G25" t="n">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>INWI.ST</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>91.67</v>
+      </c>
+      <c r="D26" t="n">
+        <v>73.98999999999999</v>
+      </c>
+      <c r="E26" t="n">
+        <v>73.03</v>
+      </c>
+      <c r="F26" t="n">
+        <v>42.65250015258789</v>
+      </c>
+      <c r="G26" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>KIND-SDB.ST</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>67.11</v>
+      </c>
+      <c r="D27" t="n">
+        <v>56.94</v>
+      </c>
+      <c r="E27" t="n">
+        <v>53.61</v>
+      </c>
+      <c r="F27" t="n">
+        <v>22.50131988525391</v>
+      </c>
+      <c r="G27" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>KINV-A.ST</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>347.2</v>
+      </c>
+      <c r="D28" t="n">
+        <v>275.13</v>
+      </c>
+      <c r="E28" t="n">
+        <v>257.48</v>
+      </c>
+      <c r="F28" t="n">
+        <v>135.9549102783203</v>
+      </c>
+      <c r="G28" t="n">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>KINV-B.ST</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>346.2</v>
+      </c>
+      <c r="D29" t="n">
+        <v>275.79</v>
+      </c>
+      <c r="E29" t="n">
+        <v>257.12</v>
+      </c>
+      <c r="F29" t="n">
+        <v>135.54638671875</v>
+      </c>
+      <c r="G29" t="n">
+        <v>380.6499938964844</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>KNOW.ST</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>227.28</v>
+      </c>
+      <c r="D30" t="n">
+        <v>178.45</v>
+      </c>
+      <c r="E30" t="n">
+        <v>175.22</v>
+      </c>
+      <c r="F30" t="n">
+        <v>105.2045593261719</v>
+      </c>
+      <c r="G30" t="n">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>LATO-B.ST</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>203.2</v>
+      </c>
+      <c r="D31" t="n">
+        <v>178.84</v>
+      </c>
+      <c r="E31" t="n">
+        <v>171.99</v>
+      </c>
+      <c r="F31" t="n">
+        <v>116.4326324462891</v>
+      </c>
+      <c r="G31" t="n">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>MCAP.ST</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>205.12</v>
+      </c>
+      <c r="D32" t="n">
+        <v>174.3</v>
+      </c>
+      <c r="E32" t="n">
+        <v>172.23</v>
+      </c>
+      <c r="F32" t="n">
+        <v>118.8000030517578</v>
+      </c>
+      <c r="G32" t="n">
+        <v>228.5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>MIPS.ST</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>379.2</v>
+      </c>
+      <c r="D33" t="n">
+        <v>327.07</v>
+      </c>
+      <c r="E33" t="n">
+        <v>300.92</v>
+      </c>
+      <c r="F33" t="n">
+        <v>142.1559448242188</v>
+      </c>
+      <c r="G33" t="n">
+        <v>426.6000061035156</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>NCAB.ST</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>241.88</v>
+      </c>
+      <c r="D34" t="n">
+        <v>195.13</v>
+      </c>
+      <c r="E34" t="n">
+        <v>183.46</v>
+      </c>
+      <c r="F34" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="G34" t="n">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>NET-B.ST</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>82.73999999999999</v>
+      </c>
+      <c r="D35" t="n">
+        <v>64.25</v>
+      </c>
+      <c r="E35" t="n">
+        <v>54.22</v>
+      </c>
+      <c r="F35" t="n">
+        <v>15.80000019073486</v>
+      </c>
+      <c r="G35" t="n">
+        <v>98.5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>ONCO.ST</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>139.79</v>
+      </c>
+      <c r="D36" t="n">
+        <v>129.64</v>
+      </c>
+      <c r="E36" t="n">
+        <v>127.08</v>
+      </c>
+      <c r="F36" t="n">
+        <v>79.05000305175781</v>
+      </c>
+      <c r="G36" t="n">
+        <v>173.8000030517578</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>PACT.ST</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>209.43</v>
+      </c>
+      <c r="D37" t="n">
+        <v>172.46</v>
+      </c>
+      <c r="E37" t="n">
+        <v>163.42</v>
+      </c>
+      <c r="F37" t="n">
+        <v>83.55428314208984</v>
+      </c>
+      <c r="G37" t="n">
+        <v>231.5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>PRIC-B.ST</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>26.07</v>
+      </c>
+      <c r="D38" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="E38" t="n">
+        <v>22.39</v>
+      </c>
+      <c r="F38" t="n">
+        <v>12.18765068054199</v>
+      </c>
+      <c r="G38" t="n">
+        <v>29.10000038146973</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>PROB.ST</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>358.38</v>
+      </c>
+      <c r="D39" t="n">
+        <v>302.4</v>
+      </c>
+      <c r="E39" t="n">
+        <v>277.42</v>
+      </c>
+      <c r="F39" t="n">
+        <v>139.8450469970703</v>
+      </c>
+      <c r="G39" t="n">
+        <v>400.5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>QLINEA.ST</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>142.5</v>
+      </c>
+      <c r="D40" t="n">
+        <v>99.77</v>
+      </c>
+      <c r="E40" t="n">
+        <v>89.94</v>
+      </c>
+      <c r="F40" t="n">
+        <v>41</v>
+      </c>
+      <c r="G40" t="n">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>SCA-B.ST</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>118.97</v>
+      </c>
+      <c r="D41" t="n">
+        <v>111.37</v>
+      </c>
+      <c r="E41" t="n">
+        <v>107</v>
+      </c>
+      <c r="F41" t="n">
+        <v>77.87999725341797</v>
+      </c>
+      <c r="G41" t="n">
+        <v>126.6500015258789</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>SINCH.ST</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>817.3200000000001</v>
+      </c>
+      <c r="D42" t="n">
+        <v>691.78</v>
+      </c>
+      <c r="E42" t="n">
+        <v>609.66</v>
+      </c>
+      <c r="F42" t="n">
+        <v>160</v>
+      </c>
+      <c r="G42" t="n">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>SVED-B.ST</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>25.24</v>
+      </c>
+      <c r="D43" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="E43" t="n">
+        <v>22.83</v>
+      </c>
+      <c r="F43" t="n">
+        <v>16.60000038146973</v>
+      </c>
+      <c r="G43" t="n">
+        <v>27.89999961853027</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>SVIK.ST</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>55.32</v>
+      </c>
+      <c r="D44" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="E44" t="n">
+        <v>39.47</v>
+      </c>
+      <c r="F44" t="n">
+        <v>22.70000076293945</v>
+      </c>
+      <c r="G44" t="n">
+        <v>62.20000076293945</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>SYSR.ST</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>233.99</v>
+      </c>
+      <c r="D45" t="n">
+        <v>182.24</v>
+      </c>
+      <c r="E45" t="n">
+        <v>175.61</v>
+      </c>
+      <c r="F45" t="n">
+        <v>107</v>
+      </c>
+      <c r="G45" t="n">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>THULE.ST</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>279.67</v>
+      </c>
+      <c r="D46" t="n">
+        <v>234.93</v>
+      </c>
+      <c r="E46" t="n">
+        <v>226.37</v>
+      </c>
+      <c r="F46" t="n">
+        <v>136.0656280517578</v>
+      </c>
+      <c r="G46" t="n">
+        <v>311.6000061035156</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>TRENT.ST</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>66.23999999999999</v>
+      </c>
+      <c r="D47" t="n">
+        <v>60.12</v>
+      </c>
+      <c r="E47" t="n">
+        <v>58.03</v>
+      </c>
+      <c r="F47" t="n">
+        <v>45.70000076293945</v>
+      </c>
+      <c r="G47" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>VOLO.ST</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>67.23</v>
+      </c>
+      <c r="D48" t="n">
+        <v>50.92</v>
+      </c>
+      <c r="E48" t="n">
+        <v>48.3</v>
+      </c>
+      <c r="F48" t="n">
+        <v>28.79999923706055</v>
+      </c>
+      <c r="G48" t="n">
+        <v>81.09999847412109</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>XANO-B.ST</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>107.77</v>
+      </c>
+      <c r="D49" t="n">
+        <v>98.76000000000001</v>
+      </c>
+      <c r="E49" t="n">
+        <v>97.98999999999999</v>
+      </c>
+      <c r="F49" t="n">
+        <v>70</v>
+      </c>
+      <c r="G49" t="n">
+        <v>130</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/ticker_components/ScreenOutput.xlsx
+++ b/ticker_components/ScreenOutput.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,23 +472,23 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ACE.ST</t>
+          <t>ACAD.ST</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>34.7</v>
+        <v>72.79000000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>26.47</v>
+        <v>63.36</v>
       </c>
       <c r="E2" t="n">
-        <v>25.25</v>
+        <v>60.83</v>
       </c>
       <c r="F2" t="n">
-        <v>15.69999980926514</v>
+        <v>41.09999847412109</v>
       </c>
       <c r="G2" t="n">
-        <v>44.09999847412109</v>
+        <v>78.30000305175781</v>
       </c>
     </row>
     <row r="3">
@@ -497,23 +497,23 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>AM1S.ST</t>
+          <t>ACE.ST</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>170.43</v>
+        <v>34.91</v>
       </c>
       <c r="D3" t="n">
-        <v>147.51</v>
+        <v>26.6</v>
       </c>
       <c r="E3" t="n">
-        <v>145.63</v>
+        <v>25.32</v>
       </c>
       <c r="F3" t="n">
-        <v>94.45317077636719</v>
+        <v>15.69999980926514</v>
       </c>
       <c r="G3" t="n">
-        <v>191.6686401367188</v>
+        <v>44.09999847412109</v>
       </c>
     </row>
     <row r="4">
@@ -522,23 +522,23 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ANOD-B.ST</t>
+          <t>AM1S.ST</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>209.8</v>
+        <v>171.23</v>
       </c>
       <c r="D4" t="n">
-        <v>188.01</v>
+        <v>147.94</v>
       </c>
       <c r="E4" t="n">
-        <v>185.2</v>
+        <v>145.77</v>
       </c>
       <c r="F4" t="n">
-        <v>121.0414047241211</v>
+        <v>94.45317077636719</v>
       </c>
       <c r="G4" t="n">
-        <v>232</v>
+        <v>191.6686401367188</v>
       </c>
     </row>
     <row r="5">
@@ -547,23 +547,23 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ARJO-B.ST</t>
+          <t>ANOD-B.ST</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>54.98</v>
+        <v>210.54</v>
       </c>
       <c r="D5" t="n">
-        <v>52.2</v>
+        <v>188.61</v>
       </c>
       <c r="E5" t="n">
-        <v>51.36</v>
+        <v>185.4</v>
       </c>
       <c r="F5" t="n">
-        <v>38.69265365600586</v>
+        <v>121.0414047241211</v>
       </c>
       <c r="G5" t="n">
-        <v>63.25</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6">
@@ -572,23 +572,23 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BHG.ST</t>
+          <t>ARJO-B.ST</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>123.5</v>
+        <v>55.13</v>
       </c>
       <c r="D6" t="n">
-        <v>96.3</v>
+        <v>52.28</v>
       </c>
       <c r="E6" t="n">
-        <v>87.68000000000001</v>
+        <v>51.43</v>
       </c>
       <c r="F6" t="n">
-        <v>39</v>
+        <v>38.69265365600586</v>
       </c>
       <c r="G6" t="n">
-        <v>144.3999938964844</v>
+        <v>63.25</v>
       </c>
     </row>
     <row r="7">
@@ -597,23 +597,23 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BINV.ST</t>
+          <t>BHG.ST</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.58</v>
+        <v>124.04</v>
       </c>
       <c r="D7" t="n">
-        <v>1.54</v>
+        <v>96.86</v>
       </c>
       <c r="E7" t="n">
-        <v>1.49</v>
+        <v>88.04000000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8830000162124634</v>
+        <v>39</v>
       </c>
       <c r="G7" t="n">
-        <v>1.835999965667725</v>
+        <v>144.3999938964844</v>
       </c>
     </row>
     <row r="8">
@@ -622,23 +622,23 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BOOZT.ST</t>
+          <t>BINV.ST</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>135.87</v>
+        <v>1.58</v>
       </c>
       <c r="D8" t="n">
-        <v>94</v>
+        <v>1.54</v>
       </c>
       <c r="E8" t="n">
-        <v>82.48999999999999</v>
+        <v>1.49</v>
       </c>
       <c r="F8" t="n">
-        <v>36.20000076293945</v>
+        <v>0.8830000162124634</v>
       </c>
       <c r="G8" t="n">
-        <v>167</v>
+        <v>1.835999965667725</v>
       </c>
     </row>
     <row r="9">
@@ -647,23 +647,23 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CAMX.ST</t>
+          <t>BONEX.ST</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>181.23</v>
+        <v>58.47</v>
       </c>
       <c r="D9" t="n">
-        <v>149.42</v>
+        <v>45.87</v>
       </c>
       <c r="E9" t="n">
-        <v>134.91</v>
+        <v>42.81</v>
       </c>
       <c r="F9" t="n">
-        <v>62</v>
+        <v>20.79999923706055</v>
       </c>
       <c r="G9" t="n">
-        <v>194</v>
+        <v>68.80000305175781</v>
       </c>
     </row>
     <row r="10">
@@ -672,23 +672,23 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CANTA.ST</t>
+          <t>BOOZT.ST</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>42.81</v>
+        <v>136.48</v>
       </c>
       <c r="D10" t="n">
-        <v>27.92</v>
+        <v>94.70999999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>26.01</v>
+        <v>82.94</v>
       </c>
       <c r="F10" t="n">
-        <v>12.81999969482422</v>
+        <v>36.20000076293945</v>
       </c>
       <c r="G10" t="n">
-        <v>59.90000152587891</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11">
@@ -697,23 +697,23 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CRED-A.ST</t>
+          <t>CAMX.ST</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>831.8099999999999</v>
+        <v>181.72</v>
       </c>
       <c r="D11" t="n">
-        <v>664.4</v>
+        <v>150.22</v>
       </c>
       <c r="E11" t="n">
-        <v>609.15</v>
+        <v>135.4</v>
       </c>
       <c r="F11" t="n">
-        <v>318.6885986328125</v>
+        <v>62</v>
       </c>
       <c r="G11" t="n">
-        <v>991.5</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12">
@@ -722,23 +722,23 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>EDGE.ST</t>
+          <t>CANTA.ST</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>7.44</v>
+        <v>43.45</v>
       </c>
       <c r="D12" t="n">
-        <v>6.31</v>
+        <v>28.22</v>
       </c>
       <c r="E12" t="n">
-        <v>5.92</v>
+        <v>26.22</v>
       </c>
       <c r="F12" t="n">
-        <v>3.125</v>
+        <v>12.81999969482422</v>
       </c>
       <c r="G12" t="n">
-        <v>9.380000114440918</v>
+        <v>60.09999847412109</v>
       </c>
     </row>
     <row r="13">
@@ -747,23 +747,23 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>EPI-A.ST</t>
+          <t>CLNK-B.ST</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>129.9</v>
+        <v>183.77</v>
       </c>
       <c r="D13" t="n">
-        <v>117.7</v>
+        <v>149.64</v>
       </c>
       <c r="E13" t="n">
-        <v>115.48</v>
+        <v>136.5</v>
       </c>
       <c r="F13" t="n">
-        <v>79.51999664306641</v>
+        <v>68</v>
       </c>
       <c r="G13" t="n">
-        <v>136.4499969482422</v>
+        <v>210.5</v>
       </c>
     </row>
     <row r="14">
@@ -772,23 +772,23 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>EPI-B.ST</t>
+          <t>CRED-A.ST</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>125.07</v>
+        <v>833.9400000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>114.83</v>
+        <v>667.8</v>
       </c>
       <c r="E14" t="n">
-        <v>112.79</v>
+        <v>611.48</v>
       </c>
       <c r="F14" t="n">
-        <v>78.54000091552734</v>
+        <v>318.6885986328125</v>
       </c>
       <c r="G14" t="n">
-        <v>131.6000061035156</v>
+        <v>991.5</v>
       </c>
     </row>
     <row r="15">
@@ -797,23 +797,23 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ERIC-B.ST</t>
+          <t>EDGE.ST</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>98.19</v>
+        <v>7.48</v>
       </c>
       <c r="D15" t="n">
-        <v>91.19</v>
+        <v>6.35</v>
       </c>
       <c r="E15" t="n">
-        <v>87.73</v>
+        <v>5.95</v>
       </c>
       <c r="F15" t="n">
-        <v>59.95473861694336</v>
+        <v>3.125</v>
       </c>
       <c r="G15" t="n">
-        <v>109</v>
+        <v>9.479999542236328</v>
       </c>
     </row>
     <row r="16">
@@ -822,23 +822,23 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ETX.ST</t>
+          <t>ENG.ST</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1.72</v>
+        <v>78.56999999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>1.57</v>
+        <v>74.01000000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>1.54</v>
+        <v>72.39</v>
       </c>
       <c r="F16" t="n">
-        <v>1.016000032424927</v>
+        <v>58.20000076293945</v>
       </c>
       <c r="G16" t="n">
-        <v>1.950000047683716</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17">
@@ -847,23 +847,23 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>EVO.ST</t>
+          <t>EPI-A.ST</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>642.02</v>
+        <v>130.02</v>
       </c>
       <c r="D17" t="n">
-        <v>576.89</v>
+        <v>117.98</v>
       </c>
       <c r="E17" t="n">
-        <v>517.83</v>
+        <v>115.56</v>
       </c>
       <c r="F17" t="n">
-        <v>205.654541015625</v>
+        <v>79.51999664306641</v>
       </c>
       <c r="G17" t="n">
-        <v>761.4000244140625</v>
+        <v>136.4499969482422</v>
       </c>
     </row>
     <row r="18">
@@ -872,23 +872,23 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>FMM-B.ST</t>
+          <t>EPI-B.ST</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>117.03</v>
+        <v>125.15</v>
       </c>
       <c r="D18" t="n">
-        <v>97.11</v>
+        <v>115.04</v>
       </c>
       <c r="E18" t="n">
-        <v>94.81</v>
+        <v>112.85</v>
       </c>
       <c r="F18" t="n">
-        <v>66.97908020019531</v>
+        <v>78.54000091552734</v>
       </c>
       <c r="G18" t="n">
-        <v>142</v>
+        <v>131.6000061035156</v>
       </c>
     </row>
     <row r="19">
@@ -897,23 +897,23 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>G5EN.ST</t>
+          <t>ERIC-A.ST</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>380.74</v>
+        <v>106.42</v>
       </c>
       <c r="D19" t="n">
-        <v>251.81</v>
+        <v>98.97</v>
       </c>
       <c r="E19" t="n">
-        <v>213.42</v>
+        <v>94.59</v>
       </c>
       <c r="F19" t="n">
-        <v>69.86784362792969</v>
+        <v>64.63455200195312</v>
       </c>
       <c r="G19" t="n">
-        <v>454</v>
+        <v>117.5999984741211</v>
       </c>
     </row>
     <row r="20">
@@ -922,23 +922,23 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>GARO.ST</t>
+          <t>ERIC-B.ST</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>479.28</v>
+        <v>98.20999999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>387.85</v>
+        <v>91.36</v>
       </c>
       <c r="E20" t="n">
-        <v>369.26</v>
+        <v>87.81</v>
       </c>
       <c r="F20" t="n">
-        <v>206</v>
+        <v>59.95473861694336</v>
       </c>
       <c r="G20" t="n">
-        <v>512</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21">
@@ -947,23 +947,23 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>HAV-B.ST</t>
+          <t>ETX.ST</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>18.6</v>
+        <v>1.73</v>
       </c>
       <c r="D21" t="n">
-        <v>16.6</v>
+        <v>1.57</v>
       </c>
       <c r="E21" t="n">
-        <v>16.37</v>
+        <v>1.54</v>
       </c>
       <c r="F21" t="n">
-        <v>12.59088802337646</v>
+        <v>1.016000032424927</v>
       </c>
       <c r="G21" t="n">
-        <v>19.95000076293945</v>
+        <v>1.950000047683716</v>
       </c>
     </row>
     <row r="22">
@@ -972,23 +972,23 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>HIQ.ST</t>
+          <t>EVO.ST</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>70.51000000000001</v>
+        <v>642.55</v>
       </c>
       <c r="D22" t="n">
-        <v>52.82</v>
+        <v>579.27</v>
       </c>
       <c r="E22" t="n">
-        <v>51.16</v>
+        <v>519.59</v>
       </c>
       <c r="F22" t="n">
-        <v>31</v>
+        <v>206.6528625488281</v>
       </c>
       <c r="G22" t="n">
-        <v>72.19999694824219</v>
+        <v>761.4000244140625</v>
       </c>
     </row>
     <row r="23">
@@ -997,23 +997,23 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>HNSA.ST</t>
+          <t>FMM-B.ST</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>234.07</v>
+        <v>117.77</v>
       </c>
       <c r="D23" t="n">
-        <v>189.7</v>
+        <v>97.52</v>
       </c>
       <c r="E23" t="n">
-        <v>161.22</v>
+        <v>95.03</v>
       </c>
       <c r="F23" t="n">
-        <v>63.59999847412109</v>
+        <v>66.97908020019531</v>
       </c>
       <c r="G23" t="n">
-        <v>276</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24">
@@ -1022,23 +1022,23 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>HOLM-B.ST</t>
+          <t>G5EN.ST</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>328.83</v>
+        <v>381.06</v>
       </c>
       <c r="D24" t="n">
-        <v>303.16</v>
+        <v>253.76</v>
       </c>
       <c r="E24" t="n">
-        <v>296.01</v>
+        <v>214.71</v>
       </c>
       <c r="F24" t="n">
-        <v>225.6348419189453</v>
+        <v>69.86784362792969</v>
       </c>
       <c r="G24" t="n">
-        <v>353</v>
+        <v>454</v>
       </c>
     </row>
     <row r="25">
@@ -1047,23 +1047,23 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>INSTAL.ST</t>
+          <t>GARO.ST</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>193.13</v>
+        <v>480.22</v>
       </c>
       <c r="D25" t="n">
-        <v>159.81</v>
+        <v>389.45</v>
       </c>
       <c r="E25" t="n">
-        <v>151.46</v>
+        <v>370.1</v>
       </c>
       <c r="F25" t="n">
-        <v>79.56692504882812</v>
+        <v>206</v>
       </c>
       <c r="G25" t="n">
-        <v>226</v>
+        <v>512</v>
       </c>
     </row>
     <row r="26">
@@ -1072,23 +1072,23 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>INWI.ST</t>
+          <t>HAV-B.ST</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>91.67</v>
+        <v>18.65</v>
       </c>
       <c r="D26" t="n">
-        <v>73.98999999999999</v>
+        <v>16.64</v>
       </c>
       <c r="E26" t="n">
-        <v>73.03</v>
+        <v>16.39</v>
       </c>
       <c r="F26" t="n">
-        <v>42.65250015258789</v>
+        <v>12.59088802337646</v>
       </c>
       <c r="G26" t="n">
-        <v>109</v>
+        <v>19.95000076293945</v>
       </c>
     </row>
     <row r="27">
@@ -1097,23 +1097,23 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>KIND-SDB.ST</t>
+          <t>HIQ.ST</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>67.11</v>
+        <v>70.87</v>
       </c>
       <c r="D27" t="n">
-        <v>56.94</v>
+        <v>53.05</v>
       </c>
       <c r="E27" t="n">
-        <v>53.61</v>
+        <v>51.26</v>
       </c>
       <c r="F27" t="n">
-        <v>22.50131988525391</v>
+        <v>31</v>
       </c>
       <c r="G27" t="n">
-        <v>78</v>
+        <v>72.19999694824219</v>
       </c>
     </row>
     <row r="28">
@@ -1122,23 +1122,23 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>KINV-A.ST</t>
+          <t>HNSA.ST</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>347.2</v>
+        <v>233.66</v>
       </c>
       <c r="D28" t="n">
-        <v>275.13</v>
+        <v>190.91</v>
       </c>
       <c r="E28" t="n">
-        <v>257.48</v>
+        <v>162.15</v>
       </c>
       <c r="F28" t="n">
-        <v>135.9549102783203</v>
+        <v>63.59999847412109</v>
       </c>
       <c r="G28" t="n">
-        <v>386</v>
+        <v>276</v>
       </c>
     </row>
     <row r="29">
@@ -1147,23 +1147,23 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>KINV-B.ST</t>
+          <t>HOLM-B.ST</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>346.2</v>
+        <v>329.52</v>
       </c>
       <c r="D29" t="n">
-        <v>275.79</v>
+        <v>303.55</v>
       </c>
       <c r="E29" t="n">
-        <v>257.12</v>
+        <v>296.31</v>
       </c>
       <c r="F29" t="n">
-        <v>135.54638671875</v>
+        <v>225.6348419189453</v>
       </c>
       <c r="G29" t="n">
-        <v>380.6499938964844</v>
+        <v>353</v>
       </c>
     </row>
     <row r="30">
@@ -1172,23 +1172,23 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>KNOW.ST</t>
+          <t>INSTAL.ST</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>227.28</v>
+        <v>193.81</v>
       </c>
       <c r="D30" t="n">
-        <v>178.45</v>
+        <v>160.51</v>
       </c>
       <c r="E30" t="n">
-        <v>175.22</v>
+        <v>151.81</v>
       </c>
       <c r="F30" t="n">
-        <v>105.2045593261719</v>
+        <v>79.56692504882812</v>
       </c>
       <c r="G30" t="n">
-        <v>264</v>
+        <v>226</v>
       </c>
     </row>
     <row r="31">
@@ -1197,23 +1197,23 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>LATO-B.ST</t>
+          <t>INWI.ST</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>203.2</v>
+        <v>91.86</v>
       </c>
       <c r="D31" t="n">
-        <v>178.84</v>
+        <v>74.25</v>
       </c>
       <c r="E31" t="n">
-        <v>171.99</v>
+        <v>73.15000000000001</v>
       </c>
       <c r="F31" t="n">
-        <v>116.4326324462891</v>
+        <v>42.65250015258789</v>
       </c>
       <c r="G31" t="n">
-        <v>215</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32">
@@ -1222,23 +1222,23 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>MCAP.ST</t>
+          <t>KABE-B.ST</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>205.12</v>
+        <v>162.79</v>
       </c>
       <c r="D32" t="n">
-        <v>174.3</v>
+        <v>147.87</v>
       </c>
       <c r="E32" t="n">
-        <v>172.23</v>
+        <v>144.14</v>
       </c>
       <c r="F32" t="n">
-        <v>118.8000030517578</v>
+        <v>99</v>
       </c>
       <c r="G32" t="n">
-        <v>228.5</v>
+        <v>173</v>
       </c>
     </row>
     <row r="33">
@@ -1247,23 +1247,23 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>MIPS.ST</t>
+          <t>KIND-SDB.ST</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>379.2</v>
+        <v>67.14</v>
       </c>
       <c r="D33" t="n">
-        <v>327.07</v>
+        <v>57.19</v>
       </c>
       <c r="E33" t="n">
-        <v>300.92</v>
+        <v>53.72</v>
       </c>
       <c r="F33" t="n">
-        <v>142.1559448242188</v>
+        <v>22.50131988525391</v>
       </c>
       <c r="G33" t="n">
-        <v>426.6000061035156</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34">
@@ -1272,23 +1272,23 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>NCAB.ST</t>
+          <t>KINV-A.ST</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>241.88</v>
+        <v>348.27</v>
       </c>
       <c r="D34" t="n">
-        <v>195.13</v>
+        <v>276.54</v>
       </c>
       <c r="E34" t="n">
-        <v>183.46</v>
+        <v>258.22</v>
       </c>
       <c r="F34" t="n">
-        <v>100.5</v>
+        <v>135.9549102783203</v>
       </c>
       <c r="G34" t="n">
-        <v>286</v>
+        <v>386</v>
       </c>
     </row>
     <row r="35">
@@ -1297,23 +1297,23 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>NET-B.ST</t>
+          <t>KINV-B.ST</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>82.73999999999999</v>
+        <v>347.14</v>
       </c>
       <c r="D35" t="n">
-        <v>64.25</v>
+        <v>277.21</v>
       </c>
       <c r="E35" t="n">
-        <v>54.22</v>
+        <v>257.84</v>
       </c>
       <c r="F35" t="n">
-        <v>15.80000019073486</v>
+        <v>135.54638671875</v>
       </c>
       <c r="G35" t="n">
-        <v>98.5</v>
+        <v>380.6499938964844</v>
       </c>
     </row>
     <row r="36">
@@ -1322,23 +1322,23 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ONCO.ST</t>
+          <t>KNOW.ST</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>139.79</v>
+        <v>228.18</v>
       </c>
       <c r="D36" t="n">
-        <v>129.64</v>
+        <v>179.18</v>
       </c>
       <c r="E36" t="n">
-        <v>127.08</v>
+        <v>175.4</v>
       </c>
       <c r="F36" t="n">
-        <v>79.05000305175781</v>
+        <v>105.2045593261719</v>
       </c>
       <c r="G36" t="n">
-        <v>173.8000030517578</v>
+        <v>264</v>
       </c>
     </row>
     <row r="37">
@@ -1347,23 +1347,23 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>PACT.ST</t>
+          <t>LATO-B.ST</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>209.43</v>
+        <v>203.59</v>
       </c>
       <c r="D37" t="n">
-        <v>172.46</v>
+        <v>179.35</v>
       </c>
       <c r="E37" t="n">
-        <v>163.42</v>
+        <v>172.25</v>
       </c>
       <c r="F37" t="n">
-        <v>83.55428314208984</v>
+        <v>116.4326324462891</v>
       </c>
       <c r="G37" t="n">
-        <v>231.5</v>
+        <v>215</v>
       </c>
     </row>
     <row r="38">
@@ -1372,23 +1372,23 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>PRIC-B.ST</t>
+          <t>MAG.ST</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>26.07</v>
+        <v>57.19</v>
       </c>
       <c r="D38" t="n">
-        <v>22.9</v>
+        <v>48.36</v>
       </c>
       <c r="E38" t="n">
-        <v>22.39</v>
+        <v>46.97</v>
       </c>
       <c r="F38" t="n">
-        <v>12.18765068054199</v>
+        <v>28</v>
       </c>
       <c r="G38" t="n">
-        <v>29.10000038146973</v>
+        <v>62.59999847412109</v>
       </c>
     </row>
     <row r="39">
@@ -1397,23 +1397,23 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>PROB.ST</t>
+          <t>MCAP.ST</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>358.38</v>
+        <v>205.9</v>
       </c>
       <c r="D39" t="n">
-        <v>302.4</v>
+        <v>174.92</v>
       </c>
       <c r="E39" t="n">
-        <v>277.42</v>
+        <v>172.55</v>
       </c>
       <c r="F39" t="n">
-        <v>139.8450469970703</v>
+        <v>118.8000030517578</v>
       </c>
       <c r="G39" t="n">
-        <v>400.5</v>
+        <v>228.5</v>
       </c>
     </row>
     <row r="40">
@@ -1422,23 +1422,23 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>QLINEA.ST</t>
+          <t>MIPS.ST</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>142.5</v>
+        <v>380.34</v>
       </c>
       <c r="D40" t="n">
-        <v>99.77</v>
+        <v>328.38</v>
       </c>
       <c r="E40" t="n">
-        <v>89.94</v>
+        <v>301.99</v>
       </c>
       <c r="F40" t="n">
-        <v>41</v>
+        <v>142.1559448242188</v>
       </c>
       <c r="G40" t="n">
-        <v>166</v>
+        <v>426.6000061035156</v>
       </c>
     </row>
     <row r="41">
@@ -1447,23 +1447,23 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>SCA-B.ST</t>
+          <t>NCAB.ST</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>118.97</v>
+        <v>242.6</v>
       </c>
       <c r="D41" t="n">
-        <v>111.37</v>
+        <v>195.95</v>
       </c>
       <c r="E41" t="n">
-        <v>107</v>
+        <v>183.83</v>
       </c>
       <c r="F41" t="n">
-        <v>77.87999725341797</v>
+        <v>100.5</v>
       </c>
       <c r="G41" t="n">
-        <v>126.6500015258789</v>
+        <v>286</v>
       </c>
     </row>
     <row r="42">
@@ -1472,23 +1472,23 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>SINCH.ST</t>
+          <t>NET-B.ST</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>817.3200000000001</v>
+        <v>82.81</v>
       </c>
       <c r="D42" t="n">
-        <v>691.78</v>
+        <v>64.65000000000001</v>
       </c>
       <c r="E42" t="n">
-        <v>609.66</v>
+        <v>54.52</v>
       </c>
       <c r="F42" t="n">
-        <v>160</v>
+        <v>15.80000019073486</v>
       </c>
       <c r="G42" t="n">
-        <v>909</v>
+        <v>98.5</v>
       </c>
     </row>
     <row r="43">
@@ -1497,23 +1497,23 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>SVED-B.ST</t>
+          <t>ONCO.ST</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>25.24</v>
+        <v>140.39</v>
       </c>
       <c r="D43" t="n">
-        <v>22.9</v>
+        <v>129.89</v>
       </c>
       <c r="E43" t="n">
-        <v>22.83</v>
+        <v>127.26</v>
       </c>
       <c r="F43" t="n">
-        <v>16.60000038146973</v>
+        <v>79.05000305175781</v>
       </c>
       <c r="G43" t="n">
-        <v>27.89999961853027</v>
+        <v>173.8000030517578</v>
       </c>
     </row>
     <row r="44">
@@ -1522,23 +1522,23 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>SVIK.ST</t>
+          <t>PACT.ST</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>55.32</v>
+        <v>209.54</v>
       </c>
       <c r="D44" t="n">
-        <v>42.7</v>
+        <v>173.29</v>
       </c>
       <c r="E44" t="n">
-        <v>39.47</v>
+        <v>163.63</v>
       </c>
       <c r="F44" t="n">
-        <v>22.70000076293945</v>
+        <v>83.55428314208984</v>
       </c>
       <c r="G44" t="n">
-        <v>62.20000076293945</v>
+        <v>231.5</v>
       </c>
     </row>
     <row r="45">
@@ -1547,23 +1547,23 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>SYSR.ST</t>
+          <t>PENG-B.ST</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>233.99</v>
+        <v>24.66</v>
       </c>
       <c r="D45" t="n">
-        <v>182.24</v>
+        <v>18.73</v>
       </c>
       <c r="E45" t="n">
-        <v>175.61</v>
+        <v>17.09</v>
       </c>
       <c r="F45" t="n">
-        <v>107</v>
+        <v>8.680000305175781</v>
       </c>
       <c r="G45" t="n">
-        <v>271</v>
+        <v>26.39999961853027</v>
       </c>
     </row>
     <row r="46">
@@ -1572,23 +1572,23 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>THULE.ST</t>
+          <t>PRIC-B.ST</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>279.67</v>
+        <v>26.08</v>
       </c>
       <c r="D46" t="n">
-        <v>234.93</v>
+        <v>22.98</v>
       </c>
       <c r="E46" t="n">
-        <v>226.37</v>
+        <v>22.42</v>
       </c>
       <c r="F46" t="n">
-        <v>136.0656280517578</v>
+        <v>12.67672157287598</v>
       </c>
       <c r="G46" t="n">
-        <v>311.6000061035156</v>
+        <v>29.10000038146973</v>
       </c>
     </row>
     <row r="47">
@@ -1597,23 +1597,23 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>TRENT.ST</t>
+          <t>PROB.ST</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>66.23999999999999</v>
+        <v>358.23</v>
       </c>
       <c r="D47" t="n">
-        <v>60.12</v>
+        <v>303.96</v>
       </c>
       <c r="E47" t="n">
-        <v>58.03</v>
+        <v>278.24</v>
       </c>
       <c r="F47" t="n">
-        <v>45.70000076293945</v>
+        <v>139.8450469970703</v>
       </c>
       <c r="G47" t="n">
-        <v>77</v>
+        <v>400.5</v>
       </c>
     </row>
     <row r="48">
@@ -1622,23 +1622,23 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>VOLO.ST</t>
+          <t>RATO-B.ST</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>67.23</v>
+        <v>32.73</v>
       </c>
       <c r="D48" t="n">
-        <v>50.92</v>
+        <v>27.87</v>
       </c>
       <c r="E48" t="n">
-        <v>48.3</v>
+        <v>27.85</v>
       </c>
       <c r="F48" t="n">
-        <v>28.79999923706055</v>
+        <v>15.63334846496582</v>
       </c>
       <c r="G48" t="n">
-        <v>81.09999847412109</v>
+        <v>36.19975280761719</v>
       </c>
     </row>
     <row r="49">
@@ -1647,22 +1647,322 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
+          <t>SCA-B.ST</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>119.14</v>
+      </c>
+      <c r="D49" t="n">
+        <v>111.52</v>
+      </c>
+      <c r="E49" t="n">
+        <v>107.14</v>
+      </c>
+      <c r="F49" t="n">
+        <v>77.87999725341797</v>
+      </c>
+      <c r="G49" t="n">
+        <v>126.6500015258789</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>SKF-A.ST</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>185.25</v>
+      </c>
+      <c r="D50" t="n">
+        <v>170.55</v>
+      </c>
+      <c r="E50" t="n">
+        <v>169.08</v>
+      </c>
+      <c r="F50" t="n">
+        <v>113.2789611816406</v>
+      </c>
+      <c r="G50" t="n">
+        <v>196.5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>SKF-B.ST</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>185.4</v>
+      </c>
+      <c r="D51" t="n">
+        <v>170.6</v>
+      </c>
+      <c r="E51" t="n">
+        <v>169.15</v>
+      </c>
+      <c r="F51" t="n">
+        <v>113.007194519043</v>
+      </c>
+      <c r="G51" t="n">
+        <v>196.661865234375</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>SVED-B.ST</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>25.31</v>
+      </c>
+      <c r="D52" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="E52" t="n">
+        <v>22.85</v>
+      </c>
+      <c r="F52" t="n">
+        <v>16.60000038146973</v>
+      </c>
+      <c r="G52" t="n">
+        <v>27.89999961853027</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>SVIK.ST</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>55.64</v>
+      </c>
+      <c r="D53" t="n">
+        <v>42.89</v>
+      </c>
+      <c r="E53" t="n">
+        <v>39.62</v>
+      </c>
+      <c r="F53" t="n">
+        <v>22.70000076293945</v>
+      </c>
+      <c r="G53" t="n">
+        <v>62.20000076293945</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>SVOL-B.ST</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>155.06</v>
+      </c>
+      <c r="D54" t="n">
+        <v>126.07</v>
+      </c>
+      <c r="E54" t="n">
+        <v>125.94</v>
+      </c>
+      <c r="F54" t="n">
+        <v>80.19999694824219</v>
+      </c>
+      <c r="G54" t="n">
+        <v>169.6000061035156</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>SYSR.ST</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>235.03</v>
+      </c>
+      <c r="D55" t="n">
+        <v>183.18</v>
+      </c>
+      <c r="E55" t="n">
+        <v>175.97</v>
+      </c>
+      <c r="F55" t="n">
+        <v>107</v>
+      </c>
+      <c r="G55" t="n">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>THULE.ST</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>280.38</v>
+      </c>
+      <c r="D56" t="n">
+        <v>235.82</v>
+      </c>
+      <c r="E56" t="n">
+        <v>226.74</v>
+      </c>
+      <c r="F56" t="n">
+        <v>136.0656280517578</v>
+      </c>
+      <c r="G56" t="n">
+        <v>311.6000061035156</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>TRENT.ST</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>66.34999999999999</v>
+      </c>
+      <c r="D57" t="n">
+        <v>60.3</v>
+      </c>
+      <c r="E57" t="n">
+        <v>58.15</v>
+      </c>
+      <c r="F57" t="n">
+        <v>45.70000076293945</v>
+      </c>
+      <c r="G57" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>VOLO.ST</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>67.43000000000001</v>
+      </c>
+      <c r="D58" t="n">
+        <v>51.18</v>
+      </c>
+      <c r="E58" t="n">
+        <v>48.42</v>
+      </c>
+      <c r="F58" t="n">
+        <v>28.79999923706055</v>
+      </c>
+      <c r="G58" t="n">
+        <v>81.09999847412109</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>VOLV-A.ST</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>174.34</v>
+      </c>
+      <c r="D59" t="n">
+        <v>151.35</v>
+      </c>
+      <c r="E59" t="n">
+        <v>149.06</v>
+      </c>
+      <c r="F59" t="n">
+        <v>94.69905090332031</v>
+      </c>
+      <c r="G59" t="n">
+        <v>185.3999938964844</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>VOLV-B.ST</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>173.55</v>
+      </c>
+      <c r="D60" t="n">
+        <v>151.27</v>
+      </c>
+      <c r="E60" t="n">
+        <v>148.95</v>
+      </c>
+      <c r="F60" t="n">
+        <v>93.20916748046875</v>
+      </c>
+      <c r="G60" t="n">
+        <v>185.25</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
           <t>XANO-B.ST</t>
         </is>
       </c>
-      <c r="C49" t="n">
-        <v>107.77</v>
-      </c>
-      <c r="D49" t="n">
-        <v>98.76000000000001</v>
-      </c>
-      <c r="E49" t="n">
-        <v>97.98999999999999</v>
-      </c>
-      <c r="F49" t="n">
+      <c r="C61" t="n">
+        <v>108.29</v>
+      </c>
+      <c r="D61" t="n">
+        <v>99.09</v>
+      </c>
+      <c r="E61" t="n">
+        <v>98.04000000000001</v>
+      </c>
+      <c r="F61" t="n">
         <v>70</v>
       </c>
-      <c r="G49" t="n">
+      <c r="G61" t="n">
         <v>130</v>
       </c>
     </row>

--- a/ticker_components/ScreenOutput.xlsx
+++ b/ticker_components/ScreenOutput.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:G111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,23 +472,23 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ACAD.ST</t>
+          <t>ABB.ST</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>72.79000000000001</v>
+        <v>228.32</v>
       </c>
       <c r="D2" t="n">
-        <v>63.36</v>
+        <v>211.22</v>
       </c>
       <c r="E2" t="n">
-        <v>60.83</v>
+        <v>209.72</v>
       </c>
       <c r="F2" t="n">
-        <v>41.09999847412109</v>
+        <v>155.1604156494141</v>
       </c>
       <c r="G2" t="n">
-        <v>78.30000305175781</v>
+        <v>238.7389526367188</v>
       </c>
     </row>
     <row r="3">
@@ -497,23 +497,23 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ACE.ST</t>
+          <t>ACAD.ST</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>34.91</v>
+        <v>73.87</v>
       </c>
       <c r="D3" t="n">
-        <v>26.6</v>
+        <v>64.19</v>
       </c>
       <c r="E3" t="n">
-        <v>25.32</v>
+        <v>61.29</v>
       </c>
       <c r="F3" t="n">
-        <v>15.69999980926514</v>
+        <v>41.09999847412109</v>
       </c>
       <c r="G3" t="n">
-        <v>44.09999847412109</v>
+        <v>80.19999694824219</v>
       </c>
     </row>
     <row r="4">
@@ -522,23 +522,23 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>AM1S.ST</t>
+          <t>ACE.ST</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>171.23</v>
+        <v>35.77</v>
       </c>
       <c r="D4" t="n">
-        <v>147.94</v>
+        <v>27.12</v>
       </c>
       <c r="E4" t="n">
-        <v>145.77</v>
+        <v>25.59</v>
       </c>
       <c r="F4" t="n">
-        <v>94.45317077636719</v>
+        <v>15.69999980926514</v>
       </c>
       <c r="G4" t="n">
-        <v>191.6686401367188</v>
+        <v>44.09999847412109</v>
       </c>
     </row>
     <row r="5">
@@ -547,23 +547,23 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ANOD-B.ST</t>
+          <t>AM1S.ST</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>210.54</v>
+        <v>174</v>
       </c>
       <c r="D5" t="n">
-        <v>188.61</v>
+        <v>149.74</v>
       </c>
       <c r="E5" t="n">
-        <v>185.4</v>
+        <v>146.33</v>
       </c>
       <c r="F5" t="n">
-        <v>121.0414047241211</v>
+        <v>94.45317077636719</v>
       </c>
       <c r="G5" t="n">
-        <v>232</v>
+        <v>191.6686401367188</v>
       </c>
     </row>
     <row r="6">
@@ -572,23 +572,23 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ARJO-B.ST</t>
+          <t>ANOD-B.ST</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>55.13</v>
+        <v>213.13</v>
       </c>
       <c r="D6" t="n">
-        <v>52.28</v>
+        <v>191.09</v>
       </c>
       <c r="E6" t="n">
-        <v>51.43</v>
+        <v>186.16</v>
       </c>
       <c r="F6" t="n">
-        <v>38.69265365600586</v>
+        <v>121.0414047241211</v>
       </c>
       <c r="G6" t="n">
-        <v>63.25</v>
+        <v>237.5</v>
       </c>
     </row>
     <row r="7">
@@ -597,23 +597,23 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BHG.ST</t>
+          <t>ARJO-B.ST</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>124.04</v>
+        <v>56.13</v>
       </c>
       <c r="D7" t="n">
-        <v>96.86</v>
+        <v>52.71</v>
       </c>
       <c r="E7" t="n">
-        <v>88.04000000000001</v>
+        <v>51.78</v>
       </c>
       <c r="F7" t="n">
-        <v>39</v>
+        <v>38.69265365600586</v>
       </c>
       <c r="G7" t="n">
-        <v>144.3999938964844</v>
+        <v>65.90000152587891</v>
       </c>
     </row>
     <row r="8">
@@ -622,23 +622,23 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BINV.ST</t>
+          <t>ATCO-A.ST</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1.58</v>
+        <v>410.22</v>
       </c>
       <c r="D8" t="n">
-        <v>1.54</v>
+        <v>385.22</v>
       </c>
       <c r="E8" t="n">
-        <v>1.49</v>
+        <v>371.85</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8830000162124634</v>
+        <v>261.8851318359375</v>
       </c>
       <c r="G8" t="n">
-        <v>1.835999965667725</v>
+        <v>434.8002624511719</v>
       </c>
     </row>
     <row r="9">
@@ -647,23 +647,23 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BONEX.ST</t>
+          <t>ATCO-B.ST</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>58.47</v>
+        <v>360.62</v>
       </c>
       <c r="D9" t="n">
-        <v>45.87</v>
+        <v>341.73</v>
       </c>
       <c r="E9" t="n">
-        <v>42.81</v>
+        <v>329.42</v>
       </c>
       <c r="F9" t="n">
-        <v>20.79999923706055</v>
+        <v>229.102783203125</v>
       </c>
       <c r="G9" t="n">
-        <v>68.80000305175781</v>
+        <v>387.2000122070312</v>
       </c>
     </row>
     <row r="10">
@@ -672,23 +672,23 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BOOZT.ST</t>
+          <t>ATRE.ST</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>136.48</v>
+        <v>18.2</v>
       </c>
       <c r="D10" t="n">
-        <v>94.70999999999999</v>
+        <v>15.48</v>
       </c>
       <c r="E10" t="n">
-        <v>82.94</v>
+        <v>15.44</v>
       </c>
       <c r="F10" t="n">
-        <v>36.20000076293945</v>
+        <v>12.69999980926514</v>
       </c>
       <c r="G10" t="n">
-        <v>167</v>
+        <v>20.10000038146973</v>
       </c>
     </row>
     <row r="11">
@@ -697,23 +697,23 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CAMX.ST</t>
+          <t>AZA.ST</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>181.72</v>
+        <v>174.63</v>
       </c>
       <c r="D11" t="n">
-        <v>150.22</v>
+        <v>151.6</v>
       </c>
       <c r="E11" t="n">
-        <v>135.4</v>
+        <v>135.5</v>
       </c>
       <c r="F11" t="n">
-        <v>62</v>
+        <v>67.78964996337891</v>
       </c>
       <c r="G11" t="n">
-        <v>194</v>
+        <v>197.1000061035156</v>
       </c>
     </row>
     <row r="12">
@@ -722,23 +722,23 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CANTA.ST</t>
+          <t>BERG-B.ST</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>43.45</v>
+        <v>85.3</v>
       </c>
       <c r="D12" t="n">
-        <v>28.22</v>
+        <v>72.08</v>
       </c>
       <c r="E12" t="n">
-        <v>26.22</v>
+        <v>70.98999999999999</v>
       </c>
       <c r="F12" t="n">
-        <v>12.81999969482422</v>
+        <v>43.91821670532227</v>
       </c>
       <c r="G12" t="n">
-        <v>60.09999847412109</v>
+        <v>92.09999847412109</v>
       </c>
     </row>
     <row r="13">
@@ -747,23 +747,23 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CLNK-B.ST</t>
+          <t>BETS-B.ST</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>183.77</v>
+        <v>68.89</v>
       </c>
       <c r="D13" t="n">
-        <v>149.64</v>
+        <v>64.7</v>
       </c>
       <c r="E13" t="n">
-        <v>136.5</v>
+        <v>59.37</v>
       </c>
       <c r="F13" t="n">
-        <v>68</v>
+        <v>26.63999938964844</v>
       </c>
       <c r="G13" t="n">
-        <v>210.5</v>
+        <v>74.90000152587891</v>
       </c>
     </row>
     <row r="14">
@@ -772,23 +772,23 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CRED-A.ST</t>
+          <t>BHG.ST</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>833.9400000000001</v>
+        <v>126.58</v>
       </c>
       <c r="D14" t="n">
-        <v>667.8</v>
+        <v>99.06999999999999</v>
       </c>
       <c r="E14" t="n">
-        <v>611.48</v>
+        <v>89.59</v>
       </c>
       <c r="F14" t="n">
-        <v>318.6885986328125</v>
+        <v>39</v>
       </c>
       <c r="G14" t="n">
-        <v>991.5</v>
+        <v>149.8000030517578</v>
       </c>
     </row>
     <row r="15">
@@ -797,23 +797,23 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>EDGE.ST</t>
+          <t>BILI-A.ST</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>7.48</v>
+        <v>108.58</v>
       </c>
       <c r="D15" t="n">
-        <v>6.35</v>
+        <v>86.26000000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>5.95</v>
+        <v>85.78</v>
       </c>
       <c r="F15" t="n">
-        <v>3.125</v>
+        <v>49.7673454284668</v>
       </c>
       <c r="G15" t="n">
-        <v>9.479999542236328</v>
+        <v>124.3000030517578</v>
       </c>
     </row>
     <row r="16">
@@ -822,23 +822,23 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ENG.ST</t>
+          <t>BINV.ST</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>78.56999999999999</v>
+        <v>1.6</v>
       </c>
       <c r="D16" t="n">
-        <v>74.01000000000001</v>
+        <v>1.56</v>
       </c>
       <c r="E16" t="n">
-        <v>72.39</v>
+        <v>1.49</v>
       </c>
       <c r="F16" t="n">
-        <v>58.20000076293945</v>
+        <v>0.8830000162124634</v>
       </c>
       <c r="G16" t="n">
-        <v>82</v>
+        <v>1.835999965667725</v>
       </c>
     </row>
     <row r="17">
@@ -847,23 +847,23 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>EPI-A.ST</t>
+          <t>BIOA-B.ST</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>130.02</v>
+        <v>89.7</v>
       </c>
       <c r="D17" t="n">
-        <v>117.98</v>
+        <v>81.34</v>
       </c>
       <c r="E17" t="n">
-        <v>115.56</v>
+        <v>79.06999999999999</v>
       </c>
       <c r="F17" t="n">
-        <v>79.51999664306641</v>
+        <v>48.11999893188477</v>
       </c>
       <c r="G17" t="n">
-        <v>136.4499969482422</v>
+        <v>123.0999984741211</v>
       </c>
     </row>
     <row r="18">
@@ -872,23 +872,23 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>EPI-B.ST</t>
+          <t>BONEX.ST</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>125.15</v>
+        <v>60.04</v>
       </c>
       <c r="D18" t="n">
-        <v>115.04</v>
+        <v>46.88</v>
       </c>
       <c r="E18" t="n">
-        <v>112.85</v>
+        <v>43.29</v>
       </c>
       <c r="F18" t="n">
-        <v>78.54000091552734</v>
+        <v>20.79999923706055</v>
       </c>
       <c r="G18" t="n">
-        <v>131.6000061035156</v>
+        <v>68.80000305175781</v>
       </c>
     </row>
     <row r="19">
@@ -897,23 +897,23 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ERIC-A.ST</t>
+          <t>BOOZT.ST</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>106.42</v>
+        <v>140.05</v>
       </c>
       <c r="D19" t="n">
-        <v>98.97</v>
+        <v>98.04000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>94.59</v>
+        <v>85.22</v>
       </c>
       <c r="F19" t="n">
-        <v>64.63455200195312</v>
+        <v>36.20000076293945</v>
       </c>
       <c r="G19" t="n">
-        <v>117.5999984741211</v>
+        <v>179.6000061035156</v>
       </c>
     </row>
     <row r="20">
@@ -922,23 +922,23 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ERIC-B.ST</t>
+          <t>BUFAB.ST</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>98.20999999999999</v>
+        <v>129.58</v>
       </c>
       <c r="D20" t="n">
-        <v>91.36</v>
+        <v>107.49</v>
       </c>
       <c r="E20" t="n">
-        <v>87.81</v>
+        <v>106.46</v>
       </c>
       <c r="F20" t="n">
-        <v>59.95473861694336</v>
+        <v>58.9691276550293</v>
       </c>
       <c r="G20" t="n">
-        <v>109</v>
+        <v>145.3999938964844</v>
       </c>
     </row>
     <row r="21">
@@ -947,23 +947,23 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ETX.ST</t>
+          <t>BURE.ST</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1.73</v>
+        <v>273.52</v>
       </c>
       <c r="D21" t="n">
-        <v>1.57</v>
+        <v>228.91</v>
       </c>
       <c r="E21" t="n">
-        <v>1.54</v>
+        <v>217.12</v>
       </c>
       <c r="F21" t="n">
-        <v>1.016000032424927</v>
+        <v>127.5589981079102</v>
       </c>
       <c r="G21" t="n">
-        <v>1.950000047683716</v>
+        <v>284.2000122070312</v>
       </c>
     </row>
     <row r="22">
@@ -972,23 +972,23 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>EVO.ST</t>
+          <t>CALTX.ST</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>642.55</v>
+        <v>108.95</v>
       </c>
       <c r="D22" t="n">
-        <v>579.27</v>
+        <v>102.22</v>
       </c>
       <c r="E22" t="n">
-        <v>519.59</v>
+        <v>100.38</v>
       </c>
       <c r="F22" t="n">
-        <v>206.6528625488281</v>
+        <v>57</v>
       </c>
       <c r="G22" t="n">
-        <v>761.4000244140625</v>
+        <v>125.4000015258789</v>
       </c>
     </row>
     <row r="23">
@@ -997,23 +997,23 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>FMM-B.ST</t>
+          <t>CAMX.ST</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>117.77</v>
+        <v>184.42</v>
       </c>
       <c r="D23" t="n">
-        <v>97.52</v>
+        <v>153.78</v>
       </c>
       <c r="E23" t="n">
-        <v>95.03</v>
+        <v>137.53</v>
       </c>
       <c r="F23" t="n">
-        <v>66.97908020019531</v>
+        <v>62</v>
       </c>
       <c r="G23" t="n">
-        <v>142</v>
+        <v>206.5</v>
       </c>
     </row>
     <row r="24">
@@ -1022,23 +1022,23 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>G5EN.ST</t>
+          <t>CANTA.ST</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>381.06</v>
+        <v>46.03</v>
       </c>
       <c r="D24" t="n">
-        <v>253.76</v>
+        <v>29.42</v>
       </c>
       <c r="E24" t="n">
-        <v>214.71</v>
+        <v>27.04</v>
       </c>
       <c r="F24" t="n">
-        <v>69.86784362792969</v>
+        <v>12.81999969482422</v>
       </c>
       <c r="G24" t="n">
-        <v>454</v>
+        <v>61.20000076293945</v>
       </c>
     </row>
     <row r="25">
@@ -1047,23 +1047,23 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>GARO.ST</t>
+          <t>CLNK-B.ST</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>480.22</v>
+        <v>185.46</v>
       </c>
       <c r="D25" t="n">
-        <v>389.45</v>
+        <v>152.31</v>
       </c>
       <c r="E25" t="n">
-        <v>370.1</v>
+        <v>138.04</v>
       </c>
       <c r="F25" t="n">
-        <v>206</v>
+        <v>68.5</v>
       </c>
       <c r="G25" t="n">
-        <v>512</v>
+        <v>210.5</v>
       </c>
     </row>
     <row r="26">
@@ -1072,23 +1072,23 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>HAV-B.ST</t>
+          <t>CRED-A.ST</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>18.65</v>
+        <v>845.58</v>
       </c>
       <c r="D26" t="n">
-        <v>16.64</v>
+        <v>683.1900000000001</v>
       </c>
       <c r="E26" t="n">
-        <v>16.39</v>
+        <v>622.72</v>
       </c>
       <c r="F26" t="n">
-        <v>12.59088802337646</v>
+        <v>318.6885986328125</v>
       </c>
       <c r="G26" t="n">
-        <v>19.95000076293945</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="27">
@@ -1097,23 +1097,23 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>HIQ.ST</t>
+          <t>EDGE.ST</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>70.87</v>
+        <v>7.62</v>
       </c>
       <c r="D27" t="n">
-        <v>53.05</v>
+        <v>6.49</v>
       </c>
       <c r="E27" t="n">
-        <v>51.26</v>
+        <v>6.03</v>
       </c>
       <c r="F27" t="n">
-        <v>31</v>
+        <v>3.125</v>
       </c>
       <c r="G27" t="n">
-        <v>72.19999694824219</v>
+        <v>9.479999542236328</v>
       </c>
     </row>
     <row r="28">
@@ -1122,23 +1122,23 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>HNSA.ST</t>
+          <t>ELEC.ST</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>233.66</v>
+        <v>44.69</v>
       </c>
       <c r="D28" t="n">
-        <v>190.91</v>
+        <v>39.99</v>
       </c>
       <c r="E28" t="n">
-        <v>162.15</v>
+        <v>39.7</v>
       </c>
       <c r="F28" t="n">
-        <v>63.59999847412109</v>
+        <v>25.39598083496094</v>
       </c>
       <c r="G28" t="n">
-        <v>276</v>
+        <v>50.79999923706055</v>
       </c>
     </row>
     <row r="29">
@@ -1147,23 +1147,23 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>HOLM-B.ST</t>
+          <t>ENG.ST</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>329.52</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="D29" t="n">
-        <v>303.55</v>
+        <v>74.5</v>
       </c>
       <c r="E29" t="n">
-        <v>296.31</v>
+        <v>72.70999999999999</v>
       </c>
       <c r="F29" t="n">
-        <v>225.6348419189453</v>
+        <v>58.20000076293945</v>
       </c>
       <c r="G29" t="n">
-        <v>353</v>
+        <v>82.19999694824219</v>
       </c>
     </row>
     <row r="30">
@@ -1172,23 +1172,23 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>INSTAL.ST</t>
+          <t>EPI-A.ST</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>193.81</v>
+        <v>130.96</v>
       </c>
       <c r="D30" t="n">
-        <v>160.51</v>
+        <v>119.19</v>
       </c>
       <c r="E30" t="n">
-        <v>151.81</v>
+        <v>116.02</v>
       </c>
       <c r="F30" t="n">
-        <v>79.56692504882812</v>
+        <v>79.51999664306641</v>
       </c>
       <c r="G30" t="n">
-        <v>226</v>
+        <v>146.1999969482422</v>
       </c>
     </row>
     <row r="31">
@@ -1197,23 +1197,23 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>INWI.ST</t>
+          <t>EPI-B.ST</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>91.86</v>
+        <v>125.97</v>
       </c>
       <c r="D31" t="n">
-        <v>74.25</v>
+        <v>116.12</v>
       </c>
       <c r="E31" t="n">
-        <v>73.15000000000001</v>
+        <v>113.25</v>
       </c>
       <c r="F31" t="n">
-        <v>42.65250015258789</v>
+        <v>78.54000091552734</v>
       </c>
       <c r="G31" t="n">
-        <v>109</v>
+        <v>140</v>
       </c>
     </row>
     <row r="32">
@@ -1222,23 +1222,23 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>KABE-B.ST</t>
+          <t>EQT.ST</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>162.79</v>
+        <v>171.41</v>
       </c>
       <c r="D32" t="n">
-        <v>147.87</v>
+        <v>167.56</v>
       </c>
       <c r="E32" t="n">
-        <v>144.14</v>
+        <v>157.68</v>
       </c>
       <c r="F32" t="n">
-        <v>99</v>
+        <v>78.51180267333984</v>
       </c>
       <c r="G32" t="n">
-        <v>173</v>
+        <v>222.3999938964844</v>
       </c>
     </row>
     <row r="33">
@@ -1247,23 +1247,23 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>KIND-SDB.ST</t>
+          <t>ERIC-A.ST</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>67.14</v>
+        <v>106.39</v>
       </c>
       <c r="D33" t="n">
-        <v>57.19</v>
+        <v>99.87</v>
       </c>
       <c r="E33" t="n">
-        <v>53.72</v>
+        <v>95.05</v>
       </c>
       <c r="F33" t="n">
-        <v>22.50131988525391</v>
+        <v>64.63455200195312</v>
       </c>
       <c r="G33" t="n">
-        <v>78</v>
+        <v>117.5999984741211</v>
       </c>
     </row>
     <row r="34">
@@ -1272,23 +1272,23 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>KINV-A.ST</t>
+          <t>ERIC-B.ST</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>348.27</v>
+        <v>98.34999999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>276.54</v>
+        <v>92.06999999999999</v>
       </c>
       <c r="E34" t="n">
-        <v>258.22</v>
+        <v>88.22</v>
       </c>
       <c r="F34" t="n">
-        <v>135.9549102783203</v>
+        <v>59.95473861694336</v>
       </c>
       <c r="G34" t="n">
-        <v>386</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35">
@@ -1297,23 +1297,23 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>KINV-B.ST</t>
+          <t>ETX.ST</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>347.14</v>
+        <v>1.74</v>
       </c>
       <c r="D35" t="n">
-        <v>277.21</v>
+        <v>1.58</v>
       </c>
       <c r="E35" t="n">
-        <v>257.84</v>
+        <v>1.55</v>
       </c>
       <c r="F35" t="n">
-        <v>135.54638671875</v>
+        <v>1.016000032424927</v>
       </c>
       <c r="G35" t="n">
-        <v>380.6499938964844</v>
+        <v>1.950000047683716</v>
       </c>
     </row>
     <row r="36">
@@ -1322,23 +1322,23 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>KNOW.ST</t>
+          <t>EVO.ST</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>228.18</v>
+        <v>646.33</v>
       </c>
       <c r="D36" t="n">
-        <v>179.18</v>
+        <v>588.95</v>
       </c>
       <c r="E36" t="n">
-        <v>175.4</v>
+        <v>527.16</v>
       </c>
       <c r="F36" t="n">
-        <v>105.2045593261719</v>
+        <v>211.1453094482422</v>
       </c>
       <c r="G36" t="n">
-        <v>264</v>
+        <v>761.4000244140625</v>
       </c>
     </row>
     <row r="37">
@@ -1347,23 +1347,23 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>LATO-B.ST</t>
+          <t>FMM-B.ST</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>203.59</v>
+        <v>120.11</v>
       </c>
       <c r="D37" t="n">
-        <v>179.35</v>
+        <v>99.23999999999999</v>
       </c>
       <c r="E37" t="n">
-        <v>172.25</v>
+        <v>95.86</v>
       </c>
       <c r="F37" t="n">
-        <v>116.4326324462891</v>
+        <v>66.97908020019531</v>
       </c>
       <c r="G37" t="n">
-        <v>215</v>
+        <v>143</v>
       </c>
     </row>
     <row r="38">
@@ -1372,23 +1372,23 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>MAG.ST</t>
+          <t>G5EN.ST</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>57.19</v>
+        <v>386.33</v>
       </c>
       <c r="D38" t="n">
-        <v>48.36</v>
+        <v>262.64</v>
       </c>
       <c r="E38" t="n">
-        <v>46.97</v>
+        <v>221.1</v>
       </c>
       <c r="F38" t="n">
-        <v>28</v>
+        <v>69.86784362792969</v>
       </c>
       <c r="G38" t="n">
-        <v>62.59999847412109</v>
+        <v>479.7999877929688</v>
       </c>
     </row>
     <row r="39">
@@ -1397,23 +1397,23 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>MCAP.ST</t>
+          <t>GARO.ST</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>205.9</v>
+        <v>487.95</v>
       </c>
       <c r="D39" t="n">
-        <v>174.92</v>
+        <v>396.46</v>
       </c>
       <c r="E39" t="n">
-        <v>172.55</v>
+        <v>373.84</v>
       </c>
       <c r="F39" t="n">
-        <v>118.8000030517578</v>
+        <v>206</v>
       </c>
       <c r="G39" t="n">
-        <v>228.5</v>
+        <v>555</v>
       </c>
     </row>
     <row r="40">
@@ -1422,23 +1422,23 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>MIPS.ST</t>
+          <t>HANDI.ST</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>380.34</v>
+        <v>39.88</v>
       </c>
       <c r="D40" t="n">
-        <v>328.38</v>
+        <v>31.68</v>
       </c>
       <c r="E40" t="n">
-        <v>301.99</v>
+        <v>31.57</v>
       </c>
       <c r="F40" t="n">
-        <v>142.1559448242188</v>
+        <v>18.54853820800781</v>
       </c>
       <c r="G40" t="n">
-        <v>426.6000061035156</v>
+        <v>47.09999847412109</v>
       </c>
     </row>
     <row r="41">
@@ -1447,23 +1447,23 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>NCAB.ST</t>
+          <t>HAV-B.ST</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>242.6</v>
+        <v>18.85</v>
       </c>
       <c r="D41" t="n">
-        <v>195.95</v>
+        <v>16.8</v>
       </c>
       <c r="E41" t="n">
-        <v>183.83</v>
+        <v>16.46</v>
       </c>
       <c r="F41" t="n">
-        <v>100.5</v>
+        <v>12.59088802337646</v>
       </c>
       <c r="G41" t="n">
-        <v>286</v>
+        <v>19.95000076293945</v>
       </c>
     </row>
     <row r="42">
@@ -1472,23 +1472,23 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>NET-B.ST</t>
+          <t>HEBA-B.ST</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>82.81</v>
+        <v>105.53</v>
       </c>
       <c r="D42" t="n">
-        <v>64.65000000000001</v>
+        <v>92.53</v>
       </c>
       <c r="E42" t="n">
-        <v>54.52</v>
+        <v>90.31999999999999</v>
       </c>
       <c r="F42" t="n">
-        <v>15.80000019073486</v>
+        <v>67.84665679931641</v>
       </c>
       <c r="G42" t="n">
-        <v>98.5</v>
+        <v>114</v>
       </c>
     </row>
     <row r="43">
@@ -1497,23 +1497,23 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ONCO.ST</t>
+          <t>HEXA-B.ST</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>140.39</v>
+        <v>662.84</v>
       </c>
       <c r="D43" t="n">
-        <v>129.89</v>
+        <v>573.1799999999999</v>
       </c>
       <c r="E43" t="n">
-        <v>127.26</v>
+        <v>553.13</v>
       </c>
       <c r="F43" t="n">
-        <v>79.05000305175781</v>
+        <v>354.0427856445312</v>
       </c>
       <c r="G43" t="n">
-        <v>173.8000030517578</v>
+        <v>693.2000122070312</v>
       </c>
     </row>
     <row r="44">
@@ -1522,23 +1522,23 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>PACT.ST</t>
+          <t>HIQ.ST</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>209.54</v>
+        <v>71.61</v>
       </c>
       <c r="D44" t="n">
-        <v>173.29</v>
+        <v>54.01</v>
       </c>
       <c r="E44" t="n">
-        <v>163.63</v>
+        <v>51.64</v>
       </c>
       <c r="F44" t="n">
-        <v>83.55428314208984</v>
+        <v>31</v>
       </c>
       <c r="G44" t="n">
-        <v>231.5</v>
+        <v>72.40000152587891</v>
       </c>
     </row>
     <row r="45">
@@ -1547,23 +1547,23 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>PENG-B.ST</t>
+          <t>HMS.ST</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>24.66</v>
+        <v>205.83</v>
       </c>
       <c r="D45" t="n">
-        <v>18.73</v>
+        <v>186.77</v>
       </c>
       <c r="E45" t="n">
-        <v>17.09</v>
+        <v>173.41</v>
       </c>
       <c r="F45" t="n">
-        <v>8.680000305175781</v>
+        <v>97.75838470458984</v>
       </c>
       <c r="G45" t="n">
-        <v>26.39999961853027</v>
+        <v>220</v>
       </c>
     </row>
     <row r="46">
@@ -1572,23 +1572,23 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>PRIC-B.ST</t>
+          <t>HNSA.ST</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>26.08</v>
+        <v>234.14</v>
       </c>
       <c r="D46" t="n">
-        <v>22.98</v>
+        <v>195.92</v>
       </c>
       <c r="E46" t="n">
-        <v>22.42</v>
+        <v>165.96</v>
       </c>
       <c r="F46" t="n">
-        <v>12.67672157287598</v>
+        <v>63.59999847412109</v>
       </c>
       <c r="G46" t="n">
-        <v>29.10000038146973</v>
+        <v>276</v>
       </c>
     </row>
     <row r="47">
@@ -1597,23 +1597,23 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>PROB.ST</t>
+          <t>HOLM-B.ST</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>358.23</v>
+        <v>332.46</v>
       </c>
       <c r="D47" t="n">
-        <v>303.96</v>
+        <v>305.71</v>
       </c>
       <c r="E47" t="n">
-        <v>278.24</v>
+        <v>297.81</v>
       </c>
       <c r="F47" t="n">
-        <v>139.8450469970703</v>
+        <v>225.6348419189453</v>
       </c>
       <c r="G47" t="n">
-        <v>400.5</v>
+        <v>354</v>
       </c>
     </row>
     <row r="48">
@@ -1622,23 +1622,23 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>RATO-B.ST</t>
+          <t>HTRO.ST</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>32.73</v>
+        <v>62.72</v>
       </c>
       <c r="D48" t="n">
-        <v>27.87</v>
+        <v>56.11</v>
       </c>
       <c r="E48" t="n">
-        <v>27.85</v>
+        <v>54.64</v>
       </c>
       <c r="F48" t="n">
-        <v>15.63334846496582</v>
+        <v>33.59999847412109</v>
       </c>
       <c r="G48" t="n">
-        <v>36.19975280761719</v>
+        <v>68.09999847412109</v>
       </c>
     </row>
     <row r="49">
@@ -1647,23 +1647,23 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>SCA-B.ST</t>
+          <t>HUSQ-A.ST</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>119.14</v>
+        <v>93.05</v>
       </c>
       <c r="D49" t="n">
-        <v>111.52</v>
+        <v>77.76000000000001</v>
       </c>
       <c r="E49" t="n">
-        <v>107.14</v>
+        <v>73.2</v>
       </c>
       <c r="F49" t="n">
-        <v>77.87999725341797</v>
+        <v>38.25838088989258</v>
       </c>
       <c r="G49" t="n">
-        <v>126.6500015258789</v>
+        <v>100.1514739990234</v>
       </c>
     </row>
     <row r="50">
@@ -1672,23 +1672,23 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>SKF-A.ST</t>
+          <t>HUSQ-B.ST</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>185.25</v>
+        <v>93.68000000000001</v>
       </c>
       <c r="D50" t="n">
-        <v>170.55</v>
+        <v>77.73</v>
       </c>
       <c r="E50" t="n">
-        <v>169.08</v>
+        <v>73.20999999999999</v>
       </c>
       <c r="F50" t="n">
-        <v>113.2789611816406</v>
+        <v>37.2486686706543</v>
       </c>
       <c r="G50" t="n">
-        <v>196.5</v>
+        <v>100.8540725708008</v>
       </c>
     </row>
     <row r="51">
@@ -1697,23 +1697,23 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>SKF-B.ST</t>
+          <t>INDT.ST</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>185.4</v>
+        <v>473.5</v>
       </c>
       <c r="D51" t="n">
-        <v>170.6</v>
+        <v>407.01</v>
       </c>
       <c r="E51" t="n">
-        <v>169.15</v>
+        <v>382.68</v>
       </c>
       <c r="F51" t="n">
-        <v>113.007194519043</v>
+        <v>224</v>
       </c>
       <c r="G51" t="n">
-        <v>196.661865234375</v>
+        <v>508.5</v>
       </c>
     </row>
     <row r="52">
@@ -1722,23 +1722,23 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>SVED-B.ST</t>
+          <t>INDU-A.ST</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>25.31</v>
+        <v>242.36</v>
       </c>
       <c r="D52" t="n">
-        <v>22.97</v>
+        <v>223.16</v>
       </c>
       <c r="E52" t="n">
-        <v>22.85</v>
+        <v>223.01</v>
       </c>
       <c r="F52" t="n">
-        <v>16.60000038146973</v>
+        <v>169</v>
       </c>
       <c r="G52" t="n">
-        <v>27.89999961853027</v>
+        <v>261</v>
       </c>
     </row>
     <row r="53">
@@ -1747,23 +1747,23 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>SVIK.ST</t>
+          <t>INDU-C.ST</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>55.64</v>
+        <v>236.93</v>
       </c>
       <c r="D53" t="n">
-        <v>42.89</v>
+        <v>220.03</v>
       </c>
       <c r="E53" t="n">
-        <v>39.62</v>
+        <v>218.02</v>
       </c>
       <c r="F53" t="n">
-        <v>22.70000076293945</v>
+        <v>164.0168151855469</v>
       </c>
       <c r="G53" t="n">
-        <v>62.20000076293945</v>
+        <v>249.5</v>
       </c>
     </row>
     <row r="54">
@@ -1772,23 +1772,23 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>SVOL-B.ST</t>
+          <t>INSTAL.ST</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>155.06</v>
+        <v>197.7</v>
       </c>
       <c r="D54" t="n">
-        <v>126.07</v>
+        <v>163.56</v>
       </c>
       <c r="E54" t="n">
-        <v>125.94</v>
+        <v>153.54</v>
       </c>
       <c r="F54" t="n">
-        <v>80.19999694824219</v>
+        <v>79.56692504882812</v>
       </c>
       <c r="G54" t="n">
-        <v>169.6000061035156</v>
+        <v>229</v>
       </c>
     </row>
     <row r="55">
@@ -1797,23 +1797,23 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>SYSR.ST</t>
+          <t>INVE-B.ST</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>235.03</v>
+        <v>564.4</v>
       </c>
       <c r="D55" t="n">
-        <v>183.18</v>
+        <v>520.55</v>
       </c>
       <c r="E55" t="n">
-        <v>175.97</v>
+        <v>511.82</v>
       </c>
       <c r="F55" t="n">
-        <v>107</v>
+        <v>376.4981079101562</v>
       </c>
       <c r="G55" t="n">
-        <v>271</v>
+        <v>589.4000244140625</v>
       </c>
     </row>
     <row r="56">
@@ -1822,23 +1822,23 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>THULE.ST</t>
+          <t>INWI.ST</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>280.38</v>
+        <v>93.14</v>
       </c>
       <c r="D56" t="n">
-        <v>235.82</v>
+        <v>75.52</v>
       </c>
       <c r="E56" t="n">
-        <v>226.74</v>
+        <v>73.76000000000001</v>
       </c>
       <c r="F56" t="n">
-        <v>136.0656280517578</v>
+        <v>42.65250015258789</v>
       </c>
       <c r="G56" t="n">
-        <v>311.6000061035156</v>
+        <v>109</v>
       </c>
     </row>
     <row r="57">
@@ -1847,23 +1847,23 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>TRENT.ST</t>
+          <t>IVSO.ST</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>66.34999999999999</v>
+        <v>168.63</v>
       </c>
       <c r="D57" t="n">
-        <v>60.3</v>
+        <v>148.61</v>
       </c>
       <c r="E57" t="n">
-        <v>58.15</v>
+        <v>142.14</v>
       </c>
       <c r="F57" t="n">
-        <v>45.70000076293945</v>
+        <v>81.30193328857422</v>
       </c>
       <c r="G57" t="n">
-        <v>77</v>
+        <v>187</v>
       </c>
     </row>
     <row r="58">
@@ -1872,23 +1872,23 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>VOLO.ST</t>
+          <t>K2A-B.ST</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>67.43000000000001</v>
+        <v>171.7</v>
       </c>
       <c r="D58" t="n">
-        <v>51.18</v>
+        <v>159.05</v>
       </c>
       <c r="E58" t="n">
-        <v>48.42</v>
+        <v>156.1</v>
       </c>
       <c r="F58" t="n">
-        <v>28.79999923706055</v>
+        <v>106</v>
       </c>
       <c r="G58" t="n">
-        <v>81.09999847412109</v>
+        <v>187.6000061035156</v>
       </c>
     </row>
     <row r="59">
@@ -1897,23 +1897,23 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>VOLV-A.ST</t>
+          <t>KIND-SDB.ST</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>174.34</v>
+        <v>67.47</v>
       </c>
       <c r="D59" t="n">
-        <v>151.35</v>
+        <v>58.19</v>
       </c>
       <c r="E59" t="n">
-        <v>149.06</v>
+        <v>54.19</v>
       </c>
       <c r="F59" t="n">
-        <v>94.69905090332031</v>
+        <v>22.50131988525391</v>
       </c>
       <c r="G59" t="n">
-        <v>185.3999938964844</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60">
@@ -1922,23 +1922,23 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>VOLV-B.ST</t>
+          <t>KINV-A.ST</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>173.55</v>
+        <v>353.59</v>
       </c>
       <c r="D60" t="n">
-        <v>151.27</v>
+        <v>283.01</v>
       </c>
       <c r="E60" t="n">
-        <v>148.95</v>
+        <v>261.64</v>
       </c>
       <c r="F60" t="n">
-        <v>93.20916748046875</v>
+        <v>135.9549102783203</v>
       </c>
       <c r="G60" t="n">
-        <v>185.25</v>
+        <v>414</v>
       </c>
     </row>
     <row r="61">
@@ -1947,23 +1947,1273 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
+          <t>KINV-B.ST</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>352.47</v>
+      </c>
+      <c r="D61" t="n">
+        <v>283.6</v>
+      </c>
+      <c r="E61" t="n">
+        <v>261.31</v>
+      </c>
+      <c r="F61" t="n">
+        <v>135.54638671875</v>
+      </c>
+      <c r="G61" t="n">
+        <v>410.3500061035156</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>KNOW.ST</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>232.19</v>
+      </c>
+      <c r="D62" t="n">
+        <v>182.63</v>
+      </c>
+      <c r="E62" t="n">
+        <v>176.64</v>
+      </c>
+      <c r="F62" t="n">
+        <v>105.2045593261719</v>
+      </c>
+      <c r="G62" t="n">
+        <v>265.5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>LAGR-B.ST</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>61.41</v>
+      </c>
+      <c r="D63" t="n">
+        <v>52.89</v>
+      </c>
+      <c r="E63" t="n">
+        <v>50.7</v>
+      </c>
+      <c r="F63" t="n">
+        <v>30.0113468170166</v>
+      </c>
+      <c r="G63" t="n">
+        <v>69.25</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>LATO-B.ST</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>206.42</v>
+      </c>
+      <c r="D64" t="n">
+        <v>181.83</v>
+      </c>
+      <c r="E64" t="n">
+        <v>173.6</v>
+      </c>
+      <c r="F64" t="n">
+        <v>116.4326324462891</v>
+      </c>
+      <c r="G64" t="n">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>LIAB.ST</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>150.08</v>
+      </c>
+      <c r="D65" t="n">
+        <v>122.35</v>
+      </c>
+      <c r="E65" t="n">
+        <v>117.19</v>
+      </c>
+      <c r="F65" t="n">
+        <v>64.08100891113281</v>
+      </c>
+      <c r="G65" t="n">
+        <v>162.7436218261719</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>LIFCO-B.ST</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>669.83</v>
+      </c>
+      <c r="D66" t="n">
+        <v>601.4</v>
+      </c>
+      <c r="E66" t="n">
+        <v>570.46</v>
+      </c>
+      <c r="F66" t="n">
+        <v>303.4897155761719</v>
+      </c>
+      <c r="G66" t="n">
+        <v>721.5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>MAG.ST</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>57.95</v>
+      </c>
+      <c r="D67" t="n">
+        <v>49.17</v>
+      </c>
+      <c r="E67" t="n">
+        <v>47.23</v>
+      </c>
+      <c r="F67" t="n">
+        <v>28</v>
+      </c>
+      <c r="G67" t="n">
+        <v>62.59999847412109</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>MCAP.ST</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>209.23</v>
+      </c>
+      <c r="D68" t="n">
+        <v>177.31</v>
+      </c>
+      <c r="E68" t="n">
+        <v>173.77</v>
+      </c>
+      <c r="F68" t="n">
+        <v>118.8000030517578</v>
+      </c>
+      <c r="G68" t="n">
+        <v>228.5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>MCOV-B.ST</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>127.37</v>
+      </c>
+      <c r="D69" t="n">
+        <v>108.75</v>
+      </c>
+      <c r="E69" t="n">
+        <v>107.56</v>
+      </c>
+      <c r="F69" t="n">
+        <v>76.40000152587891</v>
+      </c>
+      <c r="G69" t="n">
+        <v>145.3999938964844</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>MIPS.ST</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>386.55</v>
+      </c>
+      <c r="D70" t="n">
+        <v>334.17</v>
+      </c>
+      <c r="E70" t="n">
+        <v>306.34</v>
+      </c>
+      <c r="F70" t="n">
+        <v>142.1559448242188</v>
+      </c>
+      <c r="G70" t="n">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>MTG-A.ST</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>125.8</v>
+      </c>
+      <c r="D71" t="n">
+        <v>115.41</v>
+      </c>
+      <c r="E71" t="n">
+        <v>110.09</v>
+      </c>
+      <c r="F71" t="n">
+        <v>72</v>
+      </c>
+      <c r="G71" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>MTG-B.ST</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>122.54</v>
+      </c>
+      <c r="D72" t="n">
+        <v>111.56</v>
+      </c>
+      <c r="E72" t="n">
+        <v>105.63</v>
+      </c>
+      <c r="F72" t="n">
+        <v>61.34000015258789</v>
+      </c>
+      <c r="G72" t="n">
+        <v>140.1000061035156</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>MTRS.ST</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>67.26000000000001</v>
+      </c>
+      <c r="D73" t="n">
+        <v>55.81</v>
+      </c>
+      <c r="E73" t="n">
+        <v>52.07</v>
+      </c>
+      <c r="F73" t="n">
+        <v>23.55999946594238</v>
+      </c>
+      <c r="G73" t="n">
+        <v>73.30000305175781</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>MYCR.ST</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>198.85</v>
+      </c>
+      <c r="D74" t="n">
+        <v>174.81</v>
+      </c>
+      <c r="E74" t="n">
+        <v>167.1</v>
+      </c>
+      <c r="F74" t="n">
+        <v>99.02346038818359</v>
+      </c>
+      <c r="G74" t="n">
+        <v>215.8000030517578</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>NENT-A.ST</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>357.86</v>
+      </c>
+      <c r="D75" t="n">
+        <v>316.02</v>
+      </c>
+      <c r="E75" t="n">
+        <v>304.79</v>
+      </c>
+      <c r="F75" t="n">
+        <v>180</v>
+      </c>
+      <c r="G75" t="n">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>NENT-B.ST</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>358.66</v>
+      </c>
+      <c r="D76" t="n">
+        <v>315.76</v>
+      </c>
+      <c r="E76" t="n">
+        <v>305.08</v>
+      </c>
+      <c r="F76" t="n">
+        <v>183.6000061035156</v>
+      </c>
+      <c r="G76" t="n">
+        <v>382.3999938964844</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>NET-B.ST</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>83.29000000000001</v>
+      </c>
+      <c r="D77" t="n">
+        <v>66.38</v>
+      </c>
+      <c r="E77" t="n">
+        <v>55.79</v>
+      </c>
+      <c r="F77" t="n">
+        <v>15.80000019073486</v>
+      </c>
+      <c r="G77" t="n">
+        <v>98.5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>NIBE-B.ST</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>228.88</v>
+      </c>
+      <c r="D78" t="n">
+        <v>211.71</v>
+      </c>
+      <c r="E78" t="n">
+        <v>198</v>
+      </c>
+      <c r="F78" t="n">
+        <v>117.6999969482422</v>
+      </c>
+      <c r="G78" t="n">
+        <v>254.5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>NWG.ST</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>125.32</v>
+      </c>
+      <c r="D79" t="n">
+        <v>108.57</v>
+      </c>
+      <c r="E79" t="n">
+        <v>104.2</v>
+      </c>
+      <c r="F79" t="n">
+        <v>60</v>
+      </c>
+      <c r="G79" t="n">
+        <v>140.1999969482422</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>ODD.ST</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D80" t="n">
+        <v>7.81</v>
+      </c>
+      <c r="E80" t="n">
+        <v>7.01</v>
+      </c>
+      <c r="F80" t="n">
+        <v>2.220000028610229</v>
+      </c>
+      <c r="G80" t="n">
+        <v>19.29999923706055</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>OEM-B.ST</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>278.44</v>
+      </c>
+      <c r="D81" t="n">
+        <v>240.84</v>
+      </c>
+      <c r="E81" t="n">
+        <v>236.31</v>
+      </c>
+      <c r="F81" t="n">
+        <v>171.3489990234375</v>
+      </c>
+      <c r="G81" t="n">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>ONCO.ST</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>143.59</v>
+      </c>
+      <c r="D82" t="n">
+        <v>131.41</v>
+      </c>
+      <c r="E82" t="n">
+        <v>127.86</v>
+      </c>
+      <c r="F82" t="n">
+        <v>79.05000305175781</v>
+      </c>
+      <c r="G82" t="n">
+        <v>173.8000030517578</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>ORTI-B.ST</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="D83" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="E83" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="F83" t="n">
+        <v>2.809999942779541</v>
+      </c>
+      <c r="G83" t="n">
+        <v>6.869999885559082</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>PACT.ST</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>210.49</v>
+      </c>
+      <c r="D84" t="n">
+        <v>176.91</v>
+      </c>
+      <c r="E84" t="n">
+        <v>164.96</v>
+      </c>
+      <c r="F84" t="n">
+        <v>83.55428314208984</v>
+      </c>
+      <c r="G84" t="n">
+        <v>231.5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>PRIC-B.ST</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>25.78</v>
+      </c>
+      <c r="D85" t="n">
+        <v>23.01</v>
+      </c>
+      <c r="E85" t="n">
+        <v>22.22</v>
+      </c>
+      <c r="F85" t="n">
+        <v>12.59269142150879</v>
+      </c>
+      <c r="G85" t="n">
+        <v>28.68576431274414</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>PROB.ST</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>361.36</v>
+      </c>
+      <c r="D86" t="n">
+        <v>310.63</v>
+      </c>
+      <c r="E86" t="n">
+        <v>282.01</v>
+      </c>
+      <c r="F86" t="n">
+        <v>139.8450469970703</v>
+      </c>
+      <c r="G86" t="n">
+        <v>419.5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>QLINEA.ST</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>145.84</v>
+      </c>
+      <c r="D87" t="n">
+        <v>102.92</v>
+      </c>
+      <c r="E87" t="n">
+        <v>92.06999999999999</v>
+      </c>
+      <c r="F87" t="n">
+        <v>41</v>
+      </c>
+      <c r="G87" t="n">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>RATO-A.ST</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>32.74</v>
+      </c>
+      <c r="D88" t="n">
+        <v>29</v>
+      </c>
+      <c r="E88" t="n">
+        <v>28.78</v>
+      </c>
+      <c r="F88" t="n">
+        <v>18.05433464050293</v>
+      </c>
+      <c r="G88" t="n">
+        <v>36.10866928100586</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>RATO-B.ST</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>32.84</v>
+      </c>
+      <c r="D89" t="n">
+        <v>28.28</v>
+      </c>
+      <c r="E89" t="n">
+        <v>27.91</v>
+      </c>
+      <c r="F89" t="n">
+        <v>15.63334846496582</v>
+      </c>
+      <c r="G89" t="n">
+        <v>36.19975280761719</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>SAGA-B.ST</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>153.15</v>
+      </c>
+      <c r="D90" t="n">
+        <v>132.15</v>
+      </c>
+      <c r="E90" t="n">
+        <v>131.58</v>
+      </c>
+      <c r="F90" t="n">
+        <v>79.39381408691406</v>
+      </c>
+      <c r="G90" t="n">
+        <v>163.1999969482422</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>SBB-B.ST</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>26.28</v>
+      </c>
+      <c r="D91" t="n">
+        <v>23</v>
+      </c>
+      <c r="E91" t="n">
+        <v>22.99</v>
+      </c>
+      <c r="F91" t="n">
+        <v>13.37869167327881</v>
+      </c>
+      <c r="G91" t="n">
+        <v>31.2729377746582</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>SCA-A.ST</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>125.56</v>
+      </c>
+      <c r="D92" t="n">
+        <v>114.97</v>
+      </c>
+      <c r="E92" t="n">
+        <v>109.83</v>
+      </c>
+      <c r="F92" t="n">
+        <v>78.302001953125</v>
+      </c>
+      <c r="G92" t="n">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>SCA-B.ST</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>120.13</v>
+      </c>
+      <c r="D93" t="n">
+        <v>112.3</v>
+      </c>
+      <c r="E93" t="n">
+        <v>107.82</v>
+      </c>
+      <c r="F93" t="n">
+        <v>77.87999725341797</v>
+      </c>
+      <c r="G93" t="n">
+        <v>129.3999938964844</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>SINCH.ST</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>826.78</v>
+      </c>
+      <c r="D94" t="n">
+        <v>710.41</v>
+      </c>
+      <c r="E94" t="n">
+        <v>624.5</v>
+      </c>
+      <c r="F94" t="n">
+        <v>160.3999938964844</v>
+      </c>
+      <c r="G94" t="n">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>SKF-A.ST</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>186.97</v>
+      </c>
+      <c r="D95" t="n">
+        <v>172.26</v>
+      </c>
+      <c r="E95" t="n">
+        <v>169.3</v>
+      </c>
+      <c r="F95" t="n">
+        <v>113.2789611816406</v>
+      </c>
+      <c r="G95" t="n">
+        <v>196.5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>SKF-B.ST</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>187.16</v>
+      </c>
+      <c r="D96" t="n">
+        <v>172.31</v>
+      </c>
+      <c r="E96" t="n">
+        <v>169.37</v>
+      </c>
+      <c r="F96" t="n">
+        <v>113.007194519043</v>
+      </c>
+      <c r="G96" t="n">
+        <v>196.661865234375</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>SOF-B.ST</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="D97" t="n">
+        <v>16.41</v>
+      </c>
+      <c r="E97" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="F97" t="n">
+        <v>11.69999980926514</v>
+      </c>
+      <c r="G97" t="n">
+        <v>20.54999923706055</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>SVED-B.ST</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>25.57</v>
+      </c>
+      <c r="D98" t="n">
+        <v>23.22</v>
+      </c>
+      <c r="E98" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="F98" t="n">
+        <v>16.60000038146973</v>
+      </c>
+      <c r="G98" t="n">
+        <v>27.89999961853027</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>SVIK.ST</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>56.91</v>
+      </c>
+      <c r="D99" t="n">
+        <v>43.69</v>
+      </c>
+      <c r="E99" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="F99" t="n">
+        <v>22.70000076293945</v>
+      </c>
+      <c r="G99" t="n">
+        <v>62.20000076293945</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>SVOL-B.ST</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>157.19</v>
+      </c>
+      <c r="D100" t="n">
+        <v>128.01</v>
+      </c>
+      <c r="E100" t="n">
+        <v>126.43</v>
+      </c>
+      <c r="F100" t="n">
+        <v>80.19999694824219</v>
+      </c>
+      <c r="G100" t="n">
+        <v>173.3999938964844</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>SWED-A.ST</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>145.22</v>
+      </c>
+      <c r="D101" t="n">
+        <v>132</v>
+      </c>
+      <c r="E101" t="n">
+        <v>131.24</v>
+      </c>
+      <c r="F101" t="n">
+        <v>101.1800003051758</v>
+      </c>
+      <c r="G101" t="n">
+        <v>151.6799926757812</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>SYSR.ST</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>239.38</v>
+      </c>
+      <c r="D102" t="n">
+        <v>186.97</v>
+      </c>
+      <c r="E102" t="n">
+        <v>177.51</v>
+      </c>
+      <c r="F102" t="n">
+        <v>107</v>
+      </c>
+      <c r="G102" t="n">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>THULE.ST</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>284</v>
+      </c>
+      <c r="D103" t="n">
+        <v>239.79</v>
+      </c>
+      <c r="E103" t="n">
+        <v>228.44</v>
+      </c>
+      <c r="F103" t="n">
+        <v>136.0656280517578</v>
+      </c>
+      <c r="G103" t="n">
+        <v>312.6000061035156</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>TRENT.ST</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>66.89</v>
+      </c>
+      <c r="D104" t="n">
+        <v>60.94</v>
+      </c>
+      <c r="E104" t="n">
+        <v>58.59</v>
+      </c>
+      <c r="F104" t="n">
+        <v>45.70000076293945</v>
+      </c>
+      <c r="G104" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>VIT-B.ST</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>294.08</v>
+      </c>
+      <c r="D105" t="n">
+        <v>247.35</v>
+      </c>
+      <c r="E105" t="n">
+        <v>232.43</v>
+      </c>
+      <c r="F105" t="n">
+        <v>129.6465148925781</v>
+      </c>
+      <c r="G105" t="n">
+        <v>325.5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>VNE-SDB.ST</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>137.37</v>
+      </c>
+      <c r="D106" t="n">
+        <v>110.06</v>
+      </c>
+      <c r="E106" t="n">
+        <v>109.77</v>
+      </c>
+      <c r="F106" t="n">
+        <v>57.63999938964844</v>
+      </c>
+      <c r="G106" t="n">
+        <v>173.3000030517578</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>VOLO.ST</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>68.75</v>
+      </c>
+      <c r="D107" t="n">
+        <v>52.34</v>
+      </c>
+      <c r="E107" t="n">
+        <v>49.01</v>
+      </c>
+      <c r="F107" t="n">
+        <v>28.79999923706055</v>
+      </c>
+      <c r="G107" t="n">
+        <v>81.09999847412109</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>VOLV-A.ST</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>176.11</v>
+      </c>
+      <c r="D108" t="n">
+        <v>153.4</v>
+      </c>
+      <c r="E108" t="n">
+        <v>149.73</v>
+      </c>
+      <c r="F108" t="n">
+        <v>94.69905090332031</v>
+      </c>
+      <c r="G108" t="n">
+        <v>190.3999938964844</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>VOLV-B.ST</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>175.25</v>
+      </c>
+      <c r="D109" t="n">
+        <v>153.29</v>
+      </c>
+      <c r="E109" t="n">
+        <v>149.61</v>
+      </c>
+      <c r="F109" t="n">
+        <v>93.20916748046875</v>
+      </c>
+      <c r="G109" t="n">
+        <v>190.0500030517578</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
           <t>XANO-B.ST</t>
         </is>
       </c>
-      <c r="C61" t="n">
-        <v>108.29</v>
-      </c>
-      <c r="D61" t="n">
-        <v>99.09</v>
-      </c>
-      <c r="E61" t="n">
-        <v>98.04000000000001</v>
-      </c>
-      <c r="F61" t="n">
+      <c r="C110" t="n">
+        <v>110.47</v>
+      </c>
+      <c r="D110" t="n">
+        <v>100.37</v>
+      </c>
+      <c r="E110" t="n">
+        <v>98.31999999999999</v>
+      </c>
+      <c r="F110" t="n">
         <v>70</v>
       </c>
-      <c r="G61" t="n">
+      <c r="G110" t="n">
         <v>130</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>XVIVO.ST</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>234.37</v>
+      </c>
+      <c r="D111" t="n">
+        <v>186.3</v>
+      </c>
+      <c r="E111" t="n">
+        <v>175.37</v>
+      </c>
+      <c r="F111" t="n">
+        <v>72.80000305175781</v>
+      </c>
+      <c r="G111" t="n">
+        <v>271.5</v>
       </c>
     </row>
   </sheetData>

--- a/ticker_components/ScreenOutput.xlsx
+++ b/ticker_components/ScreenOutput.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -56,11 +59,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -426,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G111"/>
+  <dimension ref="A1:K177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,27 +446,47 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>50 Day MA</t>
+          <t>FiftyDay Ma</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>150 Day Ma</t>
+          <t>HundredfityDayMa</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>200 Day MA</t>
+          <t>TwohundredDayMa</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>52 Week Low</t>
+          <t>FiftytwoWeekLow</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>52 week High</t>
+          <t>FiftytwoWeekHigh</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>DateAdded</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>lastRun</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>FiftyDayMa</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>HundredfiftyDayMa</t>
         </is>
       </c>
     </row>
@@ -472,23 +496,31 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ABB.ST</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>228.32</v>
-      </c>
-      <c r="D2" t="n">
-        <v>211.22</v>
-      </c>
+          <t>8TRA.ST</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="n">
-        <v>209.72</v>
+        <v>192.18</v>
       </c>
       <c r="F2" t="n">
-        <v>155.1604156494141</v>
+        <v>123.3069305419922</v>
       </c>
       <c r="G2" t="n">
-        <v>238.7389526367188</v>
+        <v>251.8999938964844</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I2" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J2" t="n">
+        <v>235.98</v>
+      </c>
+      <c r="K2" t="n">
+        <v>201.2</v>
       </c>
     </row>
     <row r="3">
@@ -497,23 +529,31 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ACAD.ST</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>73.87</v>
-      </c>
-      <c r="D3" t="n">
-        <v>64.19</v>
-      </c>
+          <t>ABB.ST</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
-        <v>61.29</v>
+        <v>221.78</v>
       </c>
       <c r="F3" t="n">
-        <v>41.09999847412109</v>
+        <v>155.1604156494141</v>
       </c>
       <c r="G3" t="n">
-        <v>80.19999694824219</v>
+        <v>257.1000061035156</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J3" t="n">
+        <v>238.52</v>
+      </c>
+      <c r="K3" t="n">
+        <v>231.59</v>
       </c>
     </row>
     <row r="4">
@@ -522,23 +562,31 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ACE.ST</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>35.77</v>
-      </c>
-      <c r="D4" t="n">
-        <v>27.12</v>
-      </c>
+          <t>ACAD.ST</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
-        <v>25.59</v>
+        <v>69.29000000000001</v>
       </c>
       <c r="F4" t="n">
-        <v>15.69999980926514</v>
+        <v>40.34262847900391</v>
       </c>
       <c r="G4" t="n">
-        <v>44.09999847412109</v>
+        <v>87</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J4" t="n">
+        <v>81.02</v>
+      </c>
+      <c r="K4" t="n">
+        <v>73.3</v>
       </c>
     </row>
     <row r="5">
@@ -547,23 +595,31 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>AM1S.ST</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>174</v>
-      </c>
-      <c r="D5" t="n">
-        <v>149.74</v>
-      </c>
+          <t>ADDT-B.ST</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>146.33</v>
+        <v>103.68</v>
       </c>
       <c r="F5" t="n">
-        <v>94.45317077636719</v>
+        <v>47.87237548828125</v>
       </c>
       <c r="G5" t="n">
-        <v>191.6686401367188</v>
+        <v>129</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I5" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J5" t="n">
+        <v>113.68</v>
+      </c>
+      <c r="K5" t="n">
+        <v>110.86</v>
       </c>
     </row>
     <row r="6">
@@ -572,23 +628,31 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ANOD-B.ST</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>213.13</v>
-      </c>
-      <c r="D6" t="n">
-        <v>191.09</v>
-      </c>
+          <t>ALFA.ST</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>186.16</v>
+        <v>208.08</v>
       </c>
       <c r="F6" t="n">
-        <v>121.0414047241211</v>
+        <v>149.6000061035156</v>
       </c>
       <c r="G6" t="n">
-        <v>237.5</v>
+        <v>257.2000122070312</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I6" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J6" t="n">
+        <v>228.8</v>
+      </c>
+      <c r="K6" t="n">
+        <v>213.22</v>
       </c>
     </row>
     <row r="7">
@@ -597,23 +661,31 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ARJO-B.ST</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>56.13</v>
-      </c>
-      <c r="D7" t="n">
-        <v>52.71</v>
-      </c>
+          <t>ALIF-B.ST</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>51.78</v>
+        <v>125.84</v>
       </c>
       <c r="F7" t="n">
-        <v>38.69265365600586</v>
+        <v>59.51107788085938</v>
       </c>
       <c r="G7" t="n">
-        <v>65.90000152587891</v>
+        <v>174</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I7" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J7" t="n">
+        <v>145.01</v>
+      </c>
+      <c r="K7" t="n">
+        <v>138.75</v>
       </c>
     </row>
     <row r="8">
@@ -622,23 +694,31 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ATCO-A.ST</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>410.22</v>
-      </c>
-      <c r="D8" t="n">
-        <v>385.22</v>
-      </c>
+          <t>ALIV-SDB.ST</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>371.85</v>
+        <v>677.12</v>
       </c>
       <c r="F8" t="n">
-        <v>261.8851318359375</v>
+        <v>412.7454528808594</v>
       </c>
       <c r="G8" t="n">
-        <v>434.8002624511719</v>
+        <v>803.7999877929688</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I8" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J8" t="n">
+        <v>766.22</v>
+      </c>
+      <c r="K8" t="n">
+        <v>702.13</v>
       </c>
     </row>
     <row r="9">
@@ -647,23 +727,31 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ATCO-B.ST</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>360.62</v>
-      </c>
-      <c r="D9" t="n">
-        <v>341.73</v>
-      </c>
+          <t>AMBEA.ST</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>329.42</v>
+        <v>57.04</v>
       </c>
       <c r="F9" t="n">
-        <v>229.102783203125</v>
+        <v>33.79999923706055</v>
       </c>
       <c r="G9" t="n">
-        <v>387.2000122070312</v>
+        <v>79.09999847412109</v>
+      </c>
+      <c r="H9" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I9" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J9" t="n">
+        <v>65.31</v>
+      </c>
+      <c r="K9" t="n">
+        <v>58.78</v>
       </c>
     </row>
     <row r="10">
@@ -672,23 +760,31 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ATRE.ST</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="D10" t="n">
-        <v>15.48</v>
-      </c>
+          <t>AQ.ST</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>15.44</v>
+        <v>191.57</v>
       </c>
       <c r="F10" t="n">
-        <v>12.69999980926514</v>
+        <v>109.4377365112305</v>
       </c>
       <c r="G10" t="n">
-        <v>20.10000038146973</v>
+        <v>240.5</v>
+      </c>
+      <c r="H10" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I10" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J10" t="n">
+        <v>219.9</v>
+      </c>
+      <c r="K10" t="n">
+        <v>202.43</v>
       </c>
     </row>
     <row r="11">
@@ -697,23 +793,31 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>AZA.ST</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>174.63</v>
-      </c>
-      <c r="D11" t="n">
-        <v>151.6</v>
-      </c>
+          <t>ARION-SDB.ST</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>135.5</v>
+        <v>4.99</v>
       </c>
       <c r="F11" t="n">
-        <v>67.78964996337891</v>
+        <v>3.700000047683716</v>
       </c>
       <c r="G11" t="n">
-        <v>197.1000061035156</v>
+        <v>7.179999828338623</v>
+      </c>
+      <c r="H11" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I11" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J11" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="K11" t="n">
+        <v>5.26</v>
       </c>
     </row>
     <row r="12">
@@ -722,23 +826,31 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BERG-B.ST</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>85.3</v>
-      </c>
-      <c r="D12" t="n">
-        <v>72.08</v>
-      </c>
+          <t>ARISE.ST</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
-        <v>70.98999999999999</v>
+        <v>39.62</v>
       </c>
       <c r="F12" t="n">
-        <v>43.91821670532227</v>
+        <v>24.70000076293945</v>
       </c>
       <c r="G12" t="n">
-        <v>92.09999847412109</v>
+        <v>55</v>
+      </c>
+      <c r="H12" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I12" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J12" t="n">
+        <v>45.78</v>
+      </c>
+      <c r="K12" t="n">
+        <v>40.62</v>
       </c>
     </row>
     <row r="13">
@@ -747,23 +859,31 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BETS-B.ST</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>68.89</v>
-      </c>
-      <c r="D13" t="n">
-        <v>64.7</v>
-      </c>
+          <t>ARJO-B.ST</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="n">
-        <v>59.37</v>
+        <v>55.97</v>
       </c>
       <c r="F13" t="n">
-        <v>26.63999938964844</v>
+        <v>40.03763961791992</v>
       </c>
       <c r="G13" t="n">
-        <v>74.90000152587891</v>
+        <v>69.44999694824219</v>
+      </c>
+      <c r="H13" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I13" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J13" t="n">
+        <v>63.34</v>
+      </c>
+      <c r="K13" t="n">
+        <v>57.98</v>
       </c>
     </row>
     <row r="14">
@@ -772,23 +892,31 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BHG.ST</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>126.58</v>
-      </c>
-      <c r="D14" t="n">
-        <v>99.06999999999999</v>
-      </c>
+          <t>ARP.ST</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="n">
-        <v>89.59</v>
+        <v>10.65</v>
       </c>
       <c r="F14" t="n">
-        <v>39</v>
+        <v>8.239999771118164</v>
       </c>
       <c r="G14" t="n">
-        <v>149.8000030517578</v>
+        <v>16.5</v>
+      </c>
+      <c r="H14" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I14" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J14" t="n">
+        <v>13.82</v>
+      </c>
+      <c r="K14" t="n">
+        <v>10.77</v>
       </c>
     </row>
     <row r="15">
@@ -797,23 +925,31 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BILI-A.ST</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>108.58</v>
-      </c>
-      <c r="D15" t="n">
-        <v>86.26000000000001</v>
-      </c>
+          <t>ASSA-B.ST</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="n">
-        <v>85.78</v>
+        <v>200.81</v>
       </c>
       <c r="F15" t="n">
-        <v>49.7673454284668</v>
+        <v>156.2810668945312</v>
       </c>
       <c r="G15" t="n">
-        <v>124.3000030517578</v>
+        <v>241.7526245117188</v>
+      </c>
+      <c r="H15" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I15" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J15" t="n">
+        <v>209.09</v>
+      </c>
+      <c r="K15" t="n">
+        <v>205.06</v>
       </c>
     </row>
     <row r="16">
@@ -822,23 +958,31 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BINV.ST</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1.56</v>
-      </c>
+          <t>ATCO-A.ST</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="n">
-        <v>1.49</v>
+        <v>406.16</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8830000162124634</v>
+        <v>259.7909851074219</v>
       </c>
       <c r="G16" t="n">
-        <v>1.835999965667725</v>
+        <v>477.2000122070312</v>
+      </c>
+      <c r="H16" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I16" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J16" t="n">
+        <v>450.01</v>
+      </c>
+      <c r="K16" t="n">
+        <v>420.66</v>
       </c>
     </row>
     <row r="17">
@@ -847,23 +991,31 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BIOA-B.ST</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="D17" t="n">
-        <v>81.34</v>
-      </c>
+          <t>ATCO-B.ST</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="n">
-        <v>79.06999999999999</v>
+        <v>357.64</v>
       </c>
       <c r="F17" t="n">
-        <v>48.11999893188477</v>
+        <v>227.0014801025391</v>
       </c>
       <c r="G17" t="n">
-        <v>123.0999984741211</v>
+        <v>415.8999938964844</v>
+      </c>
+      <c r="H17" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I17" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J17" t="n">
+        <v>391.41</v>
+      </c>
+      <c r="K17" t="n">
+        <v>368.37</v>
       </c>
     </row>
     <row r="18">
@@ -872,23 +1024,31 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BONEX.ST</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>60.04</v>
-      </c>
-      <c r="D18" t="n">
-        <v>46.88</v>
-      </c>
+          <t>ATT.ST</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="n">
-        <v>43.29</v>
+        <v>43.42</v>
       </c>
       <c r="F18" t="n">
-        <v>20.79999923706055</v>
+        <v>34.22000122070312</v>
       </c>
       <c r="G18" t="n">
-        <v>68.80000305175781</v>
+        <v>55.20000076293945</v>
+      </c>
+      <c r="H18" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I18" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J18" t="n">
+        <v>45.29</v>
+      </c>
+      <c r="K18" t="n">
+        <v>44.96</v>
       </c>
     </row>
     <row r="19">
@@ -897,23 +1057,31 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BOOZT.ST</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>140.05</v>
-      </c>
-      <c r="D19" t="n">
-        <v>98.04000000000001</v>
-      </c>
+          <t>AZA.ST</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="n">
-        <v>85.22</v>
+        <v>176.91</v>
       </c>
       <c r="F19" t="n">
-        <v>36.20000076293945</v>
+        <v>67.78964996337891</v>
       </c>
       <c r="G19" t="n">
-        <v>179.6000061035156</v>
+        <v>279</v>
+      </c>
+      <c r="H19" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I19" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J19" t="n">
+        <v>229.14</v>
+      </c>
+      <c r="K19" t="n">
+        <v>191.35</v>
       </c>
     </row>
     <row r="20">
@@ -922,23 +1090,31 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BUFAB.ST</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>129.58</v>
-      </c>
-      <c r="D20" t="n">
-        <v>107.49</v>
-      </c>
+          <t>BALD-B.ST</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="n">
-        <v>106.46</v>
+        <v>405.92</v>
       </c>
       <c r="F20" t="n">
-        <v>58.9691276550293</v>
+        <v>256.6000061035156</v>
       </c>
       <c r="G20" t="n">
-        <v>145.3999938964844</v>
+        <v>533</v>
+      </c>
+      <c r="H20" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I20" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J20" t="n">
+        <v>427</v>
+      </c>
+      <c r="K20" t="n">
+        <v>416.5</v>
       </c>
     </row>
     <row r="21">
@@ -947,23 +1123,31 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BURE.ST</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>273.52</v>
-      </c>
-      <c r="D21" t="n">
-        <v>228.91</v>
-      </c>
+          <t>BEGR.ST</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="n">
-        <v>217.12</v>
+        <v>33.08</v>
       </c>
       <c r="F21" t="n">
-        <v>127.5589981079102</v>
+        <v>25.125</v>
       </c>
       <c r="G21" t="n">
-        <v>284.2000122070312</v>
+        <v>45.20000076293945</v>
+      </c>
+      <c r="H21" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I21" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J21" t="n">
+        <v>38.53</v>
+      </c>
+      <c r="K21" t="n">
+        <v>34.64</v>
       </c>
     </row>
     <row r="22">
@@ -972,23 +1156,31 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>CALTX.ST</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>108.95</v>
-      </c>
-      <c r="D22" t="n">
-        <v>102.22</v>
-      </c>
+          <t>BEIA-B.ST</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="n">
-        <v>100.38</v>
+        <v>117.75</v>
       </c>
       <c r="F22" t="n">
-        <v>57</v>
+        <v>72.46250152587891</v>
       </c>
       <c r="G22" t="n">
-        <v>125.4000015258789</v>
+        <v>143.1812591552734</v>
+      </c>
+      <c r="H22" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I22" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J22" t="n">
+        <v>132.75</v>
+      </c>
+      <c r="K22" t="n">
+        <v>125.02</v>
       </c>
     </row>
     <row r="23">
@@ -997,23 +1189,31 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>CAMX.ST</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>184.42</v>
-      </c>
-      <c r="D23" t="n">
-        <v>153.78</v>
-      </c>
+          <t>BEIJ-B.ST</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="n">
-        <v>137.53</v>
+        <v>307.54</v>
       </c>
       <c r="F23" t="n">
-        <v>62</v>
+        <v>156.6107025146484</v>
       </c>
       <c r="G23" t="n">
-        <v>206.5</v>
+        <v>387.3999938964844</v>
+      </c>
+      <c r="H23" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I23" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J23" t="n">
+        <v>351.14</v>
+      </c>
+      <c r="K23" t="n">
+        <v>324.88</v>
       </c>
     </row>
     <row r="24">
@@ -1022,23 +1222,31 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>CANTA.ST</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>46.03</v>
-      </c>
-      <c r="D24" t="n">
-        <v>29.42</v>
-      </c>
+          <t>BERG-B.ST</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="n">
-        <v>27.04</v>
+        <v>80.83</v>
       </c>
       <c r="F24" t="n">
-        <v>12.81999969482422</v>
+        <v>43.91821670532227</v>
       </c>
       <c r="G24" t="n">
-        <v>61.20000076293945</v>
+        <v>112.4000015258789</v>
+      </c>
+      <c r="H24" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I24" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J24" t="n">
+        <v>98.34</v>
+      </c>
+      <c r="K24" t="n">
+        <v>87.68000000000001</v>
       </c>
     </row>
     <row r="25">
@@ -1047,23 +1255,31 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>CLNK-B.ST</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>185.46</v>
-      </c>
-      <c r="D25" t="n">
-        <v>152.31</v>
-      </c>
+          <t>BESQ.ST</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="n">
-        <v>138.04</v>
+        <v>114.8</v>
       </c>
       <c r="F25" t="n">
-        <v>68.5</v>
+        <v>88.91999816894531</v>
       </c>
       <c r="G25" t="n">
-        <v>210.5</v>
+        <v>141.375</v>
+      </c>
+      <c r="H25" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I25" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J25" t="n">
+        <v>129.55</v>
+      </c>
+      <c r="K25" t="n">
+        <v>120.81</v>
       </c>
     </row>
     <row r="26">
@@ -1072,23 +1288,31 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>CRED-A.ST</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>845.58</v>
-      </c>
-      <c r="D26" t="n">
-        <v>683.1900000000001</v>
-      </c>
+          <t>BETCO.ST</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="n">
-        <v>622.72</v>
+        <v>135.62</v>
       </c>
       <c r="F26" t="n">
-        <v>318.6885986328125</v>
+        <v>48.75</v>
       </c>
       <c r="G26" t="n">
-        <v>1006</v>
+        <v>220</v>
+      </c>
+      <c r="H26" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I26" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J26" t="n">
+        <v>174.79</v>
+      </c>
+      <c r="K26" t="n">
+        <v>146.26</v>
       </c>
     </row>
     <row r="27">
@@ -1097,23 +1321,31 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>EDGE.ST</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="D27" t="n">
-        <v>6.49</v>
-      </c>
+          <t>BILL.ST</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="n">
-        <v>6.03</v>
+        <v>140.64</v>
       </c>
       <c r="F27" t="n">
-        <v>3.125</v>
+        <v>91.93831634521484</v>
       </c>
       <c r="G27" t="n">
-        <v>9.479999542236328</v>
+        <v>159.1499938964844</v>
+      </c>
+      <c r="H27" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I27" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J27" t="n">
+        <v>147.47</v>
+      </c>
+      <c r="K27" t="n">
+        <v>145.27</v>
       </c>
     </row>
     <row r="28">
@@ -1122,23 +1354,31 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ELEC.ST</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>44.69</v>
-      </c>
-      <c r="D28" t="n">
-        <v>39.99</v>
-      </c>
+          <t>BINV.ST</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="n">
-        <v>39.7</v>
+        <v>42.03</v>
       </c>
       <c r="F28" t="n">
-        <v>25.39598083496094</v>
+        <v>21.68772125244141</v>
       </c>
       <c r="G28" t="n">
-        <v>50.79999923706055</v>
+        <v>60.29999923706055</v>
+      </c>
+      <c r="H28" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I28" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J28" t="n">
+        <v>50.08</v>
+      </c>
+      <c r="K28" t="n">
+        <v>43.9</v>
       </c>
     </row>
     <row r="29">
@@ -1147,23 +1387,31 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ENG.ST</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>78.90000000000001</v>
-      </c>
-      <c r="D29" t="n">
-        <v>74.5</v>
-      </c>
+          <t>BIOA-B.ST</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="n">
-        <v>72.70999999999999</v>
+        <v>86.54000000000001</v>
       </c>
       <c r="F29" t="n">
-        <v>58.20000076293945</v>
+        <v>48.11999893188477</v>
       </c>
       <c r="G29" t="n">
-        <v>82.19999694824219</v>
+        <v>123.0999984741211</v>
+      </c>
+      <c r="H29" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I29" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J29" t="n">
+        <v>95.84</v>
+      </c>
+      <c r="K29" t="n">
+        <v>91.48</v>
       </c>
     </row>
     <row r="30">
@@ -1172,23 +1420,31 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>EPI-A.ST</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>130.96</v>
-      </c>
-      <c r="D30" t="n">
-        <v>119.19</v>
-      </c>
+          <t>BMAX.ST</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
       <c r="E30" t="n">
-        <v>116.02</v>
+        <v>49.09</v>
       </c>
       <c r="F30" t="n">
-        <v>79.51999664306641</v>
+        <v>19.73845481872559</v>
       </c>
       <c r="G30" t="n">
-        <v>146.1999969482422</v>
+        <v>59.79999923706055</v>
+      </c>
+      <c r="H30" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I30" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J30" t="n">
+        <v>50.88</v>
+      </c>
+      <c r="K30" t="n">
+        <v>50.28</v>
       </c>
     </row>
     <row r="31">
@@ -1197,23 +1453,31 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>EPI-B.ST</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>125.97</v>
-      </c>
-      <c r="D31" t="n">
-        <v>116.12</v>
-      </c>
+          <t>BOL.ST</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
       <c r="E31" t="n">
-        <v>113.25</v>
+        <v>252.87</v>
       </c>
       <c r="F31" t="n">
-        <v>78.54000091552734</v>
+        <v>136.4131469726562</v>
       </c>
       <c r="G31" t="n">
-        <v>140</v>
+        <v>318.5</v>
+      </c>
+      <c r="H31" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I31" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J31" t="n">
+        <v>293.64</v>
+      </c>
+      <c r="K31" t="n">
+        <v>268.75</v>
       </c>
     </row>
     <row r="32">
@@ -1222,23 +1486,31 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>EQT.ST</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>171.41</v>
-      </c>
-      <c r="D32" t="n">
-        <v>167.56</v>
-      </c>
+          <t>BONAV-A.ST</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
       <c r="E32" t="n">
-        <v>157.68</v>
+        <v>66.64</v>
       </c>
       <c r="F32" t="n">
-        <v>78.51180267333984</v>
+        <v>38.95761108398438</v>
       </c>
       <c r="G32" t="n">
-        <v>222.3999938964844</v>
+        <v>97.59999847412109</v>
+      </c>
+      <c r="H32" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I32" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J32" t="n">
+        <v>80.81999999999999</v>
+      </c>
+      <c r="K32" t="n">
+        <v>71.38</v>
       </c>
     </row>
     <row r="33">
@@ -1247,23 +1519,31 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ERIC-A.ST</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>106.39</v>
-      </c>
-      <c r="D33" t="n">
-        <v>99.87</v>
-      </c>
+          <t>BONAV-B.ST</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
       <c r="E33" t="n">
-        <v>95.05</v>
+        <v>64.73999999999999</v>
       </c>
       <c r="F33" t="n">
-        <v>64.63455200195312</v>
+        <v>36.29597854614258</v>
       </c>
       <c r="G33" t="n">
-        <v>117.5999984741211</v>
+        <v>97.25</v>
+      </c>
+      <c r="H33" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I33" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J33" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="K33" t="n">
+        <v>71.26000000000001</v>
       </c>
     </row>
     <row r="34">
@@ -1272,23 +1552,31 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ERIC-B.ST</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>98.34999999999999</v>
-      </c>
-      <c r="D34" t="n">
-        <v>92.06999999999999</v>
-      </c>
+          <t>BONEX.ST</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
       <c r="E34" t="n">
-        <v>88.22</v>
+        <v>56.26</v>
       </c>
       <c r="F34" t="n">
-        <v>59.95473861694336</v>
+        <v>20.79999923706055</v>
       </c>
       <c r="G34" t="n">
-        <v>109</v>
+        <v>83</v>
+      </c>
+      <c r="H34" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I34" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J34" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="K34" t="n">
+        <v>62.24</v>
       </c>
     </row>
     <row r="35">
@@ -1297,23 +1585,31 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ETX.ST</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="D35" t="n">
-        <v>1.58</v>
-      </c>
+          <t>BOOZT.ST</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
       <c r="E35" t="n">
-        <v>1.55</v>
+        <v>123.43</v>
       </c>
       <c r="F35" t="n">
-        <v>1.016000032424927</v>
+        <v>36.20000076293945</v>
       </c>
       <c r="G35" t="n">
-        <v>1.950000047683716</v>
+        <v>200.5</v>
+      </c>
+      <c r="H35" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I35" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J35" t="n">
+        <v>172.58</v>
+      </c>
+      <c r="K35" t="n">
+        <v>141.32</v>
       </c>
     </row>
     <row r="36">
@@ -1322,23 +1618,31 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>EVO.ST</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>646.33</v>
-      </c>
-      <c r="D36" t="n">
-        <v>588.95</v>
-      </c>
+          <t>BORG.ST</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
       <c r="E36" t="n">
-        <v>527.16</v>
+        <v>15.97</v>
       </c>
       <c r="F36" t="n">
-        <v>211.1453094482422</v>
+        <v>10.27999973297119</v>
       </c>
       <c r="G36" t="n">
-        <v>761.4000244140625</v>
+        <v>25.04999923706055</v>
+      </c>
+      <c r="H36" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I36" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J36" t="n">
+        <v>19.02</v>
+      </c>
+      <c r="K36" t="n">
+        <v>16.94</v>
       </c>
     </row>
     <row r="37">
@@ -1347,23 +1651,31 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>FMM-B.ST</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>120.11</v>
-      </c>
-      <c r="D37" t="n">
-        <v>99.23999999999999</v>
-      </c>
+          <t>BRAV.ST</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
       <c r="E37" t="n">
-        <v>95.86</v>
+        <v>98.05</v>
       </c>
       <c r="F37" t="n">
-        <v>66.97908020019531</v>
+        <v>50.36767578125</v>
       </c>
       <c r="G37" t="n">
-        <v>143</v>
+        <v>114.9456329345703</v>
+      </c>
+      <c r="H37" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I37" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J37" t="n">
+        <v>105.99</v>
+      </c>
+      <c r="K37" t="n">
+        <v>102.81</v>
       </c>
     </row>
     <row r="38">
@@ -1372,23 +1684,31 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>G5EN.ST</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>386.33</v>
-      </c>
-      <c r="D38" t="n">
-        <v>262.64</v>
-      </c>
+          <t>BRG-B.ST</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
       <c r="E38" t="n">
-        <v>221.1</v>
+        <v>2.71</v>
       </c>
       <c r="F38" t="n">
-        <v>69.86784362792969</v>
+        <v>1.759999990463257</v>
       </c>
       <c r="G38" t="n">
-        <v>479.7999877929688</v>
+        <v>3.640000104904175</v>
+      </c>
+      <c r="H38" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I38" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J38" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="K38" t="n">
+        <v>2.83</v>
       </c>
     </row>
     <row r="39">
@@ -1397,23 +1717,31 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>GARO.ST</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>487.95</v>
-      </c>
-      <c r="D39" t="n">
-        <v>396.46</v>
-      </c>
+          <t>BRIN-B.ST</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
       <c r="E39" t="n">
-        <v>373.84</v>
+        <v>27.86</v>
       </c>
       <c r="F39" t="n">
-        <v>206</v>
+        <v>18.25</v>
       </c>
       <c r="G39" t="n">
-        <v>555</v>
+        <v>34.90000152587891</v>
+      </c>
+      <c r="H39" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I39" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J39" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="K39" t="n">
+        <v>28.84</v>
       </c>
     </row>
     <row r="40">
@@ -1422,23 +1750,31 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>HANDI.ST</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>39.88</v>
-      </c>
-      <c r="D40" t="n">
-        <v>31.68</v>
-      </c>
+          <t>BTS-B.ST</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
       <c r="E40" t="n">
-        <v>31.57</v>
+        <v>205.29</v>
       </c>
       <c r="F40" t="n">
-        <v>18.54853820800781</v>
+        <v>138.3394165039062</v>
       </c>
       <c r="G40" t="n">
-        <v>47.09999847412109</v>
+        <v>282.9669799804688</v>
+      </c>
+      <c r="H40" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I40" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J40" t="n">
+        <v>230.51</v>
+      </c>
+      <c r="K40" t="n">
+        <v>210.17</v>
       </c>
     </row>
     <row r="41">
@@ -1447,23 +1783,31 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>HAV-B.ST</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>18.85</v>
-      </c>
-      <c r="D41" t="n">
-        <v>16.8</v>
-      </c>
+          <t>BUFAB.ST</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
       <c r="E41" t="n">
-        <v>16.46</v>
+        <v>132.76</v>
       </c>
       <c r="F41" t="n">
-        <v>12.59088802337646</v>
+        <v>58.9691276550293</v>
       </c>
       <c r="G41" t="n">
-        <v>19.95000076293945</v>
+        <v>214.5</v>
+      </c>
+      <c r="H41" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I41" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J41" t="n">
+        <v>188.31</v>
+      </c>
+      <c r="K41" t="n">
+        <v>147.38</v>
       </c>
     </row>
     <row r="42">
@@ -1472,23 +1816,31 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>HEBA-B.ST</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>105.53</v>
-      </c>
-      <c r="D42" t="n">
-        <v>92.53</v>
-      </c>
+          <t>BULTEN.ST</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
       <c r="E42" t="n">
-        <v>90.31999999999999</v>
+        <v>69.86</v>
       </c>
       <c r="F42" t="n">
-        <v>67.84665679931641</v>
+        <v>36.27580642700195</v>
       </c>
       <c r="G42" t="n">
-        <v>114</v>
+        <v>98.69999694824219</v>
+      </c>
+      <c r="H42" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I42" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J42" t="n">
+        <v>89.48999999999999</v>
+      </c>
+      <c r="K42" t="n">
+        <v>75.55</v>
       </c>
     </row>
     <row r="43">
@@ -1497,23 +1849,31 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>HEXA-B.ST</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>662.84</v>
-      </c>
-      <c r="D43" t="n">
-        <v>573.1799999999999</v>
-      </c>
+          <t>BURE.ST</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
       <c r="E43" t="n">
-        <v>553.13</v>
+        <v>248.68</v>
       </c>
       <c r="F43" t="n">
-        <v>354.0427856445312</v>
+        <v>127.5589981079102</v>
       </c>
       <c r="G43" t="n">
-        <v>693.2000122070312</v>
+        <v>304.7999877929688</v>
+      </c>
+      <c r="H43" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I43" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J43" t="n">
+        <v>281.48</v>
+      </c>
+      <c r="K43" t="n">
+        <v>268.19</v>
       </c>
     </row>
     <row r="44">
@@ -1522,23 +1882,31 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>HIQ.ST</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>71.61</v>
-      </c>
-      <c r="D44" t="n">
-        <v>54.01</v>
-      </c>
+          <t>CAMX.ST</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
       <c r="E44" t="n">
-        <v>51.64</v>
+        <v>169.6</v>
       </c>
       <c r="F44" t="n">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="G44" t="n">
-        <v>72.40000152587891</v>
+        <v>211.5</v>
+      </c>
+      <c r="H44" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I44" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J44" t="n">
+        <v>190.25</v>
+      </c>
+      <c r="K44" t="n">
+        <v>182.32</v>
       </c>
     </row>
     <row r="45">
@@ -1547,23 +1915,31 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>HMS.ST</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>205.83</v>
-      </c>
-      <c r="D45" t="n">
-        <v>186.77</v>
-      </c>
+          <t>CAT-A.ST</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
       <c r="E45" t="n">
-        <v>173.41</v>
+        <v>24.22</v>
       </c>
       <c r="F45" t="n">
-        <v>97.75838470458984</v>
+        <v>14.5</v>
       </c>
       <c r="G45" t="n">
-        <v>220</v>
+        <v>35.20000076293945</v>
+      </c>
+      <c r="H45" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I45" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J45" t="n">
+        <v>29.49</v>
+      </c>
+      <c r="K45" t="n">
+        <v>24.92</v>
       </c>
     </row>
     <row r="46">
@@ -1572,23 +1948,31 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>HNSA.ST</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>234.14</v>
-      </c>
-      <c r="D46" t="n">
-        <v>195.92</v>
-      </c>
+          <t>CAT-B.ST</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
       <c r="E46" t="n">
-        <v>165.96</v>
+        <v>23.26</v>
       </c>
       <c r="F46" t="n">
-        <v>63.59999847412109</v>
+        <v>14.84000015258789</v>
       </c>
       <c r="G46" t="n">
-        <v>276</v>
+        <v>34.29999923706055</v>
+      </c>
+      <c r="H46" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I46" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J46" t="n">
+        <v>29.07</v>
+      </c>
+      <c r="K46" t="n">
+        <v>24.05</v>
       </c>
     </row>
     <row r="47">
@@ -1597,23 +1981,31 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>HOLM-B.ST</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>332.46</v>
-      </c>
-      <c r="D47" t="n">
-        <v>305.71</v>
-      </c>
+          <t>CATE.ST</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
       <c r="E47" t="n">
-        <v>297.81</v>
+        <v>371.73</v>
       </c>
       <c r="F47" t="n">
-        <v>225.6348419189453</v>
+        <v>222.4248046875</v>
       </c>
       <c r="G47" t="n">
-        <v>354</v>
+        <v>429.6620178222656</v>
+      </c>
+      <c r="H47" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I47" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J47" t="n">
+        <v>386.58</v>
+      </c>
+      <c r="K47" t="n">
+        <v>380.1</v>
       </c>
     </row>
     <row r="48">
@@ -1622,23 +2014,31 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>HTRO.ST</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>62.72</v>
-      </c>
-      <c r="D48" t="n">
-        <v>56.11</v>
-      </c>
+          <t>CBTT-B.ST</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
       <c r="E48" t="n">
-        <v>54.64</v>
+        <v>22.57</v>
       </c>
       <c r="F48" t="n">
-        <v>33.59999847412109</v>
+        <v>14.79767417907715</v>
       </c>
       <c r="G48" t="n">
-        <v>68.09999847412109</v>
+        <v>31.79999923706055</v>
+      </c>
+      <c r="H48" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I48" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J48" t="n">
+        <v>26.86</v>
+      </c>
+      <c r="K48" t="n">
+        <v>24.25</v>
       </c>
     </row>
     <row r="49">
@@ -1647,23 +2047,31 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>HUSQ-A.ST</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>93.05</v>
-      </c>
-      <c r="D49" t="n">
-        <v>77.76000000000001</v>
-      </c>
+          <t>CCC.ST</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
       <c r="E49" t="n">
-        <v>73.2</v>
+        <v>19.35</v>
       </c>
       <c r="F49" t="n">
-        <v>38.25838088989258</v>
+        <v>11.89999961853027</v>
       </c>
       <c r="G49" t="n">
-        <v>100.1514739990234</v>
+        <v>23.20000076293945</v>
+      </c>
+      <c r="H49" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I49" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J49" t="n">
+        <v>21.22</v>
+      </c>
+      <c r="K49" t="n">
+        <v>19.85</v>
       </c>
     </row>
     <row r="50">
@@ -1672,23 +2080,31 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>HUSQ-B.ST</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>93.68000000000001</v>
-      </c>
-      <c r="D50" t="n">
-        <v>77.73</v>
-      </c>
+          <t>CLNK-B.ST</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
       <c r="E50" t="n">
-        <v>73.20999999999999</v>
+        <v>179.62</v>
       </c>
       <c r="F50" t="n">
-        <v>37.2486686706543</v>
+        <v>76</v>
       </c>
       <c r="G50" t="n">
-        <v>100.8540725708008</v>
+        <v>289.5</v>
+      </c>
+      <c r="H50" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I50" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J50" t="n">
+        <v>236.87</v>
+      </c>
+      <c r="K50" t="n">
+        <v>195.6</v>
       </c>
     </row>
     <row r="51">
@@ -1697,23 +2113,31 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>INDT.ST</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
-        <v>473.5</v>
-      </c>
-      <c r="D51" t="n">
-        <v>407.01</v>
-      </c>
+          <t>COIC.ST</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
       <c r="E51" t="n">
-        <v>382.68</v>
+        <v>154.02</v>
       </c>
       <c r="F51" t="n">
-        <v>224</v>
+        <v>73.89634704589844</v>
       </c>
       <c r="G51" t="n">
-        <v>508.5</v>
+        <v>197</v>
+      </c>
+      <c r="H51" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I51" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J51" t="n">
+        <v>181.97</v>
+      </c>
+      <c r="K51" t="n">
+        <v>165.36</v>
       </c>
     </row>
     <row r="52">
@@ -1722,23 +2146,31 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>INDU-A.ST</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>242.36</v>
-      </c>
-      <c r="D52" t="n">
-        <v>223.16</v>
-      </c>
+          <t>CRAD-B.ST</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
       <c r="E52" t="n">
-        <v>223.01</v>
+        <v>37.57</v>
       </c>
       <c r="F52" t="n">
-        <v>169</v>
+        <v>24.54999923706055</v>
       </c>
       <c r="G52" t="n">
-        <v>261</v>
+        <v>59.70000076293945</v>
+      </c>
+      <c r="H52" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I52" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J52" t="n">
+        <v>46.4</v>
+      </c>
+      <c r="K52" t="n">
+        <v>39.6</v>
       </c>
     </row>
     <row r="53">
@@ -1747,23 +2179,31 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>INDU-C.ST</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>236.93</v>
-      </c>
-      <c r="D53" t="n">
-        <v>220.03</v>
-      </c>
+          <t>DEDI.ST</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
       <c r="E53" t="n">
-        <v>218.02</v>
+        <v>38.62</v>
       </c>
       <c r="F53" t="n">
-        <v>164.0168151855469</v>
+        <v>31.9713077545166</v>
       </c>
       <c r="G53" t="n">
-        <v>249.5</v>
+        <v>51.40000152587891</v>
+      </c>
+      <c r="H53" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I53" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J53" t="n">
+        <v>42.29</v>
+      </c>
+      <c r="K53" t="n">
+        <v>39.29</v>
       </c>
     </row>
     <row r="54">
@@ -1772,23 +2212,31 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>INSTAL.ST</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
-        <v>197.7</v>
-      </c>
-      <c r="D54" t="n">
-        <v>163.56</v>
-      </c>
+          <t>DORO.ST</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
       <c r="E54" t="n">
-        <v>153.54</v>
+        <v>41.29</v>
       </c>
       <c r="F54" t="n">
-        <v>79.56692504882812</v>
+        <v>25.60000038146973</v>
       </c>
       <c r="G54" t="n">
-        <v>229</v>
+        <v>49.95000076293945</v>
+      </c>
+      <c r="H54" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I54" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J54" t="n">
+        <v>45.61</v>
+      </c>
+      <c r="K54" t="n">
+        <v>43.87</v>
       </c>
     </row>
     <row r="55">
@@ -1797,23 +2245,31 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>INVE-B.ST</t>
-        </is>
-      </c>
-      <c r="C55" t="n">
-        <v>564.4</v>
-      </c>
-      <c r="D55" t="n">
-        <v>520.55</v>
-      </c>
+          <t>DUST.ST</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
       <c r="E55" t="n">
-        <v>511.82</v>
+        <v>57.46</v>
       </c>
       <c r="F55" t="n">
-        <v>376.4981079101562</v>
+        <v>42.44548416137695</v>
       </c>
       <c r="G55" t="n">
-        <v>589.4000244140625</v>
+        <v>84.30000305175781</v>
+      </c>
+      <c r="H55" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I55" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J55" t="n">
+        <v>69.29000000000001</v>
+      </c>
+      <c r="K55" t="n">
+        <v>60.04</v>
       </c>
     </row>
     <row r="56">
@@ -1822,23 +2278,31 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>INWI.ST</t>
-        </is>
-      </c>
-      <c r="C56" t="n">
-        <v>93.14</v>
-      </c>
-      <c r="D56" t="n">
-        <v>75.52</v>
-      </c>
+          <t>EDGE.ST</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
       <c r="E56" t="n">
-        <v>73.76000000000001</v>
+        <v>6.91</v>
       </c>
       <c r="F56" t="n">
-        <v>42.65250015258789</v>
+        <v>3.125</v>
       </c>
       <c r="G56" t="n">
-        <v>109</v>
+        <v>9.779999732971191</v>
+      </c>
+      <c r="H56" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I56" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J56" t="n">
+        <v>9.26</v>
+      </c>
+      <c r="K56" t="n">
+        <v>7.73</v>
       </c>
     </row>
     <row r="57">
@@ -1847,23 +2311,31 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>IVSO.ST</t>
-        </is>
-      </c>
-      <c r="C57" t="n">
-        <v>168.63</v>
-      </c>
-      <c r="D57" t="n">
-        <v>148.61</v>
-      </c>
+          <t>EKTA-B.ST</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
       <c r="E57" t="n">
-        <v>142.14</v>
+        <v>103.61</v>
       </c>
       <c r="F57" t="n">
-        <v>81.30193328857422</v>
+        <v>65.44460296630859</v>
       </c>
       <c r="G57" t="n">
-        <v>187</v>
+        <v>123.3499984741211</v>
+      </c>
+      <c r="H57" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I57" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J57" t="n">
+        <v>114.47</v>
+      </c>
+      <c r="K57" t="n">
+        <v>108.02</v>
       </c>
     </row>
     <row r="58">
@@ -1872,23 +2344,31 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>K2A-B.ST</t>
-        </is>
-      </c>
-      <c r="C58" t="n">
-        <v>171.7</v>
-      </c>
-      <c r="D58" t="n">
-        <v>159.05</v>
-      </c>
+          <t>ELAN-B.ST</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
       <c r="E58" t="n">
-        <v>156.1</v>
+        <v>78.34</v>
       </c>
       <c r="F58" t="n">
-        <v>106</v>
+        <v>34.79217910766602</v>
       </c>
       <c r="G58" t="n">
-        <v>187.6000061035156</v>
+        <v>164</v>
+      </c>
+      <c r="H58" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I58" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J58" t="n">
+        <v>120.74</v>
+      </c>
+      <c r="K58" t="n">
+        <v>87.81999999999999</v>
       </c>
     </row>
     <row r="59">
@@ -1897,23 +2377,31 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>KIND-SDB.ST</t>
-        </is>
-      </c>
-      <c r="C59" t="n">
-        <v>67.47</v>
-      </c>
-      <c r="D59" t="n">
-        <v>58.19</v>
-      </c>
+          <t>ELEC.ST</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
       <c r="E59" t="n">
-        <v>54.19</v>
+        <v>42.1</v>
       </c>
       <c r="F59" t="n">
-        <v>22.50131988525391</v>
+        <v>24.22745323181152</v>
       </c>
       <c r="G59" t="n">
-        <v>78</v>
+        <v>58.59999847412109</v>
+      </c>
+      <c r="H59" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I59" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J59" t="n">
+        <v>50.68</v>
+      </c>
+      <c r="K59" t="n">
+        <v>44.21</v>
       </c>
     </row>
     <row r="60">
@@ -1922,23 +2410,31 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>KINV-A.ST</t>
-        </is>
-      </c>
-      <c r="C60" t="n">
-        <v>353.59</v>
-      </c>
-      <c r="D60" t="n">
-        <v>283.01</v>
-      </c>
+          <t>ELOS-B.ST</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
       <c r="E60" t="n">
-        <v>261.64</v>
+        <v>87.28</v>
       </c>
       <c r="F60" t="n">
-        <v>135.9549102783203</v>
+        <v>63.63445663452148</v>
       </c>
       <c r="G60" t="n">
-        <v>414</v>
+        <v>120.5</v>
+      </c>
+      <c r="H60" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I60" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J60" t="n">
+        <v>108.56</v>
+      </c>
+      <c r="K60" t="n">
+        <v>93.20999999999999</v>
       </c>
     </row>
     <row r="61">
@@ -1947,23 +2443,31 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>KINV-B.ST</t>
-        </is>
-      </c>
-      <c r="C61" t="n">
-        <v>352.47</v>
-      </c>
-      <c r="D61" t="n">
-        <v>283.6</v>
-      </c>
+          <t>ELTEL.ST</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
       <c r="E61" t="n">
-        <v>261.31</v>
+        <v>21.04</v>
       </c>
       <c r="F61" t="n">
-        <v>135.54638671875</v>
+        <v>15.60000038146973</v>
       </c>
       <c r="G61" t="n">
-        <v>410.3500061035156</v>
+        <v>23.5</v>
+      </c>
+      <c r="H61" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I61" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J61" t="n">
+        <v>22.59</v>
+      </c>
+      <c r="K61" t="n">
+        <v>21.42</v>
       </c>
     </row>
     <row r="62">
@@ -1972,23 +2476,31 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>KNOW.ST</t>
-        </is>
-      </c>
-      <c r="C62" t="n">
-        <v>232.19</v>
-      </c>
-      <c r="D62" t="n">
-        <v>182.63</v>
-      </c>
+          <t>ELUX-A.ST</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
       <c r="E62" t="n">
-        <v>176.64</v>
+        <v>185.74</v>
       </c>
       <c r="F62" t="n">
-        <v>105.2045593261719</v>
+        <v>119.5374603271484</v>
       </c>
       <c r="G62" t="n">
-        <v>265.5</v>
+        <v>248.3413696289062</v>
+      </c>
+      <c r="H62" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I62" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J62" t="n">
+        <v>202.42</v>
+      </c>
+      <c r="K62" t="n">
+        <v>192.65</v>
       </c>
     </row>
     <row r="63">
@@ -1997,23 +2509,31 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>LAGR-B.ST</t>
-        </is>
-      </c>
-      <c r="C63" t="n">
-        <v>61.41</v>
-      </c>
-      <c r="D63" t="n">
-        <v>52.89</v>
-      </c>
+          <t>ELUX-B.ST</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
       <c r="E63" t="n">
-        <v>50.7</v>
+        <v>177.43</v>
       </c>
       <c r="F63" t="n">
-        <v>30.0113468170166</v>
+        <v>96.15350341796875</v>
       </c>
       <c r="G63" t="n">
-        <v>69.25</v>
+        <v>217.7526550292969</v>
+      </c>
+      <c r="H63" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I63" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J63" t="n">
+        <v>201.18</v>
+      </c>
+      <c r="K63" t="n">
+        <v>189.61</v>
       </c>
     </row>
     <row r="64">
@@ -2022,23 +2542,31 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>LATO-B.ST</t>
-        </is>
-      </c>
-      <c r="C64" t="n">
-        <v>206.42</v>
-      </c>
-      <c r="D64" t="n">
-        <v>181.83</v>
-      </c>
+          <t>ENEA.ST</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
       <c r="E64" t="n">
-        <v>173.6</v>
+        <v>178.65</v>
       </c>
       <c r="F64" t="n">
-        <v>116.4326324462891</v>
+        <v>105.5</v>
       </c>
       <c r="G64" t="n">
-        <v>235</v>
+        <v>246</v>
+      </c>
+      <c r="H64" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I64" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J64" t="n">
+        <v>201.04</v>
+      </c>
+      <c r="K64" t="n">
+        <v>188.45</v>
       </c>
     </row>
     <row r="65">
@@ -2047,23 +2575,31 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>LIAB.ST</t>
-        </is>
-      </c>
-      <c r="C65" t="n">
-        <v>150.08</v>
-      </c>
-      <c r="D65" t="n">
-        <v>122.35</v>
-      </c>
+          <t>EPI-A.ST</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
       <c r="E65" t="n">
-        <v>117.19</v>
+        <v>130.71</v>
       </c>
       <c r="F65" t="n">
-        <v>64.08100891113281</v>
+        <v>77.93662261962891</v>
       </c>
       <c r="G65" t="n">
-        <v>162.7436218261719</v>
+        <v>169.8999938964844</v>
+      </c>
+      <c r="H65" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I65" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J65" t="n">
+        <v>156.36</v>
+      </c>
+      <c r="K65" t="n">
+        <v>138.74</v>
       </c>
     </row>
     <row r="66">
@@ -2072,23 +2608,31 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>LIFCO-B.ST</t>
-        </is>
-      </c>
-      <c r="C66" t="n">
-        <v>669.83</v>
-      </c>
-      <c r="D66" t="n">
-        <v>601.4</v>
-      </c>
+          <t>EPI-B.ST</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
       <c r="E66" t="n">
-        <v>570.46</v>
+        <v>125.1</v>
       </c>
       <c r="F66" t="n">
-        <v>303.4897155761719</v>
+        <v>76.94284057617188</v>
       </c>
       <c r="G66" t="n">
-        <v>721.5</v>
+        <v>153.5</v>
+      </c>
+      <c r="H66" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I66" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J66" t="n">
+        <v>144.68</v>
+      </c>
+      <c r="K66" t="n">
+        <v>131.66</v>
       </c>
     </row>
     <row r="67">
@@ -2097,23 +2641,31 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>MAG.ST</t>
-        </is>
-      </c>
-      <c r="C67" t="n">
-        <v>57.95</v>
-      </c>
-      <c r="D67" t="n">
-        <v>49.17</v>
-      </c>
+          <t>EPIS-B.ST</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
       <c r="E67" t="n">
-        <v>47.23</v>
+        <v>2.01</v>
       </c>
       <c r="F67" t="n">
-        <v>28</v>
+        <v>1.100000023841858</v>
       </c>
       <c r="G67" t="n">
-        <v>62.59999847412109</v>
+        <v>3.079999923706055</v>
+      </c>
+      <c r="H67" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I67" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J67" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="K67" t="n">
+        <v>2.17</v>
       </c>
     </row>
     <row r="68">
@@ -2122,23 +2674,31 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>MCAP.ST</t>
-        </is>
-      </c>
-      <c r="C68" t="n">
-        <v>209.23</v>
-      </c>
-      <c r="D68" t="n">
-        <v>177.31</v>
-      </c>
+          <t>EPRO-B.ST</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
       <c r="E68" t="n">
-        <v>173.77</v>
+        <v>37.8</v>
       </c>
       <c r="F68" t="n">
-        <v>118.8000030517578</v>
+        <v>18.75</v>
       </c>
       <c r="G68" t="n">
-        <v>228.5</v>
+        <v>52.04000091552734</v>
+      </c>
+      <c r="H68" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I68" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J68" t="n">
+        <v>46.42</v>
+      </c>
+      <c r="K68" t="n">
+        <v>40.01</v>
       </c>
     </row>
     <row r="69">
@@ -2147,23 +2707,31 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>MCOV-B.ST</t>
-        </is>
-      </c>
-      <c r="C69" t="n">
-        <v>127.37</v>
-      </c>
-      <c r="D69" t="n">
-        <v>108.75</v>
-      </c>
+          <t>EQT.ST</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
       <c r="E69" t="n">
-        <v>107.56</v>
+        <v>184.06</v>
       </c>
       <c r="F69" t="n">
-        <v>76.40000152587891</v>
+        <v>78.05976104736328</v>
       </c>
       <c r="G69" t="n">
-        <v>145.3999938964844</v>
+        <v>287.1000061035156</v>
+      </c>
+      <c r="H69" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I69" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J69" t="n">
+        <v>219.15</v>
+      </c>
+      <c r="K69" t="n">
+        <v>194.76</v>
       </c>
     </row>
     <row r="70">
@@ -2172,23 +2740,31 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>MIPS.ST</t>
-        </is>
-      </c>
-      <c r="C70" t="n">
-        <v>386.55</v>
-      </c>
-      <c r="D70" t="n">
-        <v>334.17</v>
-      </c>
+          <t>ERIC-A.ST</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
       <c r="E70" t="n">
-        <v>306.34</v>
+        <v>104.44</v>
       </c>
       <c r="F70" t="n">
-        <v>142.1559448242188</v>
+        <v>64.63455200195312</v>
       </c>
       <c r="G70" t="n">
-        <v>461</v>
+        <v>126.5999984741211</v>
+      </c>
+      <c r="H70" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I70" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J70" t="n">
+        <v>111.8</v>
+      </c>
+      <c r="K70" t="n">
+        <v>108.61</v>
       </c>
     </row>
     <row r="71">
@@ -2197,23 +2773,31 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>MTG-A.ST</t>
-        </is>
-      </c>
-      <c r="C71" t="n">
-        <v>125.8</v>
-      </c>
-      <c r="D71" t="n">
-        <v>115.41</v>
-      </c>
+          <t>ERIC-B.ST</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
       <c r="E71" t="n">
-        <v>110.09</v>
+        <v>96.15000000000001</v>
       </c>
       <c r="F71" t="n">
-        <v>72</v>
+        <v>59.95473861694336</v>
       </c>
       <c r="G71" t="n">
-        <v>144</v>
+        <v>113.6999969482422</v>
+      </c>
+      <c r="H71" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I71" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J71" t="n">
+        <v>102.54</v>
+      </c>
+      <c r="K71" t="n">
+        <v>100.09</v>
       </c>
     </row>
     <row r="72">
@@ -2222,23 +2806,31 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>MTG-B.ST</t>
-        </is>
-      </c>
-      <c r="C72" t="n">
-        <v>122.54</v>
-      </c>
-      <c r="D72" t="n">
-        <v>111.56</v>
-      </c>
+          <t>ETX.ST</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
       <c r="E72" t="n">
-        <v>105.63</v>
+        <v>1.94</v>
       </c>
       <c r="F72" t="n">
-        <v>61.34000015258789</v>
+        <v>1.016000032424927</v>
       </c>
       <c r="G72" t="n">
-        <v>140.1000061035156</v>
+        <v>3.835000038146973</v>
+      </c>
+      <c r="H72" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I72" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J72" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K72" t="n">
+        <v>2.09</v>
       </c>
     </row>
     <row r="73">
@@ -2247,23 +2839,31 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>MTRS.ST</t>
-        </is>
-      </c>
-      <c r="C73" t="n">
-        <v>67.26000000000001</v>
-      </c>
-      <c r="D73" t="n">
-        <v>55.81</v>
-      </c>
+          <t>EVO.ST</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
       <c r="E73" t="n">
-        <v>52.07</v>
+        <v>663.61</v>
       </c>
       <c r="F73" t="n">
-        <v>23.55999946594238</v>
+        <v>278.032958984375</v>
       </c>
       <c r="G73" t="n">
-        <v>73.30000305175781</v>
+        <v>1023</v>
+      </c>
+      <c r="H73" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I73" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J73" t="n">
+        <v>820.7</v>
+      </c>
+      <c r="K73" t="n">
+        <v>701.85</v>
       </c>
     </row>
     <row r="74">
@@ -2272,23 +2872,31 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>MYCR.ST</t>
-        </is>
-      </c>
-      <c r="C74" t="n">
-        <v>198.85</v>
-      </c>
-      <c r="D74" t="n">
-        <v>174.81</v>
-      </c>
+          <t>EWRK.ST</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
       <c r="E74" t="n">
-        <v>167.1</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="F74" t="n">
-        <v>99.02346038818359</v>
+        <v>48.79385375976562</v>
       </c>
       <c r="G74" t="n">
-        <v>215.8000030517578</v>
+        <v>93</v>
+      </c>
+      <c r="H74" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I74" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J74" t="n">
+        <v>80.98999999999999</v>
+      </c>
+      <c r="K74" t="n">
+        <v>73.84</v>
       </c>
     </row>
     <row r="75">
@@ -2297,23 +2905,31 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>NENT-A.ST</t>
-        </is>
-      </c>
-      <c r="C75" t="n">
-        <v>357.86</v>
-      </c>
-      <c r="D75" t="n">
-        <v>316.02</v>
-      </c>
+          <t>FAG.ST</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
       <c r="E75" t="n">
-        <v>304.79</v>
+        <v>41.13</v>
       </c>
       <c r="F75" t="n">
-        <v>180</v>
+        <v>30.35000038146973</v>
       </c>
       <c r="G75" t="n">
-        <v>382</v>
+        <v>59.5</v>
+      </c>
+      <c r="H75" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I75" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J75" t="n">
+        <v>46.73</v>
+      </c>
+      <c r="K75" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="76">
@@ -2322,23 +2938,31 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>NENT-B.ST</t>
-        </is>
-      </c>
-      <c r="C76" t="n">
-        <v>358.66</v>
-      </c>
-      <c r="D76" t="n">
-        <v>315.76</v>
-      </c>
+          <t>FNM.ST</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
       <c r="E76" t="n">
-        <v>305.08</v>
+        <v>138.84</v>
       </c>
       <c r="F76" t="n">
-        <v>183.6000061035156</v>
+        <v>74.38072204589844</v>
       </c>
       <c r="G76" t="n">
-        <v>382.3999938964844</v>
+        <v>178.8000030517578</v>
+      </c>
+      <c r="H76" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I76" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J76" t="n">
+        <v>164.95</v>
+      </c>
+      <c r="K76" t="n">
+        <v>150.69</v>
       </c>
     </row>
     <row r="77">
@@ -2347,23 +2971,31 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>NET-B.ST</t>
-        </is>
-      </c>
-      <c r="C77" t="n">
-        <v>83.29000000000001</v>
-      </c>
-      <c r="D77" t="n">
-        <v>66.38</v>
-      </c>
+          <t>FOI-B.ST</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
       <c r="E77" t="n">
-        <v>55.79</v>
+        <v>953.8</v>
       </c>
       <c r="F77" t="n">
-        <v>15.80000019073486</v>
+        <v>507</v>
       </c>
       <c r="G77" t="n">
-        <v>98.5</v>
+        <v>1214</v>
+      </c>
+      <c r="H77" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I77" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1069.62</v>
+      </c>
+      <c r="K77" t="n">
+        <v>1001.59</v>
       </c>
     </row>
     <row r="78">
@@ -2372,23 +3004,31 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>NIBE-B.ST</t>
-        </is>
-      </c>
-      <c r="C78" t="n">
-        <v>228.88</v>
-      </c>
-      <c r="D78" t="n">
-        <v>211.71</v>
-      </c>
+          <t>FPIP.ST</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
       <c r="E78" t="n">
-        <v>198</v>
+        <v>27.01</v>
       </c>
       <c r="F78" t="n">
-        <v>117.6999969482422</v>
+        <v>14.60380935668945</v>
       </c>
       <c r="G78" t="n">
-        <v>254.5</v>
+        <v>31.39999961853027</v>
+      </c>
+      <c r="H78" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I78" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J78" t="n">
+        <v>29.02</v>
+      </c>
+      <c r="K78" t="n">
+        <v>28.18</v>
       </c>
     </row>
     <row r="79">
@@ -2397,23 +3037,31 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>NWG.ST</t>
-        </is>
-      </c>
-      <c r="C79" t="n">
-        <v>125.32</v>
-      </c>
-      <c r="D79" t="n">
-        <v>108.57</v>
-      </c>
+          <t>G5EN.ST</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
       <c r="E79" t="n">
-        <v>104.2</v>
+        <v>317.19</v>
       </c>
       <c r="F79" t="n">
-        <v>60</v>
+        <v>69.86784362792969</v>
       </c>
       <c r="G79" t="n">
-        <v>140.1999969482422</v>
+        <v>568</v>
+      </c>
+      <c r="H79" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I79" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J79" t="n">
+        <v>407.18</v>
+      </c>
+      <c r="K79" t="n">
+        <v>364.21</v>
       </c>
     </row>
     <row r="80">
@@ -2422,23 +3070,31 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>ODD.ST</t>
-        </is>
-      </c>
-      <c r="C80" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="D80" t="n">
-        <v>7.81</v>
-      </c>
+          <t>GARO.ST</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
       <c r="E80" t="n">
-        <v>7.01</v>
+        <v>475.71</v>
       </c>
       <c r="F80" t="n">
-        <v>2.220000028610229</v>
+        <v>206</v>
       </c>
       <c r="G80" t="n">
-        <v>19.29999923706055</v>
+        <v>698</v>
+      </c>
+      <c r="H80" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I80" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J80" t="n">
+        <v>635.02</v>
+      </c>
+      <c r="K80" t="n">
+        <v>528.05</v>
       </c>
     </row>
     <row r="81">
@@ -2447,23 +3103,31 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>OEM-B.ST</t>
-        </is>
-      </c>
-      <c r="C81" t="n">
-        <v>278.44</v>
-      </c>
-      <c r="D81" t="n">
-        <v>240.84</v>
-      </c>
+          <t>GETI-B.ST</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
       <c r="E81" t="n">
-        <v>236.31</v>
+        <v>188.79</v>
       </c>
       <c r="F81" t="n">
-        <v>171.3489990234375</v>
+        <v>142.9737243652344</v>
       </c>
       <c r="G81" t="n">
-        <v>319</v>
+        <v>227.6000061035156</v>
+      </c>
+      <c r="H81" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I81" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J81" t="n">
+        <v>196.06</v>
+      </c>
+      <c r="K81" t="n">
+        <v>193.3</v>
       </c>
     </row>
     <row r="82">
@@ -2472,23 +3136,31 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>ONCO.ST</t>
-        </is>
-      </c>
-      <c r="C82" t="n">
-        <v>143.59</v>
-      </c>
-      <c r="D82" t="n">
-        <v>131.41</v>
-      </c>
+          <t>GPG-PREF.ST</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr"/>
       <c r="E82" t="n">
-        <v>127.86</v>
+        <v>123.88</v>
       </c>
       <c r="F82" t="n">
-        <v>79.05000305175781</v>
+        <v>89.17410278320312</v>
       </c>
       <c r="G82" t="n">
-        <v>173.8000030517578</v>
+        <v>130.5</v>
+      </c>
+      <c r="H82" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I82" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J82" t="n">
+        <v>129.23</v>
+      </c>
+      <c r="K82" t="n">
+        <v>127.64</v>
       </c>
     </row>
     <row r="83">
@@ -2497,23 +3169,31 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>ORTI-B.ST</t>
-        </is>
-      </c>
-      <c r="C83" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="D83" t="n">
-        <v>4.88</v>
-      </c>
+          <t>GREEN.ST</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
       <c r="E83" t="n">
-        <v>4.58</v>
+        <v>31.9</v>
       </c>
       <c r="F83" t="n">
-        <v>2.809999942779541</v>
+        <v>20.7767276763916</v>
       </c>
       <c r="G83" t="n">
-        <v>6.869999885559082</v>
+        <v>46</v>
+      </c>
+      <c r="H83" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I83" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J83" t="n">
+        <v>40.86</v>
+      </c>
+      <c r="K83" t="n">
+        <v>34.51</v>
       </c>
     </row>
     <row r="84">
@@ -2522,23 +3202,31 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>PACT.ST</t>
-        </is>
-      </c>
-      <c r="C84" t="n">
-        <v>210.49</v>
-      </c>
-      <c r="D84" t="n">
-        <v>176.91</v>
-      </c>
+          <t>GRNG.ST</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr"/>
       <c r="E84" t="n">
-        <v>164.96</v>
+        <v>83.59</v>
       </c>
       <c r="F84" t="n">
-        <v>83.55428314208984</v>
+        <v>44.75674057006836</v>
       </c>
       <c r="G84" t="n">
-        <v>231.5</v>
+        <v>108.9000015258789</v>
+      </c>
+      <c r="H84" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I84" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J84" t="n">
+        <v>98.84999999999999</v>
+      </c>
+      <c r="K84" t="n">
+        <v>87.52</v>
       </c>
     </row>
     <row r="85">
@@ -2547,23 +3235,31 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>PRIC-B.ST</t>
-        </is>
-      </c>
-      <c r="C85" t="n">
-        <v>25.78</v>
-      </c>
-      <c r="D85" t="n">
-        <v>23.01</v>
-      </c>
+          <t>HANDI.ST</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr"/>
       <c r="E85" t="n">
-        <v>22.22</v>
+        <v>35.71</v>
       </c>
       <c r="F85" t="n">
-        <v>12.59269142150879</v>
+        <v>18.51687049865723</v>
       </c>
       <c r="G85" t="n">
-        <v>28.68576431274414</v>
+        <v>49.09999847412109</v>
+      </c>
+      <c r="H85" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I85" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J85" t="n">
+        <v>42.49</v>
+      </c>
+      <c r="K85" t="n">
+        <v>38.61</v>
       </c>
     </row>
     <row r="86">
@@ -2572,23 +3268,31 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>PROB.ST</t>
-        </is>
-      </c>
-      <c r="C86" t="n">
-        <v>361.36</v>
-      </c>
-      <c r="D86" t="n">
-        <v>310.63</v>
-      </c>
+          <t>HAV-B.ST</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr"/>
       <c r="E86" t="n">
-        <v>282.01</v>
+        <v>18.36</v>
       </c>
       <c r="F86" t="n">
-        <v>139.8450469970703</v>
+        <v>12.59088802337646</v>
       </c>
       <c r="G86" t="n">
-        <v>419.5</v>
+        <v>24.79999923706055</v>
+      </c>
+      <c r="H86" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I86" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J86" t="n">
+        <v>21.61</v>
+      </c>
+      <c r="K86" t="n">
+        <v>19.31</v>
       </c>
     </row>
     <row r="87">
@@ -2597,23 +3301,31 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>QLINEA.ST</t>
-        </is>
-      </c>
-      <c r="C87" t="n">
-        <v>145.84</v>
-      </c>
-      <c r="D87" t="n">
-        <v>102.92</v>
-      </c>
+          <t>HLDX.ST</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr"/>
       <c r="E87" t="n">
-        <v>92.06999999999999</v>
+        <v>40.53</v>
       </c>
       <c r="F87" t="n">
-        <v>41</v>
+        <v>20.64999961853027</v>
       </c>
       <c r="G87" t="n">
-        <v>166</v>
+        <v>56</v>
+      </c>
+      <c r="H87" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I87" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J87" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="K87" t="n">
+        <v>41.47</v>
       </c>
     </row>
     <row r="88">
@@ -2622,23 +3334,31 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>RATO-A.ST</t>
-        </is>
-      </c>
-      <c r="C88" t="n">
-        <v>32.74</v>
-      </c>
-      <c r="D88" t="n">
-        <v>29</v>
-      </c>
+          <t>HM-B.ST</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr"/>
       <c r="E88" t="n">
-        <v>28.78</v>
+        <v>154.8</v>
       </c>
       <c r="F88" t="n">
-        <v>18.05433464050293</v>
+        <v>105.879997253418</v>
       </c>
       <c r="G88" t="n">
-        <v>36.10866928100586</v>
+        <v>211.6499938964844</v>
+      </c>
+      <c r="H88" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I88" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J88" t="n">
+        <v>180.11</v>
+      </c>
+      <c r="K88" t="n">
+        <v>159.95</v>
       </c>
     </row>
     <row r="89">
@@ -2647,23 +3367,31 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>RATO-B.ST</t>
-        </is>
-      </c>
-      <c r="C89" t="n">
-        <v>32.84</v>
-      </c>
-      <c r="D89" t="n">
-        <v>28.28</v>
-      </c>
+          <t>HMS.ST</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr"/>
       <c r="E89" t="n">
-        <v>27.91</v>
+        <v>212.23</v>
       </c>
       <c r="F89" t="n">
-        <v>15.63334846496582</v>
+        <v>97.75838470458984</v>
       </c>
       <c r="G89" t="n">
-        <v>36.19975280761719</v>
+        <v>314.5</v>
+      </c>
+      <c r="H89" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I89" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J89" t="n">
+        <v>268.23</v>
+      </c>
+      <c r="K89" t="n">
+        <v>225.3</v>
       </c>
     </row>
     <row r="90">
@@ -2672,23 +3400,31 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>SAGA-B.ST</t>
-        </is>
-      </c>
-      <c r="C90" t="n">
-        <v>153.15</v>
-      </c>
-      <c r="D90" t="n">
-        <v>132.15</v>
-      </c>
+          <t>HPOL-B.ST</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr"/>
       <c r="E90" t="n">
-        <v>131.58</v>
+        <v>76.14</v>
       </c>
       <c r="F90" t="n">
-        <v>79.39381408691406</v>
+        <v>40.89256286621094</v>
       </c>
       <c r="G90" t="n">
-        <v>163.1999969482422</v>
+        <v>96.90000152587891</v>
+      </c>
+      <c r="H90" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I90" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J90" t="n">
+        <v>89.73999999999999</v>
+      </c>
+      <c r="K90" t="n">
+        <v>79</v>
       </c>
     </row>
     <row r="91">
@@ -2697,23 +3433,31 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>SBB-B.ST</t>
-        </is>
-      </c>
-      <c r="C91" t="n">
-        <v>26.28</v>
-      </c>
-      <c r="D91" t="n">
-        <v>23</v>
-      </c>
+          <t>HUM.ST</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr"/>
       <c r="E91" t="n">
-        <v>22.99</v>
+        <v>53.66</v>
       </c>
       <c r="F91" t="n">
-        <v>13.37869167327881</v>
+        <v>35.09999847412109</v>
       </c>
       <c r="G91" t="n">
-        <v>31.2729377746582</v>
+        <v>65</v>
+      </c>
+      <c r="H91" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I91" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J91" t="n">
+        <v>59.51</v>
+      </c>
+      <c r="K91" t="n">
+        <v>56.67</v>
       </c>
     </row>
     <row r="92">
@@ -2722,23 +3466,31 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>SCA-A.ST</t>
-        </is>
-      </c>
-      <c r="C92" t="n">
-        <v>125.56</v>
-      </c>
-      <c r="D92" t="n">
-        <v>114.97</v>
-      </c>
+          <t>INDT.ST</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr"/>
       <c r="E92" t="n">
-        <v>109.83</v>
+        <v>149.81</v>
       </c>
       <c r="F92" t="n">
-        <v>78.302001953125</v>
+        <v>74.66666412353516</v>
       </c>
       <c r="G92" t="n">
-        <v>136</v>
+        <v>190.1999969482422</v>
+      </c>
+      <c r="H92" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I92" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J92" t="n">
+        <v>173.18</v>
+      </c>
+      <c r="K92" t="n">
+        <v>160.31</v>
       </c>
     </row>
     <row r="93">
@@ -2747,23 +3499,31 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>SCA-B.ST</t>
-        </is>
-      </c>
-      <c r="C93" t="n">
-        <v>120.13</v>
-      </c>
-      <c r="D93" t="n">
-        <v>112.3</v>
-      </c>
+          <t>INDU-A.ST</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="inlineStr"/>
       <c r="E93" t="n">
-        <v>107.82</v>
+        <v>241.66</v>
       </c>
       <c r="F93" t="n">
-        <v>77.87999725341797</v>
+        <v>169</v>
       </c>
       <c r="G93" t="n">
-        <v>129.3999938964844</v>
+        <v>294.7999877929688</v>
+      </c>
+      <c r="H93" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I93" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J93" t="n">
+        <v>280.1</v>
+      </c>
+      <c r="K93" t="n">
+        <v>252.82</v>
       </c>
     </row>
     <row r="94">
@@ -2772,23 +3532,31 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>SINCH.ST</t>
-        </is>
-      </c>
-      <c r="C94" t="n">
-        <v>826.78</v>
-      </c>
-      <c r="D94" t="n">
-        <v>710.41</v>
-      </c>
+          <t>INDU-C.ST</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr"/>
       <c r="E94" t="n">
-        <v>624.5</v>
+        <v>236.4</v>
       </c>
       <c r="F94" t="n">
-        <v>160.3999938964844</v>
+        <v>164.0168151855469</v>
       </c>
       <c r="G94" t="n">
-        <v>982</v>
+        <v>279.8999938964844</v>
+      </c>
+      <c r="H94" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I94" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J94" t="n">
+        <v>269.08</v>
+      </c>
+      <c r="K94" t="n">
+        <v>246.18</v>
       </c>
     </row>
     <row r="95">
@@ -2797,23 +3565,31 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>SKF-A.ST</t>
-        </is>
-      </c>
-      <c r="C95" t="n">
-        <v>186.97</v>
-      </c>
-      <c r="D95" t="n">
-        <v>172.26</v>
-      </c>
+          <t>INSTAL.ST</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr"/>
       <c r="E95" t="n">
-        <v>169.3</v>
+        <v>192.43</v>
       </c>
       <c r="F95" t="n">
-        <v>113.2789611816406</v>
+        <v>79.56692504882812</v>
       </c>
       <c r="G95" t="n">
-        <v>196.5</v>
+        <v>288.5</v>
+      </c>
+      <c r="H95" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I95" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J95" t="n">
+        <v>253.95</v>
+      </c>
+      <c r="K95" t="n">
+        <v>209.55</v>
       </c>
     </row>
     <row r="96">
@@ -2822,23 +3598,31 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>SKF-B.ST</t>
-        </is>
-      </c>
-      <c r="C96" t="n">
-        <v>187.16</v>
-      </c>
-      <c r="D96" t="n">
-        <v>172.31</v>
-      </c>
+          <t>INTRUM.ST</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr"/>
+      <c r="D96" t="inlineStr"/>
       <c r="E96" t="n">
-        <v>169.37</v>
+        <v>208.38</v>
       </c>
       <c r="F96" t="n">
-        <v>113.007194519043</v>
+        <v>90.4267578125</v>
       </c>
       <c r="G96" t="n">
-        <v>196.661865234375</v>
+        <v>268.87109375</v>
+      </c>
+      <c r="H96" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I96" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J96" t="n">
+        <v>226.49</v>
+      </c>
+      <c r="K96" t="n">
+        <v>226.21</v>
       </c>
     </row>
     <row r="97">
@@ -2847,23 +3631,31 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>SOF-B.ST</t>
-        </is>
-      </c>
-      <c r="C97" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="D97" t="n">
-        <v>16.41</v>
-      </c>
+          <t>INVE-A.ST</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr"/>
+      <c r="D97" t="inlineStr"/>
       <c r="E97" t="n">
-        <v>16.38</v>
+        <v>545.13</v>
       </c>
       <c r="F97" t="n">
-        <v>11.69999980926514</v>
+        <v>365.8883361816406</v>
       </c>
       <c r="G97" t="n">
-        <v>20.54999923706055</v>
+        <v>644.5</v>
+      </c>
+      <c r="H97" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I97" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J97" t="n">
+        <v>608</v>
+      </c>
+      <c r="K97" t="n">
+        <v>568.3</v>
       </c>
     </row>
     <row r="98">
@@ -2872,23 +3664,31 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>SVED-B.ST</t>
-        </is>
-      </c>
-      <c r="C98" t="n">
-        <v>25.57</v>
-      </c>
-      <c r="D98" t="n">
-        <v>23.22</v>
-      </c>
+          <t>INVE-B.ST</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="inlineStr"/>
       <c r="E98" t="n">
-        <v>22.9</v>
+        <v>551.77</v>
       </c>
       <c r="F98" t="n">
-        <v>16.60000038146973</v>
+        <v>376.4981079101562</v>
       </c>
       <c r="G98" t="n">
-        <v>27.89999961853027</v>
+        <v>648.2000122070312</v>
+      </c>
+      <c r="H98" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I98" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J98" t="n">
+        <v>610.35</v>
+      </c>
+      <c r="K98" t="n">
+        <v>574.1799999999999</v>
       </c>
     </row>
     <row r="99">
@@ -2897,23 +3697,31 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>SVIK.ST</t>
-        </is>
-      </c>
-      <c r="C99" t="n">
-        <v>56.91</v>
-      </c>
-      <c r="D99" t="n">
-        <v>43.69</v>
-      </c>
+          <t>INWI.ST</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr"/>
       <c r="E99" t="n">
-        <v>40.2</v>
+        <v>89.70999999999999</v>
       </c>
       <c r="F99" t="n">
-        <v>22.70000076293945</v>
+        <v>42.65250015258789</v>
       </c>
       <c r="G99" t="n">
-        <v>62.20000076293945</v>
+        <v>129.1000061035156</v>
+      </c>
+      <c r="H99" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I99" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J99" t="n">
+        <v>118.74</v>
+      </c>
+      <c r="K99" t="n">
+        <v>99.77</v>
       </c>
     </row>
     <row r="100">
@@ -2922,23 +3730,31 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>SVOL-B.ST</t>
-        </is>
-      </c>
-      <c r="C100" t="n">
-        <v>157.19</v>
-      </c>
-      <c r="D100" t="n">
-        <v>128.01</v>
-      </c>
+          <t>ITAB-B.ST</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="inlineStr"/>
       <c r="E100" t="n">
-        <v>126.43</v>
+        <v>14.02</v>
       </c>
       <c r="F100" t="n">
-        <v>80.19999694824219</v>
+        <v>7.409999847412109</v>
       </c>
       <c r="G100" t="n">
-        <v>173.3999938964844</v>
+        <v>27.64999961853027</v>
+      </c>
+      <c r="H100" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I100" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J100" t="n">
+        <v>17.93</v>
+      </c>
+      <c r="K100" t="n">
+        <v>14.95</v>
       </c>
     </row>
     <row r="101">
@@ -2947,23 +3763,31 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>SWED-A.ST</t>
-        </is>
-      </c>
-      <c r="C101" t="n">
-        <v>145.22</v>
-      </c>
-      <c r="D101" t="n">
-        <v>132</v>
-      </c>
+          <t>JM.ST</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr"/>
       <c r="E101" t="n">
-        <v>131.24</v>
+        <v>250.65</v>
       </c>
       <c r="F101" t="n">
-        <v>101.1800003051758</v>
+        <v>148.3885040283203</v>
       </c>
       <c r="G101" t="n">
-        <v>151.6799926757812</v>
+        <v>310</v>
+      </c>
+      <c r="H101" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I101" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J101" t="n">
+        <v>289.51</v>
+      </c>
+      <c r="K101" t="n">
+        <v>271.86</v>
       </c>
     </row>
     <row r="102">
@@ -2972,23 +3796,31 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>SYSR.ST</t>
-        </is>
-      </c>
-      <c r="C102" t="n">
-        <v>239.38</v>
-      </c>
-      <c r="D102" t="n">
-        <v>186.97</v>
-      </c>
+          <t>K2A-B.ST</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr"/>
+      <c r="D102" t="inlineStr"/>
       <c r="E102" t="n">
-        <v>177.51</v>
+        <v>171.3</v>
       </c>
       <c r="F102" t="n">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G102" t="n">
-        <v>271</v>
+        <v>215</v>
+      </c>
+      <c r="H102" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I102" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J102" t="n">
+        <v>199.84</v>
+      </c>
+      <c r="K102" t="n">
+        <v>176.39</v>
       </c>
     </row>
     <row r="103">
@@ -2997,23 +3829,31 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>THULE.ST</t>
-        </is>
-      </c>
-      <c r="C103" t="n">
-        <v>284</v>
-      </c>
-      <c r="D103" t="n">
-        <v>239.79</v>
-      </c>
+          <t>K2A-PREF.ST</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr"/>
+      <c r="D103" t="inlineStr"/>
       <c r="E103" t="n">
-        <v>228.44</v>
+        <v>315.35</v>
       </c>
       <c r="F103" t="n">
-        <v>136.0656280517578</v>
+        <v>232.9581298828125</v>
       </c>
       <c r="G103" t="n">
-        <v>312.6000061035156</v>
+        <v>339.8897399902344</v>
+      </c>
+      <c r="H103" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I103" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J103" t="n">
+        <v>328.66</v>
+      </c>
+      <c r="K103" t="n">
+        <v>322.79</v>
       </c>
     </row>
     <row r="104">
@@ -3022,23 +3862,31 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>TRENT.ST</t>
-        </is>
-      </c>
-      <c r="C104" t="n">
-        <v>66.89</v>
-      </c>
-      <c r="D104" t="n">
-        <v>60.94</v>
-      </c>
+          <t>KIND-SDB.ST</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr"/>
+      <c r="D104" t="inlineStr"/>
       <c r="E104" t="n">
-        <v>58.59</v>
+        <v>68.04000000000001</v>
       </c>
       <c r="F104" t="n">
-        <v>45.70000076293945</v>
+        <v>22.13495826721191</v>
       </c>
       <c r="G104" t="n">
-        <v>77</v>
+        <v>131.6499938964844</v>
+      </c>
+      <c r="H104" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I104" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J104" t="n">
+        <v>91.81999999999999</v>
+      </c>
+      <c r="K104" t="n">
+        <v>74.06999999999999</v>
       </c>
     </row>
     <row r="105">
@@ -3047,23 +3895,31 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>VIT-B.ST</t>
-        </is>
-      </c>
-      <c r="C105" t="n">
-        <v>294.08</v>
-      </c>
-      <c r="D105" t="n">
-        <v>247.35</v>
-      </c>
+          <t>KINV-A.ST</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr"/>
+      <c r="D105" t="inlineStr"/>
       <c r="E105" t="n">
-        <v>232.43</v>
+        <v>332.57</v>
       </c>
       <c r="F105" t="n">
-        <v>129.6465148925781</v>
+        <v>135.9549102783203</v>
       </c>
       <c r="G105" t="n">
-        <v>325.5</v>
+        <v>467.5</v>
+      </c>
+      <c r="H105" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I105" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J105" t="n">
+        <v>424.76</v>
+      </c>
+      <c r="K105" t="n">
+        <v>368.74</v>
       </c>
     </row>
     <row r="106">
@@ -3072,23 +3928,31 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>VNE-SDB.ST</t>
-        </is>
-      </c>
-      <c r="C106" t="n">
-        <v>137.37</v>
-      </c>
-      <c r="D106" t="n">
-        <v>110.06</v>
-      </c>
+          <t>KINV-B.ST</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr"/>
+      <c r="D106" t="inlineStr"/>
       <c r="E106" t="n">
-        <v>109.77</v>
+        <v>330.68</v>
       </c>
       <c r="F106" t="n">
-        <v>57.63999938964844</v>
+        <v>135.54638671875</v>
       </c>
       <c r="G106" t="n">
-        <v>173.3000030517578</v>
+        <v>440.25</v>
+      </c>
+      <c r="H106" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I106" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J106" t="n">
+        <v>416.16</v>
+      </c>
+      <c r="K106" t="n">
+        <v>365.89</v>
       </c>
     </row>
     <row r="107">
@@ -3097,23 +3961,31 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>VOLO.ST</t>
-        </is>
-      </c>
-      <c r="C107" t="n">
-        <v>68.75</v>
-      </c>
-      <c r="D107" t="n">
-        <v>52.34</v>
-      </c>
+          <t>KLED.ST</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr"/>
+      <c r="D107" t="inlineStr"/>
       <c r="E107" t="n">
-        <v>49.01</v>
+        <v>76.67</v>
       </c>
       <c r="F107" t="n">
-        <v>28.79999923706055</v>
+        <v>56.48639678955078</v>
       </c>
       <c r="G107" t="n">
-        <v>81.09999847412109</v>
+        <v>106.1660690307617</v>
+      </c>
+      <c r="H107" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I107" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J107" t="n">
+        <v>88.42</v>
+      </c>
+      <c r="K107" t="n">
+        <v>79.83</v>
       </c>
     </row>
     <row r="108">
@@ -3122,23 +3994,31 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>VOLV-A.ST</t>
-        </is>
-      </c>
-      <c r="C108" t="n">
-        <v>176.11</v>
-      </c>
-      <c r="D108" t="n">
-        <v>153.4</v>
-      </c>
+          <t>KLOV-PREF.ST</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr"/>
+      <c r="D108" t="inlineStr"/>
       <c r="E108" t="n">
-        <v>149.73</v>
+        <v>311.58</v>
       </c>
       <c r="F108" t="n">
-        <v>94.69905090332031</v>
+        <v>215.7927398681641</v>
       </c>
       <c r="G108" t="n">
-        <v>190.3999938964844</v>
+        <v>358.8727111816406</v>
+      </c>
+      <c r="H108" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I108" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J108" t="n">
+        <v>318.2</v>
+      </c>
+      <c r="K108" t="n">
+        <v>318.15</v>
       </c>
     </row>
     <row r="109">
@@ -3147,23 +4027,31 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>VOLV-B.ST</t>
-        </is>
-      </c>
-      <c r="C109" t="n">
-        <v>175.25</v>
-      </c>
-      <c r="D109" t="n">
-        <v>153.29</v>
-      </c>
+          <t>LAGR-B.ST</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr"/>
+      <c r="D109" t="inlineStr"/>
       <c r="E109" t="n">
-        <v>149.61</v>
+        <v>60.16</v>
       </c>
       <c r="F109" t="n">
-        <v>93.20916748046875</v>
+        <v>30.69268035888672</v>
       </c>
       <c r="G109" t="n">
-        <v>190.0500030517578</v>
+        <v>78.84999847412109</v>
+      </c>
+      <c r="H109" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I109" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J109" t="n">
+        <v>72.91</v>
+      </c>
+      <c r="K109" t="n">
+        <v>65.16</v>
       </c>
     </row>
     <row r="110">
@@ -3172,23 +4060,31 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>XANO-B.ST</t>
-        </is>
-      </c>
-      <c r="C110" t="n">
-        <v>110.47</v>
-      </c>
-      <c r="D110" t="n">
-        <v>100.37</v>
-      </c>
+          <t>LIAB.ST</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr"/>
+      <c r="D110" t="inlineStr"/>
       <c r="E110" t="n">
-        <v>98.31999999999999</v>
+        <v>139.09</v>
       </c>
       <c r="F110" t="n">
-        <v>70</v>
+        <v>64.08100891113281</v>
       </c>
       <c r="G110" t="n">
-        <v>130</v>
+        <v>196</v>
+      </c>
+      <c r="H110" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I110" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J110" t="n">
+        <v>171.52</v>
+      </c>
+      <c r="K110" t="n">
+        <v>153.22</v>
       </c>
     </row>
     <row r="111">
@@ -3197,23 +4093,2209 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>XVIVO.ST</t>
-        </is>
-      </c>
-      <c r="C111" t="n">
-        <v>234.37</v>
-      </c>
-      <c r="D111" t="n">
-        <v>186.3</v>
-      </c>
+          <t>LIFCO-B.ST</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr"/>
+      <c r="D111" t="inlineStr"/>
       <c r="E111" t="n">
-        <v>175.37</v>
+        <v>663.98</v>
       </c>
       <c r="F111" t="n">
-        <v>72.80000305175781</v>
+        <v>303.4897155761719</v>
       </c>
       <c r="G111" t="n">
-        <v>271.5</v>
+        <v>833.5</v>
+      </c>
+      <c r="H111" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I111" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J111" t="n">
+        <v>773.45</v>
+      </c>
+      <c r="K111" t="n">
+        <v>704.89</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>LIME.ST</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr"/>
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="n">
+        <v>304.96</v>
+      </c>
+      <c r="F112" t="n">
+        <v>122.2515182495117</v>
+      </c>
+      <c r="G112" t="n">
+        <v>410.5</v>
+      </c>
+      <c r="H112" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I112" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J112" t="n">
+        <v>363.32</v>
+      </c>
+      <c r="K112" t="n">
+        <v>334.39</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>LUMI.ST</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr"/>
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="n">
+        <v>56.59</v>
+      </c>
+      <c r="F113" t="n">
+        <v>30.03278541564941</v>
+      </c>
+      <c r="G113" t="n">
+        <v>85.69999694824219</v>
+      </c>
+      <c r="H113" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I113" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J113" t="n">
+        <v>72.77</v>
+      </c>
+      <c r="K113" t="n">
+        <v>60.03</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>MAG.ST</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr"/>
+      <c r="D114" t="inlineStr"/>
+      <c r="E114" t="n">
+        <v>51.95</v>
+      </c>
+      <c r="F114" t="n">
+        <v>27.09677505493164</v>
+      </c>
+      <c r="G114" t="n">
+        <v>65.80000305175781</v>
+      </c>
+      <c r="H114" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I114" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J114" t="n">
+        <v>58.69</v>
+      </c>
+      <c r="K114" t="n">
+        <v>55.79</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>MCOV-B.ST</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr"/>
+      <c r="D115" t="inlineStr"/>
+      <c r="E115" t="n">
+        <v>123.3</v>
+      </c>
+      <c r="F115" t="n">
+        <v>76.40000152587891</v>
+      </c>
+      <c r="G115" t="n">
+        <v>174.8000030517578</v>
+      </c>
+      <c r="H115" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I115" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J115" t="n">
+        <v>155.46</v>
+      </c>
+      <c r="K115" t="n">
+        <v>132.05</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>MEKO.ST</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr"/>
+      <c r="D116" t="inlineStr"/>
+      <c r="E116" t="n">
+        <v>82.05</v>
+      </c>
+      <c r="F116" t="n">
+        <v>36</v>
+      </c>
+      <c r="G116" t="n">
+        <v>107</v>
+      </c>
+      <c r="H116" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I116" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J116" t="n">
+        <v>95.59</v>
+      </c>
+      <c r="K116" t="n">
+        <v>89.83</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>MIPS.ST</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="n">
+        <v>384.24</v>
+      </c>
+      <c r="F117" t="n">
+        <v>179.5237884521484</v>
+      </c>
+      <c r="G117" t="n">
+        <v>616</v>
+      </c>
+      <c r="H117" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I117" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J117" t="n">
+        <v>491.92</v>
+      </c>
+      <c r="K117" t="n">
+        <v>415.06</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>MMGR-B.ST</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="n">
+        <v>129.07</v>
+      </c>
+      <c r="F118" t="n">
+        <v>56.29999923706055</v>
+      </c>
+      <c r="G118" t="n">
+        <v>153.1999969482422</v>
+      </c>
+      <c r="H118" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I118" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J118" t="n">
+        <v>138.13</v>
+      </c>
+      <c r="K118" t="n">
+        <v>137.98</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>MSON-A.ST</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr"/>
+      <c r="D119" t="inlineStr"/>
+      <c r="E119" t="n">
+        <v>65.75</v>
+      </c>
+      <c r="F119" t="n">
+        <v>35.22608947753906</v>
+      </c>
+      <c r="G119" t="n">
+        <v>90</v>
+      </c>
+      <c r="H119" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I119" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J119" t="n">
+        <v>76.90000000000001</v>
+      </c>
+      <c r="K119" t="n">
+        <v>70.22</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>MSON-B.ST</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr"/>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="n">
+        <v>65.78</v>
+      </c>
+      <c r="F120" t="n">
+        <v>33.61221313476562</v>
+      </c>
+      <c r="G120" t="n">
+        <v>85.5</v>
+      </c>
+      <c r="H120" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I120" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J120" t="n">
+        <v>76.33</v>
+      </c>
+      <c r="K120" t="n">
+        <v>70.38</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>NAXS.ST</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr"/>
+      <c r="D121" t="inlineStr"/>
+      <c r="E121" t="n">
+        <v>46.75</v>
+      </c>
+      <c r="F121" t="n">
+        <v>35.70000076293945</v>
+      </c>
+      <c r="G121" t="n">
+        <v>52.88962936401367</v>
+      </c>
+      <c r="H121" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I121" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J121" t="n">
+        <v>49.14</v>
+      </c>
+      <c r="K121" t="n">
+        <v>47.49</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>NEWA-B.ST</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr"/>
+      <c r="D122" t="inlineStr"/>
+      <c r="E122" t="n">
+        <v>43.35</v>
+      </c>
+      <c r="F122" t="n">
+        <v>21.30612182617188</v>
+      </c>
+      <c r="G122" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="H122" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I122" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J122" t="n">
+        <v>55.68</v>
+      </c>
+      <c r="K122" t="n">
+        <v>47.92</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>NIBE-B.ST</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr"/>
+      <c r="D123" t="inlineStr"/>
+      <c r="E123" t="n">
+        <v>230.67</v>
+      </c>
+      <c r="F123" t="n">
+        <v>117.0618057250977</v>
+      </c>
+      <c r="G123" t="n">
+        <v>294.7999877929688</v>
+      </c>
+      <c r="H123" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I123" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J123" t="n">
+        <v>271.65</v>
+      </c>
+      <c r="K123" t="n">
+        <v>242.32</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>NIL-B.ST</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr"/>
+      <c r="D124" t="inlineStr"/>
+      <c r="E124" t="n">
+        <v>35.64</v>
+      </c>
+      <c r="F124" t="n">
+        <v>21.79999923706055</v>
+      </c>
+      <c r="G124" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="H124" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I124" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J124" t="n">
+        <v>43.71</v>
+      </c>
+      <c r="K124" t="n">
+        <v>37.87</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>NOBINA.ST</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr"/>
+      <c r="D125" t="inlineStr"/>
+      <c r="E125" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="F125" t="n">
+        <v>41.95999908447266</v>
+      </c>
+      <c r="G125" t="n">
+        <v>78</v>
+      </c>
+      <c r="H125" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I125" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J125" t="n">
+        <v>65.93000000000001</v>
+      </c>
+      <c r="K125" t="n">
+        <v>58.79</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>NP3.ST</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr"/>
+      <c r="D126" t="inlineStr"/>
+      <c r="E126" t="n">
+        <v>101.38</v>
+      </c>
+      <c r="F126" t="n">
+        <v>57.15061950683594</v>
+      </c>
+      <c r="G126" t="n">
+        <v>129.6000061035156</v>
+      </c>
+      <c r="H126" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I126" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J126" t="n">
+        <v>118.5</v>
+      </c>
+      <c r="K126" t="n">
+        <v>108.41</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>NTEK-B.ST</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr"/>
+      <c r="D127" t="inlineStr"/>
+      <c r="E127" t="n">
+        <v>36.92</v>
+      </c>
+      <c r="F127" t="n">
+        <v>22.02929306030273</v>
+      </c>
+      <c r="G127" t="n">
+        <v>47.90000152587891</v>
+      </c>
+      <c r="H127" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I127" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J127" t="n">
+        <v>44.17</v>
+      </c>
+      <c r="K127" t="n">
+        <v>39.51</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>ONCO.ST</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr"/>
+      <c r="D128" t="inlineStr"/>
+      <c r="E128" t="n">
+        <v>142.6</v>
+      </c>
+      <c r="F128" t="n">
+        <v>79.05000305175781</v>
+      </c>
+      <c r="G128" t="n">
+        <v>173.8000030517578</v>
+      </c>
+      <c r="H128" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I128" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J128" t="n">
+        <v>162.55</v>
+      </c>
+      <c r="K128" t="n">
+        <v>147.47</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>OP-PREF.ST</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr"/>
+      <c r="D129" t="inlineStr"/>
+      <c r="E129" t="n">
+        <v>29.07</v>
+      </c>
+      <c r="F129" t="n">
+        <v>18</v>
+      </c>
+      <c r="G129" t="n">
+        <v>94.90000152587891</v>
+      </c>
+      <c r="H129" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I129" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J129" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="K129" t="n">
+        <v>31.12</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>ORES.ST</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr"/>
+      <c r="D130" t="inlineStr"/>
+      <c r="E130" t="n">
+        <v>116.43</v>
+      </c>
+      <c r="F130" t="n">
+        <v>82.98379516601562</v>
+      </c>
+      <c r="G130" t="n">
+        <v>141.6611175537109</v>
+      </c>
+      <c r="H130" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I130" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J130" t="n">
+        <v>122.17</v>
+      </c>
+      <c r="K130" t="n">
+        <v>121.34</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>PACT.ST</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr"/>
+      <c r="D131" t="inlineStr"/>
+      <c r="E131" t="n">
+        <v>207.9</v>
+      </c>
+      <c r="F131" t="n">
+        <v>82.64411163330078</v>
+      </c>
+      <c r="G131" t="n">
+        <v>306.5</v>
+      </c>
+      <c r="H131" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I131" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J131" t="n">
+        <v>272.37</v>
+      </c>
+      <c r="K131" t="n">
+        <v>228.08</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>PEAB-B.ST</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr"/>
+      <c r="D132" t="inlineStr"/>
+      <c r="E132" t="n">
+        <v>86.15000000000001</v>
+      </c>
+      <c r="F132" t="n">
+        <v>60.20000076293945</v>
+      </c>
+      <c r="G132" t="n">
+        <v>107.1999969482422</v>
+      </c>
+      <c r="H132" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I132" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J132" t="n">
+        <v>94.27</v>
+      </c>
+      <c r="K132" t="n">
+        <v>89.8</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>POOL-B.ST</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr"/>
+      <c r="D133" t="inlineStr"/>
+      <c r="E133" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="F133" t="n">
+        <v>3.480000019073486</v>
+      </c>
+      <c r="G133" t="n">
+        <v>6.71999979019165</v>
+      </c>
+      <c r="H133" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I133" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J133" t="n">
+        <v>6.27</v>
+      </c>
+      <c r="K133" t="n">
+        <v>6.08</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>PREV-B.ST</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr"/>
+      <c r="D134" t="inlineStr"/>
+      <c r="E134" t="n">
+        <v>53.21</v>
+      </c>
+      <c r="F134" t="n">
+        <v>19.89999961853027</v>
+      </c>
+      <c r="G134" t="n">
+        <v>73.59999847412109</v>
+      </c>
+      <c r="H134" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I134" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J134" t="n">
+        <v>63.43</v>
+      </c>
+      <c r="K134" t="n">
+        <v>59.76</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>PROB.ST</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr"/>
+      <c r="D135" t="inlineStr"/>
+      <c r="E135" t="n">
+        <v>356.66</v>
+      </c>
+      <c r="F135" t="n">
+        <v>139.8450469970703</v>
+      </c>
+      <c r="G135" t="n">
+        <v>490</v>
+      </c>
+      <c r="H135" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I135" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J135" t="n">
+        <v>442.53</v>
+      </c>
+      <c r="K135" t="n">
+        <v>387.77</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>RATO-A.ST</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr"/>
+      <c r="D136" t="inlineStr"/>
+      <c r="E136" t="n">
+        <v>32.23</v>
+      </c>
+      <c r="F136" t="n">
+        <v>18.05433464050293</v>
+      </c>
+      <c r="G136" t="n">
+        <v>45.09999847412109</v>
+      </c>
+      <c r="H136" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I136" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J136" t="n">
+        <v>38.74</v>
+      </c>
+      <c r="K136" t="n">
+        <v>34.6</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>RATO-B.ST</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr"/>
+      <c r="D137" t="inlineStr"/>
+      <c r="E137" t="n">
+        <v>31.91</v>
+      </c>
+      <c r="F137" t="n">
+        <v>15.63334846496582</v>
+      </c>
+      <c r="G137" t="n">
+        <v>45.40000152587891</v>
+      </c>
+      <c r="H137" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I137" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J137" t="n">
+        <v>38.81</v>
+      </c>
+      <c r="K137" t="n">
+        <v>34.64</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>RECI-B.ST</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr"/>
+      <c r="D138" t="inlineStr"/>
+      <c r="E138" t="n">
+        <v>155.37</v>
+      </c>
+      <c r="F138" t="n">
+        <v>85.94999694824219</v>
+      </c>
+      <c r="G138" t="n">
+        <v>231.3999938964844</v>
+      </c>
+      <c r="H138" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I138" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J138" t="n">
+        <v>211.96</v>
+      </c>
+      <c r="K138" t="n">
+        <v>169.63</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>SAGA-A.ST</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr"/>
+      <c r="D139" t="inlineStr"/>
+      <c r="E139" t="n">
+        <v>145.67</v>
+      </c>
+      <c r="F139" t="n">
+        <v>86.12666320800781</v>
+      </c>
+      <c r="G139" t="n">
+        <v>178</v>
+      </c>
+      <c r="H139" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I139" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J139" t="n">
+        <v>164.01</v>
+      </c>
+      <c r="K139" t="n">
+        <v>153.17</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>SAGA-B.ST</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr"/>
+      <c r="D140" t="inlineStr"/>
+      <c r="E140" t="n">
+        <v>143.49</v>
+      </c>
+      <c r="F140" t="n">
+        <v>79.06001281738281</v>
+      </c>
+      <c r="G140" t="n">
+        <v>176.6000061035156</v>
+      </c>
+      <c r="H140" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I140" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J140" t="n">
+        <v>163.51</v>
+      </c>
+      <c r="K140" t="n">
+        <v>152.06</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>SAND.ST</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr"/>
+      <c r="D141" t="inlineStr"/>
+      <c r="E141" t="n">
+        <v>178.68</v>
+      </c>
+      <c r="F141" t="n">
+        <v>113.2865371704102</v>
+      </c>
+      <c r="G141" t="n">
+        <v>221.6000061035156</v>
+      </c>
+      <c r="H141" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I141" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J141" t="n">
+        <v>207.25</v>
+      </c>
+      <c r="K141" t="n">
+        <v>185.81</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>SCA-A.ST</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr"/>
+      <c r="D142" t="inlineStr"/>
+      <c r="E142" t="n">
+        <v>125.22</v>
+      </c>
+      <c r="F142" t="n">
+        <v>78.302001953125</v>
+      </c>
+      <c r="G142" t="n">
+        <v>155</v>
+      </c>
+      <c r="H142" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I142" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J142" t="n">
+        <v>146.89</v>
+      </c>
+      <c r="K142" t="n">
+        <v>130.21</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>SCA-B.ST</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr"/>
+      <c r="D143" t="inlineStr"/>
+      <c r="E143" t="n">
+        <v>122.52</v>
+      </c>
+      <c r="F143" t="n">
+        <v>77.87999725341797</v>
+      </c>
+      <c r="G143" t="n">
+        <v>152</v>
+      </c>
+      <c r="H143" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I143" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J143" t="n">
+        <v>144.41</v>
+      </c>
+      <c r="K143" t="n">
+        <v>126.79</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>SEB-A.ST</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr"/>
+      <c r="D144" t="inlineStr"/>
+      <c r="E144" t="n">
+        <v>84.65000000000001</v>
+      </c>
+      <c r="F144" t="n">
+        <v>55.83000183105469</v>
+      </c>
+      <c r="G144" t="n">
+        <v>94.26000213623047</v>
+      </c>
+      <c r="H144" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I144" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J144" t="n">
+        <v>89.55</v>
+      </c>
+      <c r="K144" t="n">
+        <v>86.54000000000001</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>SEB-C.ST</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr"/>
+      <c r="D145" t="inlineStr"/>
+      <c r="E145" t="n">
+        <v>88.23</v>
+      </c>
+      <c r="F145" t="n">
+        <v>67.97853088378906</v>
+      </c>
+      <c r="G145" t="n">
+        <v>102.841667175293</v>
+      </c>
+      <c r="H145" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I145" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J145" t="n">
+        <v>91.61</v>
+      </c>
+      <c r="K145" t="n">
+        <v>89.42</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>SEMC.ST</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr"/>
+      <c r="D146" t="inlineStr"/>
+      <c r="E146" t="n">
+        <v>63.72</v>
+      </c>
+      <c r="F146" t="n">
+        <v>38.60140228271484</v>
+      </c>
+      <c r="G146" t="n">
+        <v>91.5</v>
+      </c>
+      <c r="H146" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I146" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J146" t="n">
+        <v>80.03</v>
+      </c>
+      <c r="K146" t="n">
+        <v>68.12</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>SINCH.ST</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr"/>
+      <c r="D147" t="inlineStr"/>
+      <c r="E147" t="n">
+        <v>876.34</v>
+      </c>
+      <c r="F147" t="n">
+        <v>302</v>
+      </c>
+      <c r="G147" t="n">
+        <v>1396</v>
+      </c>
+      <c r="H147" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I147" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J147" t="n">
+        <v>1238.72</v>
+      </c>
+      <c r="K147" t="n">
+        <v>957.49</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>SKF-A.ST</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr"/>
+      <c r="D148" t="inlineStr"/>
+      <c r="E148" t="n">
+        <v>189.62</v>
+      </c>
+      <c r="F148" t="n">
+        <v>113.2789611816406</v>
+      </c>
+      <c r="G148" t="n">
+        <v>238</v>
+      </c>
+      <c r="H148" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I148" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J148" t="n">
+        <v>223.26</v>
+      </c>
+      <c r="K148" t="n">
+        <v>197.65</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>SKF-B.ST</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr"/>
+      <c r="D149" t="inlineStr"/>
+      <c r="E149" t="n">
+        <v>189.59</v>
+      </c>
+      <c r="F149" t="n">
+        <v>113.007194519043</v>
+      </c>
+      <c r="G149" t="n">
+        <v>238.3000030517578</v>
+      </c>
+      <c r="H149" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I149" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J149" t="n">
+        <v>222.96</v>
+      </c>
+      <c r="K149" t="n">
+        <v>197.52</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>SKIS-B.ST</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr"/>
+      <c r="D150" t="inlineStr"/>
+      <c r="E150" t="n">
+        <v>105.46</v>
+      </c>
+      <c r="F150" t="n">
+        <v>63.59999847412109</v>
+      </c>
+      <c r="G150" t="n">
+        <v>130.1999969482422</v>
+      </c>
+      <c r="H150" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I150" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J150" t="n">
+        <v>110.87</v>
+      </c>
+      <c r="K150" t="n">
+        <v>109.15</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>SOF-B.ST</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr"/>
+      <c r="D151" t="inlineStr"/>
+      <c r="E151" t="n">
+        <v>18.19</v>
+      </c>
+      <c r="F151" t="n">
+        <v>11.69999980926514</v>
+      </c>
+      <c r="G151" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="H151" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I151" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J151" t="n">
+        <v>22.15</v>
+      </c>
+      <c r="K151" t="n">
+        <v>19.55</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>SSAB-A.ST</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr"/>
+      <c r="D152" t="inlineStr"/>
+      <c r="E152" t="n">
+        <v>27.92</v>
+      </c>
+      <c r="F152" t="n">
+        <v>18.7374324798584</v>
+      </c>
+      <c r="G152" t="n">
+        <v>36.54000091552734</v>
+      </c>
+      <c r="H152" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I152" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J152" t="n">
+        <v>31.72</v>
+      </c>
+      <c r="K152" t="n">
+        <v>29.26</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>SSAB-B.ST</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr"/>
+      <c r="D153" t="inlineStr"/>
+      <c r="E153" t="n">
+        <v>26.14</v>
+      </c>
+      <c r="F153" t="n">
+        <v>18.47214317321777</v>
+      </c>
+      <c r="G153" t="n">
+        <v>33.43000030517578</v>
+      </c>
+      <c r="H153" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I153" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J153" t="n">
+        <v>28.23</v>
+      </c>
+      <c r="K153" t="n">
+        <v>27.13</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>STE-A.ST</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr"/>
+      <c r="D154" t="inlineStr"/>
+      <c r="E154" t="n">
+        <v>139.11</v>
+      </c>
+      <c r="F154" t="n">
+        <v>103.2772674560547</v>
+      </c>
+      <c r="G154" t="n">
+        <v>167.1999969482422</v>
+      </c>
+      <c r="H154" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I154" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J154" t="n">
+        <v>157.91</v>
+      </c>
+      <c r="K154" t="n">
+        <v>143.11</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>STE-R.ST</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr"/>
+      <c r="D155" t="inlineStr"/>
+      <c r="E155" t="n">
+        <v>132.25</v>
+      </c>
+      <c r="F155" t="n">
+        <v>79.90097045898438</v>
+      </c>
+      <c r="G155" t="n">
+        <v>165.75</v>
+      </c>
+      <c r="H155" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I155" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J155" t="n">
+        <v>155.57</v>
+      </c>
+      <c r="K155" t="n">
+        <v>138.82</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>STWK.ST</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr"/>
+      <c r="D156" t="inlineStr"/>
+      <c r="E156" t="n">
+        <v>77.63</v>
+      </c>
+      <c r="F156" t="n">
+        <v>32.1791877746582</v>
+      </c>
+      <c r="G156" t="n">
+        <v>128.5</v>
+      </c>
+      <c r="H156" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I156" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J156" t="n">
+        <v>103.38</v>
+      </c>
+      <c r="K156" t="n">
+        <v>88.77</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>SVED-B.ST</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr"/>
+      <c r="D157" t="inlineStr"/>
+      <c r="E157" t="n">
+        <v>26.63</v>
+      </c>
+      <c r="F157" t="n">
+        <v>16.60000038146973</v>
+      </c>
+      <c r="G157" t="n">
+        <v>41.20000076293945</v>
+      </c>
+      <c r="H157" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I157" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J157" t="n">
+        <v>34.87</v>
+      </c>
+      <c r="K157" t="n">
+        <v>28.44</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>SVIK.ST</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr"/>
+      <c r="D158" t="inlineStr"/>
+      <c r="E158" t="n">
+        <v>58.59</v>
+      </c>
+      <c r="F158" t="n">
+        <v>24</v>
+      </c>
+      <c r="G158" t="n">
+        <v>106</v>
+      </c>
+      <c r="H158" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I158" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J158" t="n">
+        <v>94.73999999999999</v>
+      </c>
+      <c r="K158" t="n">
+        <v>66.61</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>SYSR.ST</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr"/>
+      <c r="D159" t="inlineStr"/>
+      <c r="E159" t="n">
+        <v>213.99</v>
+      </c>
+      <c r="F159" t="n">
+        <v>107</v>
+      </c>
+      <c r="G159" t="n">
+        <v>293.5</v>
+      </c>
+      <c r="H159" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I159" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J159" t="n">
+        <v>261.19</v>
+      </c>
+      <c r="K159" t="n">
+        <v>234.1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>TFBANK.ST</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr"/>
+      <c r="D160" t="inlineStr"/>
+      <c r="E160" t="n">
+        <v>86.55</v>
+      </c>
+      <c r="F160" t="n">
+        <v>64.32631683349609</v>
+      </c>
+      <c r="G160" t="n">
+        <v>127.0643310546875</v>
+      </c>
+      <c r="H160" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I160" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J160" t="n">
+        <v>96.84999999999999</v>
+      </c>
+      <c r="K160" t="n">
+        <v>90.26000000000001</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>THULE.ST</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr"/>
+      <c r="D161" t="inlineStr"/>
+      <c r="E161" t="n">
+        <v>264.93</v>
+      </c>
+      <c r="F161" t="n">
+        <v>136.0656280517578</v>
+      </c>
+      <c r="G161" t="n">
+        <v>340.6000061035156</v>
+      </c>
+      <c r="H161" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I161" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J161" t="n">
+        <v>307.88</v>
+      </c>
+      <c r="K161" t="n">
+        <v>284.64</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>TOBII.ST</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr"/>
+      <c r="D162" t="inlineStr"/>
+      <c r="E162" t="n">
+        <v>46.33</v>
+      </c>
+      <c r="F162" t="n">
+        <v>23.73999977111816</v>
+      </c>
+      <c r="G162" t="n">
+        <v>71.44999694824219</v>
+      </c>
+      <c r="H162" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I162" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J162" t="n">
+        <v>57.68</v>
+      </c>
+      <c r="K162" t="n">
+        <v>51.1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>TRAC-B.ST</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr"/>
+      <c r="D163" t="inlineStr"/>
+      <c r="E163" t="n">
+        <v>172.22</v>
+      </c>
+      <c r="F163" t="n">
+        <v>136.4363708496094</v>
+      </c>
+      <c r="G163" t="n">
+        <v>192.5</v>
+      </c>
+      <c r="H163" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I163" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J163" t="n">
+        <v>184.03</v>
+      </c>
+      <c r="K163" t="n">
+        <v>175.44</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>TRAD.ST</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr"/>
+      <c r="D164" t="inlineStr"/>
+      <c r="E164" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="F164" t="n">
+        <v>1.615000009536743</v>
+      </c>
+      <c r="G164" t="n">
+        <v>4.179999828338623</v>
+      </c>
+      <c r="H164" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I164" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J164" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="K164" t="n">
+        <v>3.08</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>TREL-B.ST</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr"/>
+      <c r="D165" t="inlineStr"/>
+      <c r="E165" t="n">
+        <v>157.72</v>
+      </c>
+      <c r="F165" t="n">
+        <v>86.07595825195312</v>
+      </c>
+      <c r="G165" t="n">
+        <v>205.1000061035156</v>
+      </c>
+      <c r="H165" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I165" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J165" t="n">
+        <v>189.09</v>
+      </c>
+      <c r="K165" t="n">
+        <v>167.66</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>TRENT.ST</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr"/>
+      <c r="D166" t="inlineStr"/>
+      <c r="E166" t="n">
+        <v>62.92</v>
+      </c>
+      <c r="F166" t="n">
+        <v>45.70000076293945</v>
+      </c>
+      <c r="G166" t="n">
+        <v>77</v>
+      </c>
+      <c r="H166" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I166" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J166" t="n">
+        <v>74.84</v>
+      </c>
+      <c r="K166" t="n">
+        <v>66.56999999999999</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>TROAX.ST</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr"/>
+      <c r="D167" t="inlineStr"/>
+      <c r="E167" t="n">
+        <v>163.68</v>
+      </c>
+      <c r="F167" t="n">
+        <v>70.41252136230469</v>
+      </c>
+      <c r="G167" t="n">
+        <v>213</v>
+      </c>
+      <c r="H167" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I167" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J167" t="n">
+        <v>193.84</v>
+      </c>
+      <c r="K167" t="n">
+        <v>175.02</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>VBG-B.ST</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr"/>
+      <c r="D168" t="inlineStr"/>
+      <c r="E168" t="n">
+        <v>142.96</v>
+      </c>
+      <c r="F168" t="n">
+        <v>98.79963684082031</v>
+      </c>
+      <c r="G168" t="n">
+        <v>172.0559539794922</v>
+      </c>
+      <c r="H168" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I168" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J168" t="n">
+        <v>160.28</v>
+      </c>
+      <c r="K168" t="n">
+        <v>145.52</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>VICO.ST</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr"/>
+      <c r="D169" t="inlineStr"/>
+      <c r="E169" t="n">
+        <v>21.05</v>
+      </c>
+      <c r="F169" t="n">
+        <v>6.900000095367432</v>
+      </c>
+      <c r="G169" t="n">
+        <v>37.59999847412109</v>
+      </c>
+      <c r="H169" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I169" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J169" t="n">
+        <v>27.76</v>
+      </c>
+      <c r="K169" t="n">
+        <v>22.84</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>VIT-B.ST</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr"/>
+      <c r="D170" t="inlineStr"/>
+      <c r="E170" t="n">
+        <v>272.07</v>
+      </c>
+      <c r="F170" t="n">
+        <v>129.511474609375</v>
+      </c>
+      <c r="G170" t="n">
+        <v>360</v>
+      </c>
+      <c r="H170" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I170" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J170" t="n">
+        <v>317.95</v>
+      </c>
+      <c r="K170" t="n">
+        <v>295.94</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>VNE-SDB.ST</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr"/>
+      <c r="D171" t="inlineStr"/>
+      <c r="E171" t="n">
+        <v>136.72</v>
+      </c>
+      <c r="F171" t="n">
+        <v>57.63999938964844</v>
+      </c>
+      <c r="G171" t="n">
+        <v>252.3999938964844</v>
+      </c>
+      <c r="H171" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I171" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J171" t="n">
+        <v>195.86</v>
+      </c>
+      <c r="K171" t="n">
+        <v>148.8</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>VOLO.ST</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr"/>
+      <c r="D172" t="inlineStr"/>
+      <c r="E172" t="n">
+        <v>63.31</v>
+      </c>
+      <c r="F172" t="n">
+        <v>26.59793663024902</v>
+      </c>
+      <c r="G172" t="n">
+        <v>110.8247451782227</v>
+      </c>
+      <c r="H172" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I172" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J172" t="n">
+        <v>97.61</v>
+      </c>
+      <c r="K172" t="n">
+        <v>72.65000000000001</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>VOLO-PREF.ST</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr"/>
+      <c r="D173" t="inlineStr"/>
+      <c r="E173" t="n">
+        <v>594.59</v>
+      </c>
+      <c r="F173" t="n">
+        <v>418.8184814453125</v>
+      </c>
+      <c r="G173" t="n">
+        <v>664</v>
+      </c>
+      <c r="H173" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I173" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J173" t="n">
+        <v>640.03</v>
+      </c>
+      <c r="K173" t="n">
+        <v>606.71</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>VOLV-A.ST</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr"/>
+      <c r="D174" t="inlineStr"/>
+      <c r="E174" t="n">
+        <v>171.32</v>
+      </c>
+      <c r="F174" t="n">
+        <v>94.69905090332031</v>
+      </c>
+      <c r="G174" t="n">
+        <v>218.5</v>
+      </c>
+      <c r="H174" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I174" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J174" t="n">
+        <v>204.96</v>
+      </c>
+      <c r="K174" t="n">
+        <v>183.36</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>VOLV-B.ST</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr"/>
+      <c r="D175" t="inlineStr"/>
+      <c r="E175" t="n">
+        <v>171.14</v>
+      </c>
+      <c r="F175" t="n">
+        <v>93.20916748046875</v>
+      </c>
+      <c r="G175" t="n">
+        <v>217.3999938964844</v>
+      </c>
+      <c r="H175" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I175" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J175" t="n">
+        <v>204.48</v>
+      </c>
+      <c r="K175" t="n">
+        <v>183.01</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>WISE.ST</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr"/>
+      <c r="D176" t="inlineStr"/>
+      <c r="E176" t="n">
+        <v>25.93</v>
+      </c>
+      <c r="F176" t="n">
+        <v>17.10000038146973</v>
+      </c>
+      <c r="G176" t="n">
+        <v>42</v>
+      </c>
+      <c r="H176" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I176" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J176" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="K176" t="n">
+        <v>26.85</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>XANO-B.ST</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr"/>
+      <c r="D177" t="inlineStr"/>
+      <c r="E177" t="n">
+        <v>112.25</v>
+      </c>
+      <c r="F177" t="n">
+        <v>70</v>
+      </c>
+      <c r="G177" t="n">
+        <v>161.5</v>
+      </c>
+      <c r="H177" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="I177" s="2" t="n">
+        <v>44240</v>
+      </c>
+      <c r="J177" t="n">
+        <v>138.65</v>
+      </c>
+      <c r="K177" t="n">
+        <v>118.34</v>
       </c>
     </row>
   </sheetData>
